--- a/target/smartpls.xlsx
+++ b/target/smartpls.xlsx
@@ -8,15 +8,16 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\www\tesis\target\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{34F03E23-375E-42F7-9356-E6265A143ACD}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B9EA601F-38B3-423E-860B-8EB82090C4D6}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" activeTab="3" xr2:uid="{A045F930-4DC8-43A3-823B-36ED7A8AB670}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" activeTab="4" xr2:uid="{A045F930-4DC8-43A3-823B-36ED7A8AB670}"/>
   </bookViews>
   <sheets>
     <sheet name="flc" sheetId="1" r:id="rId1"/>
     <sheet name="htmt" sheetId="2" r:id="rId2"/>
     <sheet name="validity and reability" sheetId="3" r:id="rId3"/>
     <sheet name="loading factor" sheetId="4" r:id="rId4"/>
+    <sheet name="bootstrapping" sheetId="5" r:id="rId5"/>
   </sheets>
   <calcPr calcId="191029"/>
   <extLst>
@@ -28,7 +29,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="220" uniqueCount="160">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="262" uniqueCount="190">
   <si>
     <t>BK (X3)</t>
   </si>
@@ -508,6 +509,96 @@
   </si>
   <si>
     <t>WB6</t>
+  </si>
+  <si>
+    <t>Original Sample (O)</t>
+  </si>
+  <si>
+    <t>Sample Mean (M)</t>
+  </si>
+  <si>
+    <t>Standard Deviation (STDEV)</t>
+  </si>
+  <si>
+    <t>T Statistics (|O/STDEV|)</t>
+  </si>
+  <si>
+    <t>P Values</t>
+  </si>
+  <si>
+    <t>BK (X3) -&gt; PK (Y)</t>
+  </si>
+  <si>
+    <t>0.690</t>
+  </si>
+  <si>
+    <t>0.689</t>
+  </si>
+  <si>
+    <t>0.000</t>
+  </si>
+  <si>
+    <t>BK &gt; D &gt; PK -&gt; PK (Y)</t>
+  </si>
+  <si>
+    <t>0.036</t>
+  </si>
+  <si>
+    <t>0.993</t>
+  </si>
+  <si>
+    <t>0.161</t>
+  </si>
+  <si>
+    <t>D (Z) -&gt; PK (Y)</t>
+  </si>
+  <si>
+    <t>0.170</t>
+  </si>
+  <si>
+    <t>0.172</t>
+  </si>
+  <si>
+    <t>0.033</t>
+  </si>
+  <si>
+    <t>P (X1) -&gt; PK (Y)</t>
+  </si>
+  <si>
+    <t>0.088</t>
+  </si>
+  <si>
+    <t>0.091</t>
+  </si>
+  <si>
+    <t>P &gt; D &gt; PK -&gt; PK (Y)</t>
+  </si>
+  <si>
+    <t>-0.044</t>
+  </si>
+  <si>
+    <t>-0.040</t>
+  </si>
+  <si>
+    <t>0.140</t>
+  </si>
+  <si>
+    <t>WB (X2) -&gt; PK (Y)</t>
+  </si>
+  <si>
+    <t>0.034</t>
+  </si>
+  <si>
+    <t>WB &gt; D &gt; PK -&gt; PK (Y)</t>
+  </si>
+  <si>
+    <t>0.008</t>
+  </si>
+  <si>
+    <t>0.263</t>
+  </si>
+  <si>
+    <t>0.397</t>
   </si>
 </sst>
 </file>
@@ -1388,7 +1479,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{02CF344E-BB11-4CB3-9A36-5269510EDA15}">
   <dimension ref="A1:I45"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection sqref="A1:I45"/>
     </sheetView>
   </sheetViews>
@@ -1775,4 +1866,176 @@
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{61D632CE-895E-47EE-8302-B52F9BDA9B35}">
+  <dimension ref="A1:F8"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection sqref="A1:G9"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetData>
+    <row r="1" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="B1" t="s">
+        <v>160</v>
+      </c>
+      <c r="C1" t="s">
+        <v>161</v>
+      </c>
+      <c r="D1" t="s">
+        <v>162</v>
+      </c>
+      <c r="E1" t="s">
+        <v>163</v>
+      </c>
+      <c r="F1" t="s">
+        <v>164</v>
+      </c>
+    </row>
+    <row r="2" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A2" t="s">
+        <v>165</v>
+      </c>
+      <c r="B2" t="s">
+        <v>166</v>
+      </c>
+      <c r="C2" t="s">
+        <v>167</v>
+      </c>
+      <c r="D2" t="s">
+        <v>54</v>
+      </c>
+      <c r="E2" s="1">
+        <v>29370</v>
+      </c>
+      <c r="F2" t="s">
+        <v>168</v>
+      </c>
+    </row>
+    <row r="3" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A3" t="s">
+        <v>169</v>
+      </c>
+      <c r="B3" t="s">
+        <v>170</v>
+      </c>
+      <c r="C3" t="s">
+        <v>46</v>
+      </c>
+      <c r="D3" t="s">
+        <v>170</v>
+      </c>
+      <c r="E3" t="s">
+        <v>171</v>
+      </c>
+      <c r="F3" t="s">
+        <v>172</v>
+      </c>
+    </row>
+    <row r="4" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A4" t="s">
+        <v>173</v>
+      </c>
+      <c r="B4" t="s">
+        <v>174</v>
+      </c>
+      <c r="C4" t="s">
+        <v>175</v>
+      </c>
+      <c r="D4" t="s">
+        <v>176</v>
+      </c>
+      <c r="E4" s="1">
+        <v>5174</v>
+      </c>
+      <c r="F4" t="s">
+        <v>168</v>
+      </c>
+    </row>
+    <row r="5" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A5" t="s">
+        <v>177</v>
+      </c>
+      <c r="B5" t="s">
+        <v>178</v>
+      </c>
+      <c r="C5" t="s">
+        <v>179</v>
+      </c>
+      <c r="D5" t="s">
+        <v>170</v>
+      </c>
+      <c r="E5" s="1">
+        <v>2461</v>
+      </c>
+      <c r="F5" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="6" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A6" t="s">
+        <v>180</v>
+      </c>
+      <c r="B6" t="s">
+        <v>181</v>
+      </c>
+      <c r="C6" t="s">
+        <v>182</v>
+      </c>
+      <c r="D6" t="s">
+        <v>59</v>
+      </c>
+      <c r="E6" s="1">
+        <v>1081</v>
+      </c>
+      <c r="F6" t="s">
+        <v>183</v>
+      </c>
+    </row>
+    <row r="7" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A7" t="s">
+        <v>184</v>
+      </c>
+      <c r="B7" t="s">
+        <v>52</v>
+      </c>
+      <c r="C7" t="s">
+        <v>24</v>
+      </c>
+      <c r="D7" t="s">
+        <v>185</v>
+      </c>
+      <c r="E7" s="1">
+        <v>3992</v>
+      </c>
+      <c r="F7" t="s">
+        <v>168</v>
+      </c>
+    </row>
+    <row r="8" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A8" t="s">
+        <v>186</v>
+      </c>
+      <c r="B8" t="s">
+        <v>187</v>
+      </c>
+      <c r="C8" t="s">
+        <v>187</v>
+      </c>
+      <c r="D8" t="s">
+        <v>36</v>
+      </c>
+      <c r="E8" t="s">
+        <v>188</v>
+      </c>
+      <c r="F8" t="s">
+        <v>189</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
 </file>
--- a/target/smartpls.xlsx
+++ b/target/smartpls.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\www\tesis\target\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B9EA601F-38B3-423E-860B-8EB82090C4D6}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3F3D9B8F-EB53-474D-87B8-1111EB2FA7BA}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" activeTab="4" xr2:uid="{A045F930-4DC8-43A3-823B-36ED7A8AB670}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" activeTab="6" xr2:uid="{A045F930-4DC8-43A3-823B-36ED7A8AB670}"/>
   </bookViews>
   <sheets>
     <sheet name="flc" sheetId="1" r:id="rId1"/>
@@ -18,6 +18,8 @@
     <sheet name="validity and reability" sheetId="3" r:id="rId3"/>
     <sheet name="loading factor" sheetId="4" r:id="rId4"/>
     <sheet name="bootstrapping" sheetId="5" r:id="rId5"/>
+    <sheet name="r square" sheetId="6" r:id="rId6"/>
+    <sheet name="blindfold" sheetId="7" r:id="rId7"/>
   </sheets>
   <calcPr calcId="191029"/>
   <extLst>
@@ -29,7 +31,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="262" uniqueCount="190">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="279" uniqueCount="198">
   <si>
     <t>BK (X3)</t>
   </si>
@@ -599,6 +601,30 @@
   </si>
   <si>
     <t>0.397</t>
+  </si>
+  <si>
+    <t>R Square</t>
+  </si>
+  <si>
+    <t>R Square Adjusted</t>
+  </si>
+  <si>
+    <t>0.544</t>
+  </si>
+  <si>
+    <t>0.535</t>
+  </si>
+  <si>
+    <t>SSO</t>
+  </si>
+  <si>
+    <t>SSE</t>
+  </si>
+  <si>
+    <t>Q² (=1-SSE/SSO)</t>
+  </si>
+  <si>
+    <t>0.409</t>
   </si>
 </sst>
 </file>
@@ -1872,7 +1898,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{61D632CE-895E-47EE-8302-B52F9BDA9B35}">
   <dimension ref="A1:F8"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection sqref="A1:G9"/>
     </sheetView>
   </sheetViews>
@@ -2038,4 +2064,155 @@
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{6A4059C2-B032-4359-AABB-26B5B52ACA28}">
+  <dimension ref="A1:C2"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection sqref="A1:D3"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetData>
+    <row r="1" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="B1" t="s">
+        <v>190</v>
+      </c>
+      <c r="C1" t="s">
+        <v>191</v>
+      </c>
+    </row>
+    <row r="2" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A2" t="s">
+        <v>5</v>
+      </c>
+      <c r="B2" t="s">
+        <v>192</v>
+      </c>
+      <c r="C2" t="s">
+        <v>193</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{337DD07D-15D1-4E7C-B810-55956BD8A789}">
+  <dimension ref="A1:D9"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection sqref="A1:E10"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetData>
+    <row r="1" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="B1" t="s">
+        <v>194</v>
+      </c>
+      <c r="C1" t="s">
+        <v>195</v>
+      </c>
+      <c r="D1" t="s">
+        <v>196</v>
+      </c>
+    </row>
+    <row r="2" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A2" t="s">
+        <v>0</v>
+      </c>
+      <c r="B2" s="1">
+        <v>2250000</v>
+      </c>
+      <c r="C2" s="1">
+        <v>2250000</v>
+      </c>
+    </row>
+    <row r="3" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A3" t="s">
+        <v>1</v>
+      </c>
+      <c r="B3" s="1">
+        <v>375000</v>
+      </c>
+      <c r="C3" s="1">
+        <v>375000</v>
+      </c>
+    </row>
+    <row r="4" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A4" t="s">
+        <v>2</v>
+      </c>
+      <c r="B4" s="1">
+        <v>4125000</v>
+      </c>
+      <c r="C4" s="1">
+        <v>4125000</v>
+      </c>
+    </row>
+    <row r="5" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A5" t="s">
+        <v>3</v>
+      </c>
+      <c r="B5" s="1">
+        <v>3750000</v>
+      </c>
+      <c r="C5" s="1">
+        <v>3750000</v>
+      </c>
+    </row>
+    <row r="6" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A6" t="s">
+        <v>4</v>
+      </c>
+      <c r="B6" s="1">
+        <v>375000</v>
+      </c>
+      <c r="C6" s="1">
+        <v>375000</v>
+      </c>
+    </row>
+    <row r="7" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A7" t="s">
+        <v>5</v>
+      </c>
+      <c r="B7" s="1">
+        <v>3000000</v>
+      </c>
+      <c r="C7" s="1">
+        <v>1772020</v>
+      </c>
+      <c r="D7" t="s">
+        <v>197</v>
+      </c>
+    </row>
+    <row r="8" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A8" t="s">
+        <v>6</v>
+      </c>
+      <c r="B8" s="1">
+        <v>2250000</v>
+      </c>
+      <c r="C8" s="1">
+        <v>2250000</v>
+      </c>
+    </row>
+    <row r="9" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A9" t="s">
+        <v>7</v>
+      </c>
+      <c r="B9" s="1">
+        <v>375000</v>
+      </c>
+      <c r="C9" s="1">
+        <v>375000</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
 </file>
--- a/target/smartpls.xlsx
+++ b/target/smartpls.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\www\tesis\target\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3F3D9B8F-EB53-474D-87B8-1111EB2FA7BA}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F81C0E87-5D18-4A13-B96D-07D90423D2D6}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" activeTab="6" xr2:uid="{A045F930-4DC8-43A3-823B-36ED7A8AB670}"/>
+    <workbookView xWindow="6885" yWindow="3795" windowWidth="21600" windowHeight="11295" firstSheet="1" activeTab="7" xr2:uid="{A045F930-4DC8-43A3-823B-36ED7A8AB670}"/>
   </bookViews>
   <sheets>
     <sheet name="flc" sheetId="1" r:id="rId1"/>
@@ -20,6 +20,7 @@
     <sheet name="bootstrapping" sheetId="5" r:id="rId5"/>
     <sheet name="r square" sheetId="6" r:id="rId6"/>
     <sheet name="blindfold" sheetId="7" r:id="rId7"/>
+    <sheet name="nfi" sheetId="8" r:id="rId8"/>
   </sheets>
   <calcPr calcId="191029"/>
   <extLst>
@@ -31,7 +32,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="279" uniqueCount="198">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="292" uniqueCount="208">
   <si>
     <t>BK (X3)</t>
   </si>
@@ -625,6 +626,36 @@
   </si>
   <si>
     <t>0.409</t>
+  </si>
+  <si>
+    <t>Saturated Model</t>
+  </si>
+  <si>
+    <t>Estimated Model</t>
+  </si>
+  <si>
+    <t>SRMR</t>
+  </si>
+  <si>
+    <t>d_ULS</t>
+  </si>
+  <si>
+    <t>d_G</t>
+  </si>
+  <si>
+    <t>0.447</t>
+  </si>
+  <si>
+    <t>0.448</t>
+  </si>
+  <si>
+    <t>Chi-Square</t>
+  </si>
+  <si>
+    <t>NFI</t>
+  </si>
+  <si>
+    <t>0.935</t>
   </si>
 </sst>
 </file>
@@ -2104,7 +2135,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{337DD07D-15D1-4E7C-B810-55956BD8A789}">
   <dimension ref="A1:D9"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection sqref="A1:E10"/>
     </sheetView>
   </sheetViews>
@@ -2215,4 +2246,82 @@
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{F88A3ED2-D3BB-4921-8ECC-77A9EE2EAAE6}">
+  <dimension ref="A1:C6"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="N12" sqref="N12"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetData>
+    <row r="1" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="B1" t="s">
+        <v>198</v>
+      </c>
+      <c r="C1" t="s">
+        <v>199</v>
+      </c>
+    </row>
+    <row r="2" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A2" t="s">
+        <v>200</v>
+      </c>
+      <c r="B2" t="s">
+        <v>185</v>
+      </c>
+      <c r="C2" t="s">
+        <v>185</v>
+      </c>
+    </row>
+    <row r="3" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A3" t="s">
+        <v>201</v>
+      </c>
+      <c r="B3" s="1">
+        <v>1003</v>
+      </c>
+      <c r="C3" s="1">
+        <v>1005</v>
+      </c>
+    </row>
+    <row r="4" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A4" t="s">
+        <v>202</v>
+      </c>
+      <c r="B4" t="s">
+        <v>203</v>
+      </c>
+      <c r="C4" t="s">
+        <v>204</v>
+      </c>
+    </row>
+    <row r="5" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A5" t="s">
+        <v>205</v>
+      </c>
+      <c r="B5" s="1">
+        <v>939460</v>
+      </c>
+      <c r="C5" s="1">
+        <v>940749</v>
+      </c>
+    </row>
+    <row r="6" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A6" t="s">
+        <v>206</v>
+      </c>
+      <c r="B6" t="s">
+        <v>207</v>
+      </c>
+      <c r="C6" t="s">
+        <v>207</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
 </file>
--- a/target/smartpls.xlsx
+++ b/target/smartpls.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\www\tesis\target\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F81C0E87-5D18-4A13-B96D-07D90423D2D6}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{41E07E20-3CA1-4F7C-A734-673648B3D804}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="6885" yWindow="3795" windowWidth="21600" windowHeight="11295" firstSheet="1" activeTab="7" xr2:uid="{A045F930-4DC8-43A3-823B-36ED7A8AB670}"/>
+    <workbookView xWindow="6885" yWindow="3795" windowWidth="21600" windowHeight="11295" firstSheet="2" activeTab="8" xr2:uid="{A045F930-4DC8-43A3-823B-36ED7A8AB670}"/>
   </bookViews>
   <sheets>
     <sheet name="flc" sheetId="1" r:id="rId1"/>
@@ -21,6 +21,7 @@
     <sheet name="r square" sheetId="6" r:id="rId6"/>
     <sheet name="blindfold" sheetId="7" r:id="rId7"/>
     <sheet name="nfi" sheetId="8" r:id="rId8"/>
+    <sheet name="vif" sheetId="9" r:id="rId9"/>
   </sheets>
   <calcPr calcId="191029"/>
   <extLst>
@@ -32,7 +33,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="292" uniqueCount="208">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="337" uniqueCount="209">
   <si>
     <t>BK (X3)</t>
   </si>
@@ -656,6 +657,9 @@
   </si>
   <si>
     <t>0.935</t>
+  </si>
+  <si>
+    <t>VIF</t>
   </si>
 </sst>
 </file>
@@ -2252,7 +2256,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{F88A3ED2-D3BB-4921-8ECC-77A9EE2EAAE6}">
   <dimension ref="A1:C6"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="N12" sqref="N12"/>
     </sheetView>
   </sheetViews>
@@ -2324,4 +2328,379 @@
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{C0D852D1-3B6B-4BB9-864E-C3E094800358}">
+  <dimension ref="A1:B45"/>
+  <sheetViews>
+    <sheetView tabSelected="1" topLeftCell="A37" workbookViewId="0">
+      <selection sqref="A1:C46"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="14.140625" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="B1" t="s">
+        <v>208</v>
+      </c>
+    </row>
+    <row r="2" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A2" t="s">
+        <v>85</v>
+      </c>
+      <c r="B2" s="1">
+        <v>1000</v>
+      </c>
+    </row>
+    <row r="3" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A3" t="s">
+        <v>87</v>
+      </c>
+      <c r="B3" s="1">
+        <v>2755</v>
+      </c>
+    </row>
+    <row r="4" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A4" t="s">
+        <v>89</v>
+      </c>
+      <c r="B4" s="1">
+        <v>2958</v>
+      </c>
+    </row>
+    <row r="5" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A5" t="s">
+        <v>91</v>
+      </c>
+      <c r="B5" s="1">
+        <v>4151</v>
+      </c>
+    </row>
+    <row r="6" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A6" t="s">
+        <v>93</v>
+      </c>
+      <c r="B6" s="1">
+        <v>3207</v>
+      </c>
+    </row>
+    <row r="7" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A7" t="s">
+        <v>95</v>
+      </c>
+      <c r="B7" s="1">
+        <v>2635</v>
+      </c>
+    </row>
+    <row r="8" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A8" t="s">
+        <v>97</v>
+      </c>
+      <c r="B8" s="1">
+        <v>3097</v>
+      </c>
+    </row>
+    <row r="9" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A9" t="s">
+        <v>99</v>
+      </c>
+      <c r="B9" s="1">
+        <v>2911</v>
+      </c>
+    </row>
+    <row r="10" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A10" t="s">
+        <v>101</v>
+      </c>
+      <c r="B10" s="1">
+        <v>2889</v>
+      </c>
+    </row>
+    <row r="11" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A11" t="s">
+        <v>103</v>
+      </c>
+      <c r="B11" s="1">
+        <v>4079</v>
+      </c>
+    </row>
+    <row r="12" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A12" t="s">
+        <v>105</v>
+      </c>
+      <c r="B12" s="1">
+        <v>3189</v>
+      </c>
+    </row>
+    <row r="13" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A13" t="s">
+        <v>107</v>
+      </c>
+      <c r="B13" s="1">
+        <v>3212</v>
+      </c>
+    </row>
+    <row r="14" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A14" t="s">
+        <v>109</v>
+      </c>
+      <c r="B14" s="1">
+        <v>3409</v>
+      </c>
+    </row>
+    <row r="15" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A15" t="s">
+        <v>111</v>
+      </c>
+      <c r="B15" s="1">
+        <v>3817</v>
+      </c>
+    </row>
+    <row r="16" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A16" t="s">
+        <v>113</v>
+      </c>
+      <c r="B16" s="1">
+        <v>2750</v>
+      </c>
+    </row>
+    <row r="17" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A17" t="s">
+        <v>115</v>
+      </c>
+      <c r="B17" s="1">
+        <v>3068</v>
+      </c>
+    </row>
+    <row r="18" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A18" t="s">
+        <v>117</v>
+      </c>
+      <c r="B18" s="1">
+        <v>2740</v>
+      </c>
+    </row>
+    <row r="19" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A19" t="s">
+        <v>119</v>
+      </c>
+      <c r="B19" s="1">
+        <v>3138</v>
+      </c>
+    </row>
+    <row r="20" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A20" t="s">
+        <v>121</v>
+      </c>
+      <c r="B20" s="1">
+        <v>1000</v>
+      </c>
+    </row>
+    <row r="21" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A21" t="s">
+        <v>122</v>
+      </c>
+      <c r="B21" s="1">
+        <v>2965</v>
+      </c>
+    </row>
+    <row r="22" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A22" t="s">
+        <v>124</v>
+      </c>
+      <c r="B22" s="1">
+        <v>3778</v>
+      </c>
+    </row>
+    <row r="23" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A23" t="s">
+        <v>126</v>
+      </c>
+      <c r="B23" s="1">
+        <v>3292</v>
+      </c>
+    </row>
+    <row r="24" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A24" t="s">
+        <v>128</v>
+      </c>
+      <c r="B24" s="1">
+        <v>3648</v>
+      </c>
+    </row>
+    <row r="25" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A25" t="s">
+        <v>130</v>
+      </c>
+      <c r="B25" s="1">
+        <v>3590</v>
+      </c>
+    </row>
+    <row r="26" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A26" t="s">
+        <v>131</v>
+      </c>
+      <c r="B26" s="1">
+        <v>3269</v>
+      </c>
+    </row>
+    <row r="27" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A27" t="s">
+        <v>132</v>
+      </c>
+      <c r="B27" s="1">
+        <v>3471</v>
+      </c>
+    </row>
+    <row r="28" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A28" t="s">
+        <v>133</v>
+      </c>
+      <c r="B28" s="1">
+        <v>3681</v>
+      </c>
+    </row>
+    <row r="29" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A29" t="s">
+        <v>135</v>
+      </c>
+      <c r="B29" s="1">
+        <v>3642</v>
+      </c>
+    </row>
+    <row r="30" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A30" t="s">
+        <v>136</v>
+      </c>
+      <c r="B30" s="1">
+        <v>3009</v>
+      </c>
+    </row>
+    <row r="31" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A31" t="s">
+        <v>138</v>
+      </c>
+      <c r="B31" s="1">
+        <v>3190</v>
+      </c>
+    </row>
+    <row r="32" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A32" t="s">
+        <v>140</v>
+      </c>
+      <c r="B32" s="1">
+        <v>3418</v>
+      </c>
+    </row>
+    <row r="33" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A33" t="s">
+        <v>141</v>
+      </c>
+      <c r="B33" s="1">
+        <v>3188</v>
+      </c>
+    </row>
+    <row r="34" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A34" t="s">
+        <v>143</v>
+      </c>
+      <c r="B34" s="1">
+        <v>3462</v>
+      </c>
+    </row>
+    <row r="35" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A35" t="s">
+        <v>144</v>
+      </c>
+      <c r="B35" s="1">
+        <v>3430</v>
+      </c>
+    </row>
+    <row r="36" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A36" t="s">
+        <v>145</v>
+      </c>
+      <c r="B36" s="1">
+        <v>3253</v>
+      </c>
+    </row>
+    <row r="37" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A37" t="s">
+        <v>146</v>
+      </c>
+      <c r="B37" s="1">
+        <v>3292</v>
+      </c>
+    </row>
+    <row r="38" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A38" t="s">
+        <v>148</v>
+      </c>
+      <c r="B38" s="1">
+        <v>3108</v>
+      </c>
+    </row>
+    <row r="39" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A39" t="s">
+        <v>150</v>
+      </c>
+      <c r="B39" s="1">
+        <v>1000</v>
+      </c>
+    </row>
+    <row r="40" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A40" t="s">
+        <v>151</v>
+      </c>
+      <c r="B40" s="1">
+        <v>2371</v>
+      </c>
+    </row>
+    <row r="41" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A41" t="s">
+        <v>153</v>
+      </c>
+      <c r="B41" s="1">
+        <v>2382</v>
+      </c>
+    </row>
+    <row r="42" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A42" t="s">
+        <v>154</v>
+      </c>
+      <c r="B42" s="1">
+        <v>2326</v>
+      </c>
+    </row>
+    <row r="43" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A43" t="s">
+        <v>155</v>
+      </c>
+      <c r="B43" s="1">
+        <v>2396</v>
+      </c>
+    </row>
+    <row r="44" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A44" t="s">
+        <v>157</v>
+      </c>
+      <c r="B44" s="1">
+        <v>2350</v>
+      </c>
+    </row>
+    <row r="45" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A45" t="s">
+        <v>159</v>
+      </c>
+      <c r="B45" s="1">
+        <v>2479</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
 </file>
--- a/target/smartpls.xlsx
+++ b/target/smartpls.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\www\tesis\target\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{41E07E20-3CA1-4F7C-A734-673648B3D804}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{35FBE3D7-A559-4051-8329-AF62A34B19A6}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="6885" yWindow="3795" windowWidth="21600" windowHeight="11295" firstSheet="2" activeTab="8" xr2:uid="{A045F930-4DC8-43A3-823B-36ED7A8AB670}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" firstSheet="3" activeTab="9" xr2:uid="{A045F930-4DC8-43A3-823B-36ED7A8AB670}"/>
   </bookViews>
   <sheets>
     <sheet name="flc" sheetId="1" r:id="rId1"/>
@@ -22,6 +22,7 @@
     <sheet name="blindfold" sheetId="7" r:id="rId7"/>
     <sheet name="nfi" sheetId="8" r:id="rId8"/>
     <sheet name="vif" sheetId="9" r:id="rId9"/>
+    <sheet name="penelitian terdahulu" sheetId="10" r:id="rId10"/>
   </sheets>
   <calcPr calcId="191029"/>
   <extLst>
@@ -33,7 +34,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="337" uniqueCount="209">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="427" uniqueCount="299">
   <si>
     <t>BK (X3)</t>
   </si>
@@ -660,6 +661,276 @@
   </si>
   <si>
     <t>VIF</t>
+  </si>
+  <si>
+    <t>No.</t>
+  </si>
+  <si>
+    <t>Author(s)</t>
+  </si>
+  <si>
+    <t>Year</t>
+  </si>
+  <si>
+    <t>Variable Type</t>
+  </si>
+  <si>
+    <t>Research Methods</t>
+  </si>
+  <si>
+    <t>Results/Findings</t>
+  </si>
+  <si>
+    <t>Mohammed A. Al Doghan &amp; Ariff Syah Juhari</t>
+  </si>
+  <si>
+    <t>Pengetahuan, Pelatihan, Keterampilan, Rasa Aman Karyawan, Produktivitas Karyawan</t>
+  </si>
+  <si>
+    <t>Metode Kuantitatif dengan 270 responden</t>
+  </si>
+  <si>
+    <t>Studi ini menegaskan bahwa keamanan karyawan (ES) adalah mediator kritis antara pengetahuan/pelatihan/keterampilan keselamatan dengan produktivitas. Industri petrokimia di Arab Saudi perlu fokus pada pelatihan keselamatan dan membangun kesadaran keamanan untuk meningkatkan kinerja karyawan.</t>
+  </si>
+  <si>
+    <t>Resi Amelia &amp; Risa Kartika Lubis</t>
+  </si>
+  <si>
+    <t>Pendidikan, Pelatihan Kerja, Produktivitas Kerja</t>
+  </si>
+  <si>
+    <t>Metode Kuantitatif dengan 92 responden karyawan PT Sagami Indonesia</t>
+  </si>
+  <si>
+    <t>Penelitian ini menyimpulkan bahwa pendidikan dan pelatihan kerja memiliki pengaruh signifikan, baik secara parsial maupun simultan, terhadap peningkatan produktivitas karyawan di PT. Sagami Indonesia.</t>
+  </si>
+  <si>
+    <t>Yusuf Rohmad Mustofa, Nur Aini Anisa, Nur Farida</t>
+  </si>
+  <si>
+    <t>Pelatihan Kerja, Produktivitas Kerja</t>
+  </si>
+  <si>
+    <t>Metode kuantitatif dengan 122 responden dari Divisi Kapal Perang PT. PAL Indonesia (Persero).</t>
+  </si>
+  <si>
+    <t>Penelitian ini menemukan bahwa pelatihan kerja secara parsial memiliki pengaruh positif dan signifikan terhadap produktivitas kerja karyawan di PT PAL Indonesia (Persero) Divisi Kapal Perang. Artinya, peningkatan dalam program pelatihan kerja secara langsung berkontribusi pada peningkatan produktivitas karyawan, menunjukkan bahwa pelatihan efektif dalam membekali karyawan dengan keterampilan dan pengetahuan yang relevan untuk pekerjaan mereka. Signifikansi statistik dari temuan ini mengindikasikan bahwa hubungan antara pelatihan dan produktivitas bukanlah kebetulan, melainkan hasil yang dapat diandalkan, yang menekankan pentingnya investasi perusahaan dalam pelatihan untuk meningkatkan kinerja karyawan.</t>
+  </si>
+  <si>
+    <t>Tegar Ainurrokhim, Kiskendra Citra Hati, Naufal Daffa Adibta</t>
+  </si>
+  <si>
+    <t>Wawancara kualitatif dengan pemilik UMKM.</t>
+  </si>
+  <si>
+    <t>Hasil penelitian menunjukkan bahwa transformasi digital menjadi kunci peningkatan daya saing UMKM di Indonesia, namun adopsinya masih terkendala rendahnya literasi digital dan terbatasnya akses pendanaan. Pelatihan keterampilan digital dan kemudahan pembiayaan diperlukan agar UMKM dapat memanfaatkan teknologi secara optimal, meningkatkan efisiensi, dan memperluas pasar. Dukungan kebijakan dan kolaborasi stakeholder menjadi faktor penentu keberhasilan transformasi ini.</t>
+  </si>
+  <si>
+    <t>Mira Gustiana Pangestu, Yosi Fahdillah, Vivi Usmayanti, Aini Tri Agustin</t>
+  </si>
+  <si>
+    <t>Pelatihan Digitalisasi Marketing, Peningkatan Produksi dan Pemasaran</t>
+  </si>
+  <si>
+    <t>Pemberian materi tentang digitalisasi marketing, penggunaan media digital sebagai alat pemasaran, dan praktik pembuatan media online digital, 10 orang responden.</t>
+  </si>
+  <si>
+    <t>Penelitian ini menunjukkan bahwa pelatihan digitalisasi marketing telah berhasil dilaksanakan untuk UMKM Kerupuk Ikan Kelurahan Pasir Panjang, dengan tujuan untuk memberikan pengetahuan dan keterampilan dalam pemasaran digital. Melalui pelatihan ini, para pelaku UMKM diharapkan dapat lebih efektif memanfaatkan platform digital untuk mempromosikan produk mereka, yang pada akhirnya dapat meningkatkan jangkauan pasar dan potensi peningkatan hasil produksi. Kegiatan ini juga mendapatkan respon positif dari peserta, yang antusias dalam mengikuti pelatihan dan berharap adanya keberlanjutan program untuk memaksimalkan pemasaran produk secara digital.</t>
+  </si>
+  <si>
+    <t>Maria Yertas</t>
+  </si>
+  <si>
+    <t>Training, Continuous Development, Digital Tools in Training, Organizational Culture, Leadership Engagement, Employee Productivity, Financial Performance</t>
+  </si>
+  <si>
+    <t>Pelatihan dan pengembangan berkelanjutan secara signifikan meningkatkan produktivitas karyawan dengan memperkuat keterampilan teknis dan soft skills seperti komunikasi dan kepemimpinan. Inisiatif digital seperti e-learning dan simulasi virtual membuat pelatihan lebih fleksibel dan efisien. Budaya organisasi yang mendukung pembelajaran serta keterlibatan pemimpin memperkuat hasil pelatihan. Peningkatan produktivitas ini terbukti berkorelasi langsung dengan kinerja keuangan perusahaan seperti efisiensi biaya, peningkatan pendapatan, dan ketahanan operasional.</t>
+  </si>
+  <si>
+    <t>Sebastian Schongen</t>
+  </si>
+  <si>
+    <t>Reena Chopra &amp; Sonika Sharma</t>
+  </si>
+  <si>
+    <t>Survei kuantitatif dengan 71 responden.</t>
+  </si>
+  <si>
+    <t>69% responden melaporkan peningkatan produktivitas akibat digitalisasi, tetapi 33% mengalami peningkatan stres. Digitalisasi memperluas jaringan kerja namun juga mengaburkan batas antara kerja dan kehidupan pribadi.</t>
+  </si>
+  <si>
+    <t>Maria Rosaria Gualano, Stefan Buttigieg &amp; Umberto Moscato</t>
+  </si>
+  <si>
+    <t>Editorial dengan tinjauan literatur dan analisis tematik dari beberapa studi.</t>
+  </si>
+  <si>
+    <t>Nizamil Fadhli, Israwati, Zulham Mahendra</t>
+  </si>
+  <si>
+    <t>Pendekatan kuantitatif dengan 100 responden.</t>
+  </si>
+  <si>
+    <t>Silpa Fauziah, Arga Sutrisna, Nita Fauziah Oktaviani</t>
+  </si>
+  <si>
+    <t>Kausalitas, dengan analisis regresi linier berganda dengan 64 responden.</t>
+  </si>
+  <si>
+    <t>Yohanes Suryadi, John E.H.J FoEh, Henny Manafe</t>
+  </si>
+  <si>
+    <t>Literature review.</t>
+  </si>
+  <si>
+    <t>Zalsafia Mistur, Nadhila Febriyanti, L. Jatmiko Jati</t>
+  </si>
+  <si>
+    <t>Kuantitatif, survei dengan 30 responden.</t>
+  </si>
+  <si>
+    <t>Hannes Zacher, Cort W. Rudolph</t>
+  </si>
+  <si>
+    <t>Digitalisasi meningkat secara linier, beban kerja stagnan; terdapat efek timbal balik di mana lonjakan digitalisasi di satu periode meningkatkan beban kerja periode berikutnya (dan sebaliknya), dengan kekuatan efek timbal balik yang semakin menguat seiring waktu.</t>
+  </si>
+  <si>
+    <t>Petra Saukkonen, Marko Elovainio, Lotta Virtanen, Anu-Marja Kaihlanen, Janna Nadav, Tinja Lääveri, Jukka Vänskä, Johanna Viitanen, Jarmo Reponen, Tarja Heponiemi</t>
+  </si>
+  <si>
+    <t>Variabel paling sentral adalah tujuan penggunaan HIS, sektor pekerjaan, dan status spesialisasi; nilai EHR berhubungan langsung terkuat dengan konsultasi lebih cepat (b=0.32) dan kemudahan akses informasi pasien (b=0.28); penggunaan EHR ≥6 bulan juga terkait kemudahan akses data pasien (b=0.18).</t>
+  </si>
+  <si>
+    <t>Elisa Tri Adinda Ariyanto, Sinta Sundari Heriyanti</t>
+  </si>
+  <si>
+    <t>Beban Kerja, Budaya Organisasi, Lingkungan Kerja, Produktivitas Karyawan</t>
+  </si>
+  <si>
+    <t>Metode kuantitatif dengan 120 responden.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Beban kerja, budaya organisasi, dan lingkungan kerja sama-sama berpengaruh positif signifikan terhadap produktivitas karyawan; koefisien determinasi R²=0,586 (58,6% variasi produktivitas dijelaskan ketiga variabel) </t>
+  </si>
+  <si>
+    <t>Kurnia Putri Manoppo, Bernhard Tewal, Irvan Trang</t>
+  </si>
+  <si>
+    <t>Beban Kerja, Lingkungan Kerja, Integritas, Produktivitas Karyawan</t>
+  </si>
+  <si>
+    <t>Penelitian kuantitatif menggunakan sampel non-probabilitas sebanyak 61 responden.</t>
+  </si>
+  <si>
+    <t>Beban kerja, lingkungan kerja, dan integritas secara simultan maupun parsial berpengaruh positif signifikan terhadap produktivitas karyawan.</t>
+  </si>
+  <si>
+    <t>Martina Trisnawaty, Parwoto</t>
+  </si>
+  <si>
+    <t>Lingkungan Kerja, Beban Kerja, Produktivitas Karyawan</t>
+  </si>
+  <si>
+    <t>Penelitian kuantitatif menggunakan sampel probabilitas sebanyak 530 responden dengan 84 sampel, analisis regresi berganda.</t>
+  </si>
+  <si>
+    <t>Lingkungan kerja berpengaruh positif &amp; signifikan pada produktivitas; beban kerja berpengaruh negatif &amp; signifikan pada produktivitas</t>
+  </si>
+  <si>
+    <t>Gilbert Cette, Sandra Nevoux, Loriane Py</t>
+  </si>
+  <si>
+    <t>Survei firm-level yang dilakukan oleh Banque de France, menggunakan pendekatan variabel instrumen untuk mengatasi masalah endogenitas. Responden adalah 1.065 perusahaan manufaktur di Prancis dengan minimal 20 karyawan.</t>
+  </si>
+  <si>
+    <t>Penggunaan teknologi digital dan spesialis ICT (internal dan eksternal) meningkatkan produktivitas perusahaan secara signifikan. Secara ceteris paribus, penggunaan spesialis ICT dan teknologi digital dapat meningkatkan produktivitas tenaga kerja sekitar 23% dan total faktor produktivitas sekitar 17%. Namun, penggunaan ICT internal dan big data berdampak negatif pada share tenaga kerja, dengan penurunan sekitar 2,5%.</t>
+  </si>
+  <si>
+    <t>Alexander A. Kharlamov, Glenn Parry</t>
+  </si>
+  <si>
+    <t>Digitalisasi, Produktivitas, Manajemen, Profitabilitas, Servitisasi</t>
+  </si>
+  <si>
+    <t>Analisis ekonometrik dan text-mining dari data sekunder. Penelitian dilakukan dengan menggunakan data dari 258 penerbit buku di Inggris selama 10 tahun (2007-2016) dengan responden 258 penerbit buku di Inggris.</t>
+  </si>
+  <si>
+    <t>Studi ini menemukan bahwa baik perusahaan yang hanya menggunakan servitisasi (S-firms) maupun yang menggabungkan servitisasi dan digitalisasi (DS-firms) menunjukkan produktivitas yang lebih tinggi daripada perusahaan murni (P-firms). Profitabilitas DS-firms lebih tinggi dari P-firms, namun S-firms memiliki profitabilitas yang lebih rendah dibandingkan P-firms.</t>
+  </si>
+  <si>
+    <t>Tim Jeske, Marlene Würfels, Frank Lennings</t>
+  </si>
+  <si>
+    <t>Digitalisasi, Produktivitas, Management, Pekerjaan Manusia, Fleksibilitas Kerja</t>
+  </si>
+  <si>
+    <t>Analisis integrasi dari tiga studi (2015, 2017, 2019) di industri logam dan elektronik Jerman. Studi ini menggunakan analisis tren perkembangan digitalisasi dan dampaknya terhadap produktivitas, manajemen, dan pekerja.</t>
+  </si>
+  <si>
+    <t>Digitalisasi dalam industri produksi menunjukkan potensi peningkatan produktivitas sebesar 38% hingga 2027. Implementasi digitalisasi mempengaruhi manajemen dan desain kerja, serta meningkatkan fleksibilitas kerja bagi karyawan. Meskipun ada harapan positif, ada juga tantangan yang perlu dihadapi terkait dengan biaya dan perubahan dalam peran pekerjaan.</t>
+  </si>
+  <si>
+    <t>Adopsi Teknologi, Investasi Finansial, Kesenjangan Keterampilan (Skill Gaps), Pertumbuhan UMKM</t>
+  </si>
+  <si>
+    <t>Systematic Literature Review (SLR) dengan pendekatan kualitatif yang menganalisis literatur dari jurnal dan publikasi akademik tahun 2018–2024.</t>
+  </si>
+  <si>
+    <t>Penggunaan teknologi digital terhubung (networked digital technologies), Jenis pekerjaan, Jenis kelamin, Work-life balance, Ketimpangan sosial</t>
+  </si>
+  <si>
+    <t>Eksperimen alami (natural experiment) dengan pendekatan kuantitatif menggunakan data survei kepada 1.117 karyawan rumah sakit universitas (kelompok perlakuan) dan 415 karyawan rumah sakit gereja.</t>
+  </si>
+  <si>
+    <t>Digitalisasi meningkatkan work-life balance karyawan, terutama bagi perempuan, dengan memudahkan manajemen peran dan konflik peran. Namun, tidak ada bukti bahwa digitalisasi memperburuk ketimpangan sosial bagi pekerja berpendidikan tinggi.</t>
+  </si>
+  <si>
+    <t>Penggunaan email/telepon di luar jam kerja, Teleworking (bekerja jarak jauh), Kompleksitas pekerjaan, Produktivitas karyawan, Stres kerja</t>
+  </si>
+  <si>
+    <t>Akses online ke alat kerja, Kepemimpinan digital, Telework (kerja jarak jauh), Work-life balance, Kesehatan Mental</t>
+  </si>
+  <si>
+    <t>Digitalisasi selama pandemi COVID-19 meningkatkan fleksibilitas kerja tetapi juga mengancam hak "melepaskan diri" (right to disconnect). Kreativitas dan keterlibatan karyawan bisa ditingkatkan melalui kepemimpinan digital dan rotasi tugas.</t>
+  </si>
+  <si>
+    <t>Work-life Balance, Produktivitas Kerja, Loyalitas</t>
+  </si>
+  <si>
+    <t>Penelitian ini menunjukkan bahwa work-life balance memiliki pengaruh positif yang signifikan terhadap produktivitas dan loyalitas pegawai Kantor Walikota Pekanbaru.</t>
+  </si>
+  <si>
+    <t>Beban Kerja, Work-life Balance, Produktivitas Kerja</t>
+  </si>
+  <si>
+    <t>Beban kerja dan work-life balance secara simultan berpengaruh terhadap produktivitas kerja pegawai di Dinas Pendidikan dan Kebudayaan Kabupaten Tasikmalaya.</t>
+  </si>
+  <si>
+    <t>Work-life Balance, Work from Home, Teknologi Informasi, Fleksibilitas Kerja, Produktivitas Kerja</t>
+  </si>
+  <si>
+    <t>Artikel ini mengulas faktor-faktor yang mempengaruhi produktivitas kerja karyawan, yaitu Work-life Balance. Work from Home, Teknologi Informasi dan Fleksibilitas Kerja. Hasil dari literature review ini menunjukkan bahwa beberapa penelitian mendukung hipotesis yang diajukan, sementara penelitian lain tidak menemukan dukungan yang signifikan. Oleh karena itu, kesimpulan dari ulasan ini adalah bahwa masih diperlukan penelitian lebih lanjut, terutama penelitian kuantitatif, untuk mengkonfirmasi hubungan antara faktor-faktor tersebut dan produktivitas kerja karyawan.</t>
+  </si>
+  <si>
+    <t>Work-life Balance, Beban Kerja, Transformasi Sistem Digitalisasi, Produktivitas Karyawan</t>
+  </si>
+  <si>
+    <t>Makalah ini menyajikan konsep dan ide utama tentang Work Life Balance dan Produktivitas dalam organisasi pembelajaran. Hasil dari studi perbandingan ini menunjukkan bahwa ada hubungan positif antara Work Life Balance dan produktivitas karyawan. Oleh karena itu, makalah ini menekankan pentingnya mempromosikan pilihan fleksibilitas kerja untuk semua staf sebagai salah satu inisiatif fundamental untuk menciptakan Work-life Balance yang efektif.</t>
+  </si>
+  <si>
+    <t>Workplace Digitalization, Beban Kerja</t>
+  </si>
+  <si>
+    <t>Longitudinal 33 gelombang survei (April 2020–Des 2022) dengan autoregressive latent trajectory model (ALT-SR) dengan 1661 responden.</t>
+  </si>
+  <si>
+    <t>Perceived Effects of Digitalization (Kesan Digitalisasi), Purpose of HIS Use (Tujuan Penggunaan Sistem Informasi Kesehatan), Sektor Pekerjaan, Status Spesialisasi, engalaman Menggunakan HER Penilaian HER, Partisipasi Pengembangan HIS, Penggunaan Telemedicine</t>
+  </si>
+  <si>
+    <t>Survei nasional dan mixed graphical modeling network analysis dengan 4630 responden.</t>
+  </si>
+  <si>
+    <t>Spesialis ICT, Teknologi digital, Produktivitas, Total faktor produktivitas, (Labor share) Kompensasi</t>
   </si>
 </sst>
 </file>
@@ -695,9 +966,12 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="2">
+  <cellXfs count="3">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="3" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -1199,6 +1473,468 @@
 </worksheet>
 </file>
 
+<file path=xl/worksheets/sheet10.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{20A8B17D-093C-4B3F-9D1A-100BD46EB91E}">
+  <dimension ref="A1:F22"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="B3" sqref="B3"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="2" max="2" width="49.5703125" style="2" customWidth="1"/>
+    <col min="3" max="3" width="5" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="33.28515625" style="2" customWidth="1"/>
+    <col min="5" max="5" width="50.140625" style="2" customWidth="1"/>
+    <col min="6" max="6" width="45" style="2" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A1" t="s">
+        <v>209</v>
+      </c>
+      <c r="B1" s="2" t="s">
+        <v>210</v>
+      </c>
+      <c r="C1" t="s">
+        <v>211</v>
+      </c>
+      <c r="D1" s="2" t="s">
+        <v>212</v>
+      </c>
+      <c r="E1" s="2" t="s">
+        <v>213</v>
+      </c>
+      <c r="F1" s="2" t="s">
+        <v>214</v>
+      </c>
+    </row>
+    <row r="2" spans="1:6" ht="120" x14ac:dyDescent="0.25">
+      <c r="A2">
+        <v>1</v>
+      </c>
+      <c r="B2" s="2" t="s">
+        <v>215</v>
+      </c>
+      <c r="C2">
+        <v>2024</v>
+      </c>
+      <c r="D2" s="2" t="s">
+        <v>216</v>
+      </c>
+      <c r="E2" s="2" t="s">
+        <v>217</v>
+      </c>
+      <c r="F2" s="2" t="s">
+        <v>218</v>
+      </c>
+    </row>
+    <row r="3" spans="1:6" ht="75" x14ac:dyDescent="0.25">
+      <c r="A3">
+        <v>2</v>
+      </c>
+      <c r="B3" s="2" t="s">
+        <v>219</v>
+      </c>
+      <c r="C3">
+        <v>2021</v>
+      </c>
+      <c r="D3" s="2" t="s">
+        <v>220</v>
+      </c>
+      <c r="E3" s="2" t="s">
+        <v>221</v>
+      </c>
+      <c r="F3" s="2" t="s">
+        <v>222</v>
+      </c>
+    </row>
+    <row r="4" spans="1:6" ht="255" x14ac:dyDescent="0.25">
+      <c r="A4">
+        <v>3</v>
+      </c>
+      <c r="B4" s="2" t="s">
+        <v>223</v>
+      </c>
+      <c r="C4">
+        <v>2023</v>
+      </c>
+      <c r="D4" s="2" t="s">
+        <v>224</v>
+      </c>
+      <c r="E4" s="2" t="s">
+        <v>225</v>
+      </c>
+      <c r="F4" s="2" t="s">
+        <v>226</v>
+      </c>
+    </row>
+    <row r="5" spans="1:6" ht="180" x14ac:dyDescent="0.25">
+      <c r="A5">
+        <v>4</v>
+      </c>
+      <c r="B5" s="2" t="s">
+        <v>227</v>
+      </c>
+      <c r="C5">
+        <v>2024</v>
+      </c>
+      <c r="D5" s="2" t="s">
+        <v>278</v>
+      </c>
+      <c r="E5" s="2" t="s">
+        <v>228</v>
+      </c>
+      <c r="F5" s="2" t="s">
+        <v>229</v>
+      </c>
+    </row>
+    <row r="6" spans="1:6" ht="240" x14ac:dyDescent="0.25">
+      <c r="A6">
+        <v>5</v>
+      </c>
+      <c r="B6" s="2" t="s">
+        <v>230</v>
+      </c>
+      <c r="C6">
+        <v>2023</v>
+      </c>
+      <c r="D6" s="2" t="s">
+        <v>231</v>
+      </c>
+      <c r="E6" s="2" t="s">
+        <v>232</v>
+      </c>
+      <c r="F6" s="2" t="s">
+        <v>233</v>
+      </c>
+    </row>
+    <row r="7" spans="1:6" ht="195" x14ac:dyDescent="0.25">
+      <c r="A7">
+        <v>6</v>
+      </c>
+      <c r="B7" s="2" t="s">
+        <v>234</v>
+      </c>
+      <c r="C7">
+        <v>2023</v>
+      </c>
+      <c r="D7" s="2" t="s">
+        <v>235</v>
+      </c>
+      <c r="E7" s="2" t="s">
+        <v>279</v>
+      </c>
+      <c r="F7" s="2" t="s">
+        <v>236</v>
+      </c>
+    </row>
+    <row r="8" spans="1:6" ht="90" x14ac:dyDescent="0.25">
+      <c r="A8">
+        <v>7</v>
+      </c>
+      <c r="B8" s="2" t="s">
+        <v>237</v>
+      </c>
+      <c r="C8">
+        <v>2023</v>
+      </c>
+      <c r="D8" s="2" t="s">
+        <v>280</v>
+      </c>
+      <c r="E8" s="2" t="s">
+        <v>281</v>
+      </c>
+      <c r="F8" s="2" t="s">
+        <v>282</v>
+      </c>
+    </row>
+    <row r="9" spans="1:6" ht="90" x14ac:dyDescent="0.25">
+      <c r="A9">
+        <v>8</v>
+      </c>
+      <c r="B9" s="2" t="s">
+        <v>238</v>
+      </c>
+      <c r="C9">
+        <v>2020</v>
+      </c>
+      <c r="D9" s="2" t="s">
+        <v>283</v>
+      </c>
+      <c r="E9" s="2" t="s">
+        <v>239</v>
+      </c>
+      <c r="F9" s="2" t="s">
+        <v>240</v>
+      </c>
+    </row>
+    <row r="10" spans="1:6" ht="90" x14ac:dyDescent="0.25">
+      <c r="A10">
+        <v>9</v>
+      </c>
+      <c r="B10" s="2" t="s">
+        <v>241</v>
+      </c>
+      <c r="C10">
+        <v>2023</v>
+      </c>
+      <c r="D10" s="2" t="s">
+        <v>284</v>
+      </c>
+      <c r="E10" s="2" t="s">
+        <v>242</v>
+      </c>
+      <c r="F10" s="2" t="s">
+        <v>285</v>
+      </c>
+    </row>
+    <row r="11" spans="1:6" ht="60" x14ac:dyDescent="0.25">
+      <c r="A11">
+        <v>10</v>
+      </c>
+      <c r="B11" s="2" t="s">
+        <v>243</v>
+      </c>
+      <c r="C11">
+        <v>2024</v>
+      </c>
+      <c r="D11" s="2" t="s">
+        <v>286</v>
+      </c>
+      <c r="E11" s="2" t="s">
+        <v>244</v>
+      </c>
+      <c r="F11" s="2" t="s">
+        <v>287</v>
+      </c>
+    </row>
+    <row r="12" spans="1:6" ht="60" x14ac:dyDescent="0.25">
+      <c r="A12">
+        <v>11</v>
+      </c>
+      <c r="B12" s="2" t="s">
+        <v>245</v>
+      </c>
+      <c r="C12">
+        <v>2024</v>
+      </c>
+      <c r="D12" s="2" t="s">
+        <v>288</v>
+      </c>
+      <c r="E12" s="2" t="s">
+        <v>246</v>
+      </c>
+      <c r="F12" s="2" t="s">
+        <v>289</v>
+      </c>
+    </row>
+    <row r="13" spans="1:6" ht="195" x14ac:dyDescent="0.25">
+      <c r="A13">
+        <v>12</v>
+      </c>
+      <c r="B13" s="2" t="s">
+        <v>247</v>
+      </c>
+      <c r="C13">
+        <v>2022</v>
+      </c>
+      <c r="D13" s="2" t="s">
+        <v>290</v>
+      </c>
+      <c r="E13" s="2" t="s">
+        <v>248</v>
+      </c>
+      <c r="F13" s="2" t="s">
+        <v>291</v>
+      </c>
+    </row>
+    <row r="14" spans="1:6" ht="165" x14ac:dyDescent="0.25">
+      <c r="A14">
+        <v>13</v>
+      </c>
+      <c r="B14" s="2" t="s">
+        <v>249</v>
+      </c>
+      <c r="C14">
+        <v>2025</v>
+      </c>
+      <c r="D14" s="2" t="s">
+        <v>292</v>
+      </c>
+      <c r="E14" s="2" t="s">
+        <v>250</v>
+      </c>
+      <c r="F14" s="2" t="s">
+        <v>293</v>
+      </c>
+    </row>
+    <row r="15" spans="1:6" ht="90" x14ac:dyDescent="0.25">
+      <c r="A15">
+        <v>14</v>
+      </c>
+      <c r="B15" s="2" t="s">
+        <v>251</v>
+      </c>
+      <c r="C15">
+        <v>2024</v>
+      </c>
+      <c r="D15" s="2" t="s">
+        <v>294</v>
+      </c>
+      <c r="E15" s="2" t="s">
+        <v>295</v>
+      </c>
+      <c r="F15" s="2" t="s">
+        <v>252</v>
+      </c>
+    </row>
+    <row r="16" spans="1:6" ht="135" x14ac:dyDescent="0.25">
+      <c r="A16">
+        <v>15</v>
+      </c>
+      <c r="B16" s="2" t="s">
+        <v>253</v>
+      </c>
+      <c r="C16">
+        <v>2022</v>
+      </c>
+      <c r="D16" s="2" t="s">
+        <v>296</v>
+      </c>
+      <c r="E16" s="2" t="s">
+        <v>297</v>
+      </c>
+      <c r="F16" s="2" t="s">
+        <v>254</v>
+      </c>
+    </row>
+    <row r="17" spans="1:6" ht="75" x14ac:dyDescent="0.25">
+      <c r="A17">
+        <v>16</v>
+      </c>
+      <c r="B17" s="2" t="s">
+        <v>255</v>
+      </c>
+      <c r="C17">
+        <v>2023</v>
+      </c>
+      <c r="D17" s="2" t="s">
+        <v>256</v>
+      </c>
+      <c r="E17" s="2" t="s">
+        <v>257</v>
+      </c>
+      <c r="F17" s="2" t="s">
+        <v>258</v>
+      </c>
+    </row>
+    <row r="18" spans="1:6" ht="60" x14ac:dyDescent="0.25">
+      <c r="A18">
+        <v>17</v>
+      </c>
+      <c r="B18" s="2" t="s">
+        <v>259</v>
+      </c>
+      <c r="C18">
+        <v>2021</v>
+      </c>
+      <c r="D18" s="2" t="s">
+        <v>260</v>
+      </c>
+      <c r="E18" s="2" t="s">
+        <v>261</v>
+      </c>
+      <c r="F18" s="2" t="s">
+        <v>262</v>
+      </c>
+    </row>
+    <row r="19" spans="1:6" ht="60" x14ac:dyDescent="0.25">
+      <c r="A19">
+        <v>18</v>
+      </c>
+      <c r="B19" s="2" t="s">
+        <v>263</v>
+      </c>
+      <c r="C19">
+        <v>2020</v>
+      </c>
+      <c r="D19" s="2" t="s">
+        <v>264</v>
+      </c>
+      <c r="E19" s="2" t="s">
+        <v>265</v>
+      </c>
+      <c r="F19" s="2" t="s">
+        <v>266</v>
+      </c>
+    </row>
+    <row r="20" spans="1:6" ht="150" x14ac:dyDescent="0.25">
+      <c r="A20">
+        <v>19</v>
+      </c>
+      <c r="B20" s="2" t="s">
+        <v>267</v>
+      </c>
+      <c r="C20">
+        <v>2022</v>
+      </c>
+      <c r="D20" s="2" t="s">
+        <v>298</v>
+      </c>
+      <c r="E20" s="2" t="s">
+        <v>268</v>
+      </c>
+      <c r="F20" s="2" t="s">
+        <v>269</v>
+      </c>
+    </row>
+    <row r="21" spans="1:6" ht="135" x14ac:dyDescent="0.25">
+      <c r="A21">
+        <v>20</v>
+      </c>
+      <c r="B21" s="2" t="s">
+        <v>270</v>
+      </c>
+      <c r="C21">
+        <v>2021</v>
+      </c>
+      <c r="D21" s="2" t="s">
+        <v>271</v>
+      </c>
+      <c r="E21" s="2" t="s">
+        <v>272</v>
+      </c>
+      <c r="F21" s="2" t="s">
+        <v>273</v>
+      </c>
+    </row>
+    <row r="22" spans="1:6" ht="135" x14ac:dyDescent="0.25">
+      <c r="A22">
+        <v>21</v>
+      </c>
+      <c r="B22" s="2" t="s">
+        <v>274</v>
+      </c>
+      <c r="C22">
+        <v>2021</v>
+      </c>
+      <c r="D22" s="2" t="s">
+        <v>275</v>
+      </c>
+      <c r="E22" s="2" t="s">
+        <v>276</v>
+      </c>
+      <c r="F22" s="2" t="s">
+        <v>277</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{F7F330E7-8043-4EA0-8FEA-9B4956202FA4}">
   <dimension ref="A1:I9"/>
@@ -2334,7 +3070,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{C0D852D1-3B6B-4BB9-864E-C3E094800358}">
   <dimension ref="A1:B45"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A37" workbookViewId="0">
+    <sheetView topLeftCell="A37" workbookViewId="0">
       <selection sqref="A1:C46"/>
     </sheetView>
   </sheetViews>

--- a/target/smartpls.xlsx
+++ b/target/smartpls.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\www\tesis\target\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{35FBE3D7-A559-4051-8329-AF62A34B19A6}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A9E3D055-2D46-444D-922D-D95D2D77BE78}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" firstSheet="3" activeTab="9" xr2:uid="{A045F930-4DC8-43A3-823B-36ED7A8AB670}"/>
   </bookViews>
@@ -1477,8 +1477,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{20A8B17D-093C-4B3F-9D1A-100BD46EB91E}">
   <dimension ref="A1:F22"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B3" sqref="B3"/>
+    <sheetView tabSelected="1" topLeftCell="A19" workbookViewId="0">
+      <selection activeCell="B22" sqref="B22"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -2670,10 +2670,15 @@
   <dimension ref="A1:F8"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection sqref="A1:G9"/>
+      <selection activeCell="J14" sqref="J14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="4" max="4" width="11.5703125" customWidth="1"/>
+    <col min="5" max="5" width="9" customWidth="1"/>
+    <col min="6" max="6" width="8.5703125" bestFit="1" customWidth="1"/>
+  </cols>
   <sheetData>
     <row r="1" spans="1:6" x14ac:dyDescent="0.25">
       <c r="B1" t="s">

--- a/target/smartpls.xlsx
+++ b/target/smartpls.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="29426"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="29530"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\www\tesis\target\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A9E3D055-2D46-444D-922D-D95D2D77BE78}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E4D0D10B-5594-43FF-A2D1-020AD78BC405}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" firstSheet="3" activeTab="9" xr2:uid="{A045F930-4DC8-43A3-823B-36ED7A8AB670}"/>
+    <workbookView xWindow="1950" yWindow="1950" windowWidth="21600" windowHeight="11295" activeTab="4" xr2:uid="{A045F930-4DC8-43A3-823B-36ED7A8AB670}"/>
   </bookViews>
   <sheets>
     <sheet name="flc" sheetId="1" r:id="rId1"/>
@@ -63,874 +63,874 @@
     <t>0.876</t>
   </si>
   <si>
-    <t>-0.057</t>
+    <t>-0.035</t>
+  </si>
+  <si>
+    <t>0.037</t>
+  </si>
+  <si>
+    <t>0.085</t>
+  </si>
+  <si>
+    <t>0.870</t>
+  </si>
+  <si>
+    <t>-0.042</t>
+  </si>
+  <si>
+    <t>0.077</t>
+  </si>
+  <si>
+    <t>0.872</t>
+  </si>
+  <si>
+    <t>0.007</t>
+  </si>
+  <si>
+    <t>-0.011</t>
+  </si>
+  <si>
+    <t>0.031</t>
+  </si>
+  <si>
+    <t>0.045</t>
+  </si>
+  <si>
+    <t>0.055</t>
+  </si>
+  <si>
+    <t>0.044</t>
+  </si>
+  <si>
+    <t>0.075</t>
+  </si>
+  <si>
+    <t>0.065</t>
+  </si>
+  <si>
+    <t>Cronbach's Alpha</t>
+  </si>
+  <si>
+    <t>rho_A</t>
+  </si>
+  <si>
+    <t>Composite Reliability</t>
+  </si>
+  <si>
+    <t>Average Variance Extracted (AVE)</t>
+  </si>
+  <si>
+    <t>0.939</t>
+  </si>
+  <si>
+    <t>0.967</t>
+  </si>
+  <si>
+    <t>0.964</t>
+  </si>
+  <si>
+    <t>0.761</t>
+  </si>
+  <si>
+    <t>0.915</t>
+  </si>
+  <si>
+    <t>0.933</t>
+  </si>
+  <si>
+    <t>0.700</t>
+  </si>
+  <si>
+    <t>BK (X3) * D (Z)</t>
+  </si>
+  <si>
+    <t>BK1</t>
+  </si>
+  <si>
+    <t>BK2</t>
+  </si>
+  <si>
+    <t>BK3</t>
+  </si>
+  <si>
+    <t>BK4</t>
+  </si>
+  <si>
+    <t>0.882</t>
+  </si>
+  <si>
+    <t>BK5</t>
+  </si>
+  <si>
+    <t>0.851</t>
+  </si>
+  <si>
+    <t>BK6</t>
+  </si>
+  <si>
+    <t>D1</t>
+  </si>
+  <si>
+    <t>0.838</t>
+  </si>
+  <si>
+    <t>D10</t>
+  </si>
+  <si>
+    <t>0.840</t>
+  </si>
+  <si>
+    <t>D11</t>
+  </si>
+  <si>
+    <t>D2</t>
+  </si>
+  <si>
+    <t>D3</t>
+  </si>
+  <si>
+    <t>0.864</t>
+  </si>
+  <si>
+    <t>D4</t>
+  </si>
+  <si>
+    <t>0.865</t>
+  </si>
+  <si>
+    <t>D5</t>
+  </si>
+  <si>
+    <t>0.874</t>
+  </si>
+  <si>
+    <t>D6</t>
+  </si>
+  <si>
+    <t>D7</t>
+  </si>
+  <si>
+    <t>0.849</t>
+  </si>
+  <si>
+    <t>D8</t>
+  </si>
+  <si>
+    <t>D9</t>
+  </si>
+  <si>
+    <t>0.842</t>
+  </si>
+  <si>
+    <t>P (X1) * D (Z)</t>
+  </si>
+  <si>
+    <t>P1</t>
+  </si>
+  <si>
+    <t>0.834</t>
+  </si>
+  <si>
+    <t>P10</t>
+  </si>
+  <si>
+    <t>0.880</t>
+  </si>
+  <si>
+    <t>P2</t>
+  </si>
+  <si>
+    <t>0.878</t>
+  </si>
+  <si>
+    <t>P3</t>
+  </si>
+  <si>
+    <t>P4</t>
+  </si>
+  <si>
+    <t>P5</t>
+  </si>
+  <si>
+    <t>P6</t>
+  </si>
+  <si>
+    <t>P7</t>
+  </si>
+  <si>
+    <t>0.875</t>
+  </si>
+  <si>
+    <t>P8</t>
+  </si>
+  <si>
+    <t>P9</t>
+  </si>
+  <si>
+    <t>0.844</t>
+  </si>
+  <si>
+    <t>PK1</t>
+  </si>
+  <si>
+    <t>0.868</t>
+  </si>
+  <si>
+    <t>PK2</t>
+  </si>
+  <si>
+    <t>PK3</t>
+  </si>
+  <si>
+    <t>PK4</t>
+  </si>
+  <si>
+    <t>PK5</t>
+  </si>
+  <si>
+    <t>PK6</t>
+  </si>
+  <si>
+    <t>PK7</t>
+  </si>
+  <si>
+    <t>PK8</t>
+  </si>
+  <si>
+    <t>0.863</t>
+  </si>
+  <si>
+    <t>WB (X2) * D (Z)</t>
+  </si>
+  <si>
+    <t>WB1</t>
+  </si>
+  <si>
+    <t>WB2</t>
+  </si>
+  <si>
+    <t>WB3</t>
+  </si>
+  <si>
+    <t>WB4</t>
+  </si>
+  <si>
+    <t>WB5</t>
+  </si>
+  <si>
+    <t>WB6</t>
+  </si>
+  <si>
+    <t>Original Sample (O)</t>
+  </si>
+  <si>
+    <t>Sample Mean (M)</t>
+  </si>
+  <si>
+    <t>Standard Deviation (STDEV)</t>
+  </si>
+  <si>
+    <t>T Statistics (|O/STDEV|)</t>
+  </si>
+  <si>
+    <t>P Values</t>
+  </si>
+  <si>
+    <t>BK (X3) -&gt; PK (Y)</t>
+  </si>
+  <si>
+    <t>0.000</t>
+  </si>
+  <si>
+    <t>BK &gt; D &gt; PK -&gt; PK (Y)</t>
+  </si>
+  <si>
+    <t>0.036</t>
+  </si>
+  <si>
+    <t>D (Z) -&gt; PK (Y)</t>
+  </si>
+  <si>
+    <t>0.033</t>
+  </si>
+  <si>
+    <t>P (X1) -&gt; PK (Y)</t>
+  </si>
+  <si>
+    <t>0.088</t>
+  </si>
+  <si>
+    <t>P &gt; D &gt; PK -&gt; PK (Y)</t>
+  </si>
+  <si>
+    <t>WB (X2) -&gt; PK (Y)</t>
+  </si>
+  <si>
+    <t>0.034</t>
+  </si>
+  <si>
+    <t>WB &gt; D &gt; PK -&gt; PK (Y)</t>
+  </si>
+  <si>
+    <t>R Square</t>
+  </si>
+  <si>
+    <t>R Square Adjusted</t>
+  </si>
+  <si>
+    <t>SSO</t>
+  </si>
+  <si>
+    <t>SSE</t>
+  </si>
+  <si>
+    <t>Q² (=1-SSE/SSO)</t>
+  </si>
+  <si>
+    <t>Saturated Model</t>
+  </si>
+  <si>
+    <t>Estimated Model</t>
+  </si>
+  <si>
+    <t>SRMR</t>
+  </si>
+  <si>
+    <t>d_ULS</t>
+  </si>
+  <si>
+    <t>d_G</t>
+  </si>
+  <si>
+    <t>Chi-Square</t>
+  </si>
+  <si>
+    <t>NFI</t>
+  </si>
+  <si>
+    <t>VIF</t>
+  </si>
+  <si>
+    <t>No.</t>
+  </si>
+  <si>
+    <t>Author(s)</t>
+  </si>
+  <si>
+    <t>Year</t>
+  </si>
+  <si>
+    <t>Variable Type</t>
+  </si>
+  <si>
+    <t>Research Methods</t>
+  </si>
+  <si>
+    <t>Results/Findings</t>
+  </si>
+  <si>
+    <t>Mohammed A. Al Doghan &amp; Ariff Syah Juhari</t>
+  </si>
+  <si>
+    <t>Pengetahuan, Pelatihan, Keterampilan, Rasa Aman Karyawan, Produktivitas Karyawan</t>
+  </si>
+  <si>
+    <t>Metode Kuantitatif dengan 270 responden</t>
+  </si>
+  <si>
+    <t>Studi ini menegaskan bahwa keamanan karyawan (ES) adalah mediator kritis antara pengetahuan/pelatihan/keterampilan keselamatan dengan produktivitas. Industri petrokimia di Arab Saudi perlu fokus pada pelatihan keselamatan dan membangun kesadaran keamanan untuk meningkatkan kinerja karyawan.</t>
+  </si>
+  <si>
+    <t>Resi Amelia &amp; Risa Kartika Lubis</t>
+  </si>
+  <si>
+    <t>Pendidikan, Pelatihan Kerja, Produktivitas Kerja</t>
+  </si>
+  <si>
+    <t>Metode Kuantitatif dengan 92 responden karyawan PT Sagami Indonesia</t>
+  </si>
+  <si>
+    <t>Penelitian ini menyimpulkan bahwa pendidikan dan pelatihan kerja memiliki pengaruh signifikan, baik secara parsial maupun simultan, terhadap peningkatan produktivitas karyawan di PT. Sagami Indonesia.</t>
+  </si>
+  <si>
+    <t>Yusuf Rohmad Mustofa, Nur Aini Anisa, Nur Farida</t>
+  </si>
+  <si>
+    <t>Pelatihan Kerja, Produktivitas Kerja</t>
+  </si>
+  <si>
+    <t>Metode kuantitatif dengan 122 responden dari Divisi Kapal Perang PT. PAL Indonesia (Persero).</t>
+  </si>
+  <si>
+    <t>Penelitian ini menemukan bahwa pelatihan kerja secara parsial memiliki pengaruh positif dan signifikan terhadap produktivitas kerja karyawan di PT PAL Indonesia (Persero) Divisi Kapal Perang. Artinya, peningkatan dalam program pelatihan kerja secara langsung berkontribusi pada peningkatan produktivitas karyawan, menunjukkan bahwa pelatihan efektif dalam membekali karyawan dengan keterampilan dan pengetahuan yang relevan untuk pekerjaan mereka. Signifikansi statistik dari temuan ini mengindikasikan bahwa hubungan antara pelatihan dan produktivitas bukanlah kebetulan, melainkan hasil yang dapat diandalkan, yang menekankan pentingnya investasi perusahaan dalam pelatihan untuk meningkatkan kinerja karyawan.</t>
+  </si>
+  <si>
+    <t>Tegar Ainurrokhim, Kiskendra Citra Hati, Naufal Daffa Adibta</t>
+  </si>
+  <si>
+    <t>Wawancara kualitatif dengan pemilik UMKM.</t>
+  </si>
+  <si>
+    <t>Hasil penelitian menunjukkan bahwa transformasi digital menjadi kunci peningkatan daya saing UMKM di Indonesia, namun adopsinya masih terkendala rendahnya literasi digital dan terbatasnya akses pendanaan. Pelatihan keterampilan digital dan kemudahan pembiayaan diperlukan agar UMKM dapat memanfaatkan teknologi secara optimal, meningkatkan efisiensi, dan memperluas pasar. Dukungan kebijakan dan kolaborasi stakeholder menjadi faktor penentu keberhasilan transformasi ini.</t>
+  </si>
+  <si>
+    <t>Mira Gustiana Pangestu, Yosi Fahdillah, Vivi Usmayanti, Aini Tri Agustin</t>
+  </si>
+  <si>
+    <t>Pelatihan Digitalisasi Marketing, Peningkatan Produksi dan Pemasaran</t>
+  </si>
+  <si>
+    <t>Pemberian materi tentang digitalisasi marketing, penggunaan media digital sebagai alat pemasaran, dan praktik pembuatan media online digital, 10 orang responden.</t>
+  </si>
+  <si>
+    <t>Penelitian ini menunjukkan bahwa pelatihan digitalisasi marketing telah berhasil dilaksanakan untuk UMKM Kerupuk Ikan Kelurahan Pasir Panjang, dengan tujuan untuk memberikan pengetahuan dan keterampilan dalam pemasaran digital. Melalui pelatihan ini, para pelaku UMKM diharapkan dapat lebih efektif memanfaatkan platform digital untuk mempromosikan produk mereka, yang pada akhirnya dapat meningkatkan jangkauan pasar dan potensi peningkatan hasil produksi. Kegiatan ini juga mendapatkan respon positif dari peserta, yang antusias dalam mengikuti pelatihan dan berharap adanya keberlanjutan program untuk memaksimalkan pemasaran produk secara digital.</t>
+  </si>
+  <si>
+    <t>Maria Yertas</t>
+  </si>
+  <si>
+    <t>Training, Continuous Development, Digital Tools in Training, Organizational Culture, Leadership Engagement, Employee Productivity, Financial Performance</t>
+  </si>
+  <si>
+    <t>Pelatihan dan pengembangan berkelanjutan secara signifikan meningkatkan produktivitas karyawan dengan memperkuat keterampilan teknis dan soft skills seperti komunikasi dan kepemimpinan. Inisiatif digital seperti e-learning dan simulasi virtual membuat pelatihan lebih fleksibel dan efisien. Budaya organisasi yang mendukung pembelajaran serta keterlibatan pemimpin memperkuat hasil pelatihan. Peningkatan produktivitas ini terbukti berkorelasi langsung dengan kinerja keuangan perusahaan seperti efisiensi biaya, peningkatan pendapatan, dan ketahanan operasional.</t>
+  </si>
+  <si>
+    <t>Sebastian Schongen</t>
+  </si>
+  <si>
+    <t>Reena Chopra &amp; Sonika Sharma</t>
+  </si>
+  <si>
+    <t>Survei kuantitatif dengan 71 responden.</t>
+  </si>
+  <si>
+    <t>69% responden melaporkan peningkatan produktivitas akibat digitalisasi, tetapi 33% mengalami peningkatan stres. Digitalisasi memperluas jaringan kerja namun juga mengaburkan batas antara kerja dan kehidupan pribadi.</t>
+  </si>
+  <si>
+    <t>Maria Rosaria Gualano, Stefan Buttigieg &amp; Umberto Moscato</t>
+  </si>
+  <si>
+    <t>Editorial dengan tinjauan literatur dan analisis tematik dari beberapa studi.</t>
+  </si>
+  <si>
+    <t>Nizamil Fadhli, Israwati, Zulham Mahendra</t>
+  </si>
+  <si>
+    <t>Pendekatan kuantitatif dengan 100 responden.</t>
+  </si>
+  <si>
+    <t>Silpa Fauziah, Arga Sutrisna, Nita Fauziah Oktaviani</t>
+  </si>
+  <si>
+    <t>Kausalitas, dengan analisis regresi linier berganda dengan 64 responden.</t>
+  </si>
+  <si>
+    <t>Yohanes Suryadi, John E.H.J FoEh, Henny Manafe</t>
+  </si>
+  <si>
+    <t>Literature review.</t>
+  </si>
+  <si>
+    <t>Zalsafia Mistur, Nadhila Febriyanti, L. Jatmiko Jati</t>
+  </si>
+  <si>
+    <t>Kuantitatif, survei dengan 30 responden.</t>
+  </si>
+  <si>
+    <t>Hannes Zacher, Cort W. Rudolph</t>
+  </si>
+  <si>
+    <t>Digitalisasi meningkat secara linier, beban kerja stagnan; terdapat efek timbal balik di mana lonjakan digitalisasi di satu periode meningkatkan beban kerja periode berikutnya (dan sebaliknya), dengan kekuatan efek timbal balik yang semakin menguat seiring waktu.</t>
+  </si>
+  <si>
+    <t>Petra Saukkonen, Marko Elovainio, Lotta Virtanen, Anu-Marja Kaihlanen, Janna Nadav, Tinja Lääveri, Jukka Vänskä, Johanna Viitanen, Jarmo Reponen, Tarja Heponiemi</t>
+  </si>
+  <si>
+    <t>Variabel paling sentral adalah tujuan penggunaan HIS, sektor pekerjaan, dan status spesialisasi; nilai EHR berhubungan langsung terkuat dengan konsultasi lebih cepat (b=0.32) dan kemudahan akses informasi pasien (b=0.28); penggunaan EHR ≥6 bulan juga terkait kemudahan akses data pasien (b=0.18).</t>
+  </si>
+  <si>
+    <t>Elisa Tri Adinda Ariyanto, Sinta Sundari Heriyanti</t>
+  </si>
+  <si>
+    <t>Beban Kerja, Budaya Organisasi, Lingkungan Kerja, Produktivitas Karyawan</t>
+  </si>
+  <si>
+    <t>Metode kuantitatif dengan 120 responden.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Beban kerja, budaya organisasi, dan lingkungan kerja sama-sama berpengaruh positif signifikan terhadap produktivitas karyawan; koefisien determinasi R²=0,586 (58,6% variasi produktivitas dijelaskan ketiga variabel) </t>
+  </si>
+  <si>
+    <t>Kurnia Putri Manoppo, Bernhard Tewal, Irvan Trang</t>
+  </si>
+  <si>
+    <t>Beban Kerja, Lingkungan Kerja, Integritas, Produktivitas Karyawan</t>
+  </si>
+  <si>
+    <t>Penelitian kuantitatif menggunakan sampel non-probabilitas sebanyak 61 responden.</t>
+  </si>
+  <si>
+    <t>Beban kerja, lingkungan kerja, dan integritas secara simultan maupun parsial berpengaruh positif signifikan terhadap produktivitas karyawan.</t>
+  </si>
+  <si>
+    <t>Martina Trisnawaty, Parwoto</t>
+  </si>
+  <si>
+    <t>Lingkungan Kerja, Beban Kerja, Produktivitas Karyawan</t>
+  </si>
+  <si>
+    <t>Penelitian kuantitatif menggunakan sampel probabilitas sebanyak 530 responden dengan 84 sampel, analisis regresi berganda.</t>
+  </si>
+  <si>
+    <t>Lingkungan kerja berpengaruh positif &amp; signifikan pada produktivitas; beban kerja berpengaruh negatif &amp; signifikan pada produktivitas</t>
+  </si>
+  <si>
+    <t>Gilbert Cette, Sandra Nevoux, Loriane Py</t>
+  </si>
+  <si>
+    <t>Survei firm-level yang dilakukan oleh Banque de France, menggunakan pendekatan variabel instrumen untuk mengatasi masalah endogenitas. Responden adalah 1.065 perusahaan manufaktur di Prancis dengan minimal 20 karyawan.</t>
+  </si>
+  <si>
+    <t>Penggunaan teknologi digital dan spesialis ICT (internal dan eksternal) meningkatkan produktivitas perusahaan secara signifikan. Secara ceteris paribus, penggunaan spesialis ICT dan teknologi digital dapat meningkatkan produktivitas tenaga kerja sekitar 23% dan total faktor produktivitas sekitar 17%. Namun, penggunaan ICT internal dan big data berdampak negatif pada share tenaga kerja, dengan penurunan sekitar 2,5%.</t>
+  </si>
+  <si>
+    <t>Alexander A. Kharlamov, Glenn Parry</t>
+  </si>
+  <si>
+    <t>Digitalisasi, Produktivitas, Manajemen, Profitabilitas, Servitisasi</t>
+  </si>
+  <si>
+    <t>Analisis ekonometrik dan text-mining dari data sekunder. Penelitian dilakukan dengan menggunakan data dari 258 penerbit buku di Inggris selama 10 tahun (2007-2016) dengan responden 258 penerbit buku di Inggris.</t>
+  </si>
+  <si>
+    <t>Studi ini menemukan bahwa baik perusahaan yang hanya menggunakan servitisasi (S-firms) maupun yang menggabungkan servitisasi dan digitalisasi (DS-firms) menunjukkan produktivitas yang lebih tinggi daripada perusahaan murni (P-firms). Profitabilitas DS-firms lebih tinggi dari P-firms, namun S-firms memiliki profitabilitas yang lebih rendah dibandingkan P-firms.</t>
+  </si>
+  <si>
+    <t>Tim Jeske, Marlene Würfels, Frank Lennings</t>
+  </si>
+  <si>
+    <t>Digitalisasi, Produktivitas, Management, Pekerjaan Manusia, Fleksibilitas Kerja</t>
+  </si>
+  <si>
+    <t>Analisis integrasi dari tiga studi (2015, 2017, 2019) di industri logam dan elektronik Jerman. Studi ini menggunakan analisis tren perkembangan digitalisasi dan dampaknya terhadap produktivitas, manajemen, dan pekerja.</t>
+  </si>
+  <si>
+    <t>Digitalisasi dalam industri produksi menunjukkan potensi peningkatan produktivitas sebesar 38% hingga 2027. Implementasi digitalisasi mempengaruhi manajemen dan desain kerja, serta meningkatkan fleksibilitas kerja bagi karyawan. Meskipun ada harapan positif, ada juga tantangan yang perlu dihadapi terkait dengan biaya dan perubahan dalam peran pekerjaan.</t>
+  </si>
+  <si>
+    <t>Adopsi Teknologi, Investasi Finansial, Kesenjangan Keterampilan (Skill Gaps), Pertumbuhan UMKM</t>
+  </si>
+  <si>
+    <t>Systematic Literature Review (SLR) dengan pendekatan kualitatif yang menganalisis literatur dari jurnal dan publikasi akademik tahun 2018–2024.</t>
+  </si>
+  <si>
+    <t>Penggunaan teknologi digital terhubung (networked digital technologies), Jenis pekerjaan, Jenis kelamin, Work-life balance, Ketimpangan sosial</t>
+  </si>
+  <si>
+    <t>Eksperimen alami (natural experiment) dengan pendekatan kuantitatif menggunakan data survei kepada 1.117 karyawan rumah sakit universitas (kelompok perlakuan) dan 415 karyawan rumah sakit gereja.</t>
+  </si>
+  <si>
+    <t>Digitalisasi meningkatkan work-life balance karyawan, terutama bagi perempuan, dengan memudahkan manajemen peran dan konflik peran. Namun, tidak ada bukti bahwa digitalisasi memperburuk ketimpangan sosial bagi pekerja berpendidikan tinggi.</t>
+  </si>
+  <si>
+    <t>Penggunaan email/telepon di luar jam kerja, Teleworking (bekerja jarak jauh), Kompleksitas pekerjaan, Produktivitas karyawan, Stres kerja</t>
+  </si>
+  <si>
+    <t>Akses online ke alat kerja, Kepemimpinan digital, Telework (kerja jarak jauh), Work-life balance, Kesehatan Mental</t>
+  </si>
+  <si>
+    <t>Digitalisasi selama pandemi COVID-19 meningkatkan fleksibilitas kerja tetapi juga mengancam hak "melepaskan diri" (right to disconnect). Kreativitas dan keterlibatan karyawan bisa ditingkatkan melalui kepemimpinan digital dan rotasi tugas.</t>
+  </si>
+  <si>
+    <t>Work-life Balance, Produktivitas Kerja, Loyalitas</t>
+  </si>
+  <si>
+    <t>Penelitian ini menunjukkan bahwa work-life balance memiliki pengaruh positif yang signifikan terhadap produktivitas dan loyalitas pegawai Kantor Walikota Pekanbaru.</t>
+  </si>
+  <si>
+    <t>Beban Kerja, Work-life Balance, Produktivitas Kerja</t>
+  </si>
+  <si>
+    <t>Beban kerja dan work-life balance secara simultan berpengaruh terhadap produktivitas kerja pegawai di Dinas Pendidikan dan Kebudayaan Kabupaten Tasikmalaya.</t>
+  </si>
+  <si>
+    <t>Work-life Balance, Work from Home, Teknologi Informasi, Fleksibilitas Kerja, Produktivitas Kerja</t>
+  </si>
+  <si>
+    <t>Artikel ini mengulas faktor-faktor yang mempengaruhi produktivitas kerja karyawan, yaitu Work-life Balance. Work from Home, Teknologi Informasi dan Fleksibilitas Kerja. Hasil dari literature review ini menunjukkan bahwa beberapa penelitian mendukung hipotesis yang diajukan, sementara penelitian lain tidak menemukan dukungan yang signifikan. Oleh karena itu, kesimpulan dari ulasan ini adalah bahwa masih diperlukan penelitian lebih lanjut, terutama penelitian kuantitatif, untuk mengkonfirmasi hubungan antara faktor-faktor tersebut dan produktivitas kerja karyawan.</t>
+  </si>
+  <si>
+    <t>Work-life Balance, Beban Kerja, Transformasi Sistem Digitalisasi, Produktivitas Karyawan</t>
+  </si>
+  <si>
+    <t>Makalah ini menyajikan konsep dan ide utama tentang Work Life Balance dan Produktivitas dalam organisasi pembelajaran. Hasil dari studi perbandingan ini menunjukkan bahwa ada hubungan positif antara Work Life Balance dan produktivitas karyawan. Oleh karena itu, makalah ini menekankan pentingnya mempromosikan pilihan fleksibilitas kerja untuk semua staf sebagai salah satu inisiatif fundamental untuk menciptakan Work-life Balance yang efektif.</t>
+  </si>
+  <si>
+    <t>Workplace Digitalization, Beban Kerja</t>
+  </si>
+  <si>
+    <t>Longitudinal 33 gelombang survei (April 2020–Des 2022) dengan autoregressive latent trajectory model (ALT-SR) dengan 1661 responden.</t>
+  </si>
+  <si>
+    <t>Perceived Effects of Digitalization (Kesan Digitalisasi), Purpose of HIS Use (Tujuan Penggunaan Sistem Informasi Kesehatan), Sektor Pekerjaan, Status Spesialisasi, engalaman Menggunakan HER Penilaian HER, Partisipasi Pengembangan HIS, Penggunaan Telemedicine</t>
+  </si>
+  <si>
+    <t>Survei nasional dan mixed graphical modeling network analysis dengan 4630 responden.</t>
+  </si>
+  <si>
+    <t>Spesialis ICT, Teknologi digital, Produktivitas, Total faktor produktivitas, (Labor share) Kompensasi</t>
+  </si>
+  <si>
+    <t>0.937</t>
+  </si>
+  <si>
+    <t>0.950</t>
+  </si>
+  <si>
+    <t>0.960</t>
+  </si>
+  <si>
+    <t>0.965</t>
+  </si>
+  <si>
+    <t>0.712</t>
+  </si>
+  <si>
+    <t>0.981</t>
+  </si>
+  <si>
+    <t>0.968</t>
+  </si>
+  <si>
+    <t>0.753</t>
+  </si>
+  <si>
+    <t>0.951</t>
+  </si>
+  <si>
+    <t>0.958</t>
+  </si>
+  <si>
+    <t>0.743</t>
+  </si>
+  <si>
+    <t>0.930</t>
+  </si>
+  <si>
+    <t>-0.068</t>
+  </si>
+  <si>
+    <t>-0.032</t>
+  </si>
+  <si>
+    <t>0.030</t>
+  </si>
+  <si>
+    <t>0.084</t>
+  </si>
+  <si>
+    <t>-0.046</t>
+  </si>
+  <si>
+    <t>-0.080</t>
+  </si>
+  <si>
+    <t>-0.090</t>
+  </si>
+  <si>
+    <t>0.681</t>
+  </si>
+  <si>
+    <t>0.148</t>
+  </si>
+  <si>
+    <t>0.125</t>
+  </si>
+  <si>
+    <t>-0.066</t>
+  </si>
+  <si>
+    <t>0.862</t>
+  </si>
+  <si>
+    <t>-0.015</t>
+  </si>
+  <si>
+    <t>0.063</t>
+  </si>
+  <si>
+    <t>0.163</t>
+  </si>
+  <si>
+    <t>0.837</t>
+  </si>
+  <si>
+    <t>0.054</t>
+  </si>
+  <si>
+    <t>-0.083</t>
+  </si>
+  <si>
+    <t>0.081</t>
+  </si>
+  <si>
+    <t>0.016</t>
+  </si>
+  <si>
+    <t>-0.012</t>
+  </si>
+  <si>
+    <t>0.450</t>
+  </si>
+  <si>
+    <t>0.932</t>
+  </si>
+  <si>
+    <t>0.070</t>
+  </si>
+  <si>
+    <t>0.047</t>
+  </si>
+  <si>
+    <t>0.087</t>
+  </si>
+  <si>
+    <t>0.720</t>
+  </si>
+  <si>
+    <t>0.028</t>
+  </si>
+  <si>
+    <t>0.149</t>
+  </si>
+  <si>
+    <t>0.123</t>
+  </si>
+  <si>
+    <t>0.067</t>
+  </si>
+  <si>
+    <t>0.014</t>
+  </si>
+  <si>
+    <t>0.169</t>
+  </si>
+  <si>
+    <t>0.021</t>
+  </si>
+  <si>
+    <t>0.026</t>
+  </si>
+  <si>
+    <t>0.521</t>
+  </si>
+  <si>
+    <t>0.511</t>
+  </si>
+  <si>
+    <t>0.859</t>
+  </si>
+  <si>
+    <t>0.867</t>
+  </si>
+  <si>
+    <t>0.911</t>
+  </si>
+  <si>
+    <t>0.887</t>
+  </si>
+  <si>
+    <t>0.853</t>
+  </si>
+  <si>
+    <t>0.799</t>
+  </si>
+  <si>
+    <t>0.835</t>
+  </si>
+  <si>
+    <t>0.833</t>
+  </si>
+  <si>
+    <t>0.883</t>
+  </si>
+  <si>
+    <t>0.861</t>
+  </si>
+  <si>
+    <t>0.871</t>
+  </si>
+  <si>
+    <t>0.846</t>
+  </si>
+  <si>
+    <t>0.858</t>
+  </si>
+  <si>
+    <t>0.843</t>
+  </si>
+  <si>
+    <t>0.815</t>
+  </si>
+  <si>
+    <t>0.845</t>
+  </si>
+  <si>
+    <t>0.827</t>
+  </si>
+  <si>
+    <t>0.824</t>
+  </si>
+  <si>
+    <t>0.381</t>
+  </si>
+  <si>
+    <t>0.680</t>
+  </si>
+  <si>
+    <t>0.678</t>
+  </si>
+  <si>
+    <t>0.102</t>
+  </si>
+  <si>
+    <t>0.166</t>
+  </si>
+  <si>
+    <t>0.171</t>
+  </si>
+  <si>
+    <t>0.032</t>
+  </si>
+  <si>
+    <t>0.015</t>
+  </si>
+  <si>
+    <t>-0.028</t>
   </si>
   <si>
     <t>-0.027</t>
   </si>
   <si>
-    <t>-0.035</t>
-  </si>
-  <si>
-    <t>0.854</t>
-  </si>
-  <si>
-    <t>0.037</t>
-  </si>
-  <si>
-    <t>-0.038</t>
-  </si>
-  <si>
-    <t>0.085</t>
-  </si>
-  <si>
-    <t>0.870</t>
-  </si>
-  <si>
-    <t>-0.042</t>
-  </si>
-  <si>
-    <t>0.077</t>
-  </si>
-  <si>
-    <t>-0.073</t>
-  </si>
-  <si>
-    <t>-0.081</t>
-  </si>
-  <si>
-    <t>0.694</t>
-  </si>
-  <si>
-    <t>-0.017</t>
-  </si>
-  <si>
-    <t>0.159</t>
-  </si>
-  <si>
-    <t>0.138</t>
-  </si>
-  <si>
-    <t>-0.077</t>
-  </si>
-  <si>
-    <t>0.872</t>
-  </si>
-  <si>
-    <t>0.042</t>
-  </si>
-  <si>
-    <t>0.007</t>
-  </si>
-  <si>
-    <t>-0.011</t>
-  </si>
-  <si>
-    <t>0.062</t>
-  </si>
-  <si>
-    <t>0.168</t>
-  </si>
-  <si>
-    <t>0.836</t>
-  </si>
-  <si>
-    <t>0.006</t>
-  </si>
-  <si>
-    <t>0.056</t>
-  </si>
-  <si>
-    <t>-0.098</t>
-  </si>
-  <si>
-    <t>0.031</t>
-  </si>
-  <si>
-    <t>0.082</t>
-  </si>
-  <si>
-    <t>-0.004</t>
-  </si>
-  <si>
-    <t>-0.010</t>
-  </si>
-  <si>
-    <t>0.045</t>
-  </si>
-  <si>
-    <t>0.017</t>
-  </si>
-  <si>
-    <t>0.032</t>
-  </si>
-  <si>
-    <t>0.100</t>
-  </si>
-  <si>
-    <t>0.019</t>
-  </si>
-  <si>
-    <t>0.173</t>
-  </si>
-  <si>
-    <t>0.035</t>
-  </si>
-  <si>
-    <t>0.076</t>
-  </si>
-  <si>
-    <t>0.055</t>
-  </si>
-  <si>
-    <t>0.015</t>
-  </si>
-  <si>
-    <t>0.044</t>
-  </si>
-  <si>
-    <t>0.079</t>
-  </si>
-  <si>
-    <t>0.137</t>
-  </si>
-  <si>
-    <t>0.158</t>
-  </si>
-  <si>
-    <t>0.024</t>
-  </si>
-  <si>
-    <t>0.732</t>
-  </si>
-  <si>
-    <t>0.075</t>
-  </si>
-  <si>
-    <t>0.043</t>
-  </si>
-  <si>
-    <t>0.089</t>
-  </si>
-  <si>
-    <t>0.041</t>
-  </si>
-  <si>
-    <t>0.065</t>
-  </si>
-  <si>
-    <t>0.058</t>
-  </si>
-  <si>
-    <t>Cronbach's Alpha</t>
-  </si>
-  <si>
-    <t>rho_A</t>
-  </si>
-  <si>
-    <t>Composite Reliability</t>
-  </si>
-  <si>
-    <t>Average Variance Extracted (AVE)</t>
-  </si>
-  <si>
-    <t>0.939</t>
-  </si>
-  <si>
-    <t>0.941</t>
-  </si>
-  <si>
-    <t>0.952</t>
-  </si>
-  <si>
-    <t>0.768</t>
-  </si>
-  <si>
-    <t>0.963</t>
-  </si>
-  <si>
-    <t>0.973</t>
-  </si>
-  <si>
-    <t>0.967</t>
-  </si>
-  <si>
-    <t>0.730</t>
-  </si>
-  <si>
-    <t>0.964</t>
-  </si>
-  <si>
-    <t>0.978</t>
-  </si>
-  <si>
-    <t>0.969</t>
-  </si>
-  <si>
-    <t>0.756</t>
-  </si>
-  <si>
-    <t>0.955</t>
-  </si>
-  <si>
-    <t>0.962</t>
-  </si>
-  <si>
-    <t>0.761</t>
-  </si>
-  <si>
-    <t>0.915</t>
-  </si>
-  <si>
-    <t>0.931</t>
-  </si>
-  <si>
-    <t>0.933</t>
-  </si>
-  <si>
-    <t>0.700</t>
-  </si>
-  <si>
-    <t>BK (X3) * D (Z)</t>
-  </si>
-  <si>
-    <t>0.925</t>
-  </si>
-  <si>
-    <t>BK1</t>
-  </si>
-  <si>
-    <t>0.860</t>
-  </si>
-  <si>
-    <t>BK2</t>
-  </si>
-  <si>
-    <t>0.869</t>
-  </si>
-  <si>
-    <t>BK3</t>
-  </si>
-  <si>
-    <t>0.916</t>
-  </si>
-  <si>
-    <t>BK4</t>
-  </si>
-  <si>
-    <t>0.882</t>
-  </si>
-  <si>
-    <t>BK5</t>
-  </si>
-  <si>
-    <t>0.851</t>
-  </si>
-  <si>
-    <t>BK6</t>
-  </si>
-  <si>
-    <t>0.877</t>
-  </si>
-  <si>
-    <t>D1</t>
-  </si>
-  <si>
-    <t>0.838</t>
-  </si>
-  <si>
-    <t>D10</t>
-  </si>
-  <si>
-    <t>0.840</t>
-  </si>
-  <si>
-    <t>D11</t>
-  </si>
-  <si>
-    <t>0.892</t>
-  </si>
-  <si>
-    <t>D2</t>
-  </si>
-  <si>
-    <t>0.855</t>
-  </si>
-  <si>
-    <t>D3</t>
-  </si>
-  <si>
-    <t>0.864</t>
-  </si>
-  <si>
-    <t>D4</t>
-  </si>
-  <si>
-    <t>0.865</t>
-  </si>
-  <si>
-    <t>D5</t>
-  </si>
-  <si>
-    <t>0.874</t>
-  </si>
-  <si>
-    <t>D6</t>
-  </si>
-  <si>
-    <t>0.828</t>
-  </si>
-  <si>
-    <t>D7</t>
-  </si>
-  <si>
-    <t>0.849</t>
-  </si>
-  <si>
-    <t>D8</t>
-  </si>
-  <si>
-    <t>0.841</t>
-  </si>
-  <si>
-    <t>D9</t>
-  </si>
-  <si>
-    <t>0.842</t>
-  </si>
-  <si>
-    <t>P (X1) * D (Z)</t>
-  </si>
-  <si>
-    <t>P1</t>
-  </si>
-  <si>
-    <t>0.834</t>
-  </si>
-  <si>
-    <t>P10</t>
-  </si>
-  <si>
-    <t>0.880</t>
-  </si>
-  <si>
-    <t>P2</t>
-  </si>
-  <si>
-    <t>0.878</t>
-  </si>
-  <si>
-    <t>P3</t>
-  </si>
-  <si>
-    <t>0.886</t>
-  </si>
-  <si>
-    <t>P4</t>
-  </si>
-  <si>
-    <t>P5</t>
-  </si>
-  <si>
-    <t>P6</t>
-  </si>
-  <si>
-    <t>P7</t>
-  </si>
-  <si>
-    <t>0.875</t>
-  </si>
-  <si>
-    <t>P8</t>
-  </si>
-  <si>
-    <t>P9</t>
-  </si>
-  <si>
-    <t>0.844</t>
-  </si>
-  <si>
-    <t>PK1</t>
-  </si>
-  <si>
-    <t>0.868</t>
-  </si>
-  <si>
-    <t>PK2</t>
-  </si>
-  <si>
-    <t>PK3</t>
-  </si>
-  <si>
-    <t>0.866</t>
-  </si>
-  <si>
-    <t>PK4</t>
-  </si>
-  <si>
-    <t>PK5</t>
-  </si>
-  <si>
-    <t>PK6</t>
-  </si>
-  <si>
-    <t>PK7</t>
-  </si>
-  <si>
-    <t>0.873</t>
-  </si>
-  <si>
-    <t>PK8</t>
-  </si>
-  <si>
-    <t>0.863</t>
-  </si>
-  <si>
-    <t>WB (X2) * D (Z)</t>
-  </si>
-  <si>
-    <t>WB1</t>
-  </si>
-  <si>
-    <t>0.813</t>
-  </si>
-  <si>
-    <t>WB2</t>
-  </si>
-  <si>
-    <t>WB3</t>
-  </si>
-  <si>
-    <t>WB4</t>
-  </si>
-  <si>
-    <t>0.826</t>
-  </si>
-  <si>
-    <t>WB5</t>
-  </si>
-  <si>
-    <t>0.852</t>
-  </si>
-  <si>
-    <t>WB6</t>
-  </si>
-  <si>
-    <t>Original Sample (O)</t>
-  </si>
-  <si>
-    <t>Sample Mean (M)</t>
-  </si>
-  <si>
-    <t>Standard Deviation (STDEV)</t>
-  </si>
-  <si>
-    <t>T Statistics (|O/STDEV|)</t>
-  </si>
-  <si>
-    <t>P Values</t>
-  </si>
-  <si>
-    <t>BK (X3) -&gt; PK (Y)</t>
-  </si>
-  <si>
-    <t>0.690</t>
-  </si>
-  <si>
-    <t>0.689</t>
-  </si>
-  <si>
-    <t>0.000</t>
-  </si>
-  <si>
-    <t>BK &gt; D &gt; PK -&gt; PK (Y)</t>
-  </si>
-  <si>
-    <t>0.036</t>
-  </si>
-  <si>
-    <t>0.993</t>
-  </si>
-  <si>
-    <t>0.161</t>
-  </si>
-  <si>
-    <t>D (Z) -&gt; PK (Y)</t>
-  </si>
-  <si>
-    <t>0.170</t>
-  </si>
-  <si>
-    <t>0.172</t>
-  </si>
-  <si>
-    <t>0.033</t>
-  </si>
-  <si>
-    <t>P (X1) -&gt; PK (Y)</t>
-  </si>
-  <si>
-    <t>0.088</t>
-  </si>
-  <si>
-    <t>0.091</t>
-  </si>
-  <si>
-    <t>P &gt; D &gt; PK -&gt; PK (Y)</t>
-  </si>
-  <si>
-    <t>-0.044</t>
-  </si>
-  <si>
-    <t>-0.040</t>
-  </si>
-  <si>
-    <t>0.140</t>
-  </si>
-  <si>
-    <t>WB (X2) -&gt; PK (Y)</t>
-  </si>
-  <si>
-    <t>0.034</t>
-  </si>
-  <si>
-    <t>WB &gt; D &gt; PK -&gt; PK (Y)</t>
-  </si>
-  <si>
-    <t>0.008</t>
-  </si>
-  <si>
-    <t>0.263</t>
-  </si>
-  <si>
-    <t>0.397</t>
-  </si>
-  <si>
-    <t>R Square</t>
-  </si>
-  <si>
-    <t>R Square Adjusted</t>
-  </si>
-  <si>
-    <t>0.544</t>
-  </si>
-  <si>
-    <t>0.535</t>
-  </si>
-  <si>
-    <t>SSO</t>
-  </si>
-  <si>
-    <t>SSE</t>
-  </si>
-  <si>
-    <t>Q² (=1-SSE/SSO)</t>
-  </si>
-  <si>
-    <t>0.409</t>
-  </si>
-  <si>
-    <t>Saturated Model</t>
-  </si>
-  <si>
-    <t>Estimated Model</t>
-  </si>
-  <si>
-    <t>SRMR</t>
-  </si>
-  <si>
-    <t>d_ULS</t>
-  </si>
-  <si>
-    <t>d_G</t>
-  </si>
-  <si>
-    <t>0.447</t>
-  </si>
-  <si>
-    <t>0.448</t>
-  </si>
-  <si>
-    <t>Chi-Square</t>
-  </si>
-  <si>
-    <t>NFI</t>
-  </si>
-  <si>
-    <t>0.935</t>
-  </si>
-  <si>
-    <t>VIF</t>
-  </si>
-  <si>
-    <t>No.</t>
-  </si>
-  <si>
-    <t>Author(s)</t>
-  </si>
-  <si>
-    <t>Year</t>
-  </si>
-  <si>
-    <t>Variable Type</t>
-  </si>
-  <si>
-    <t>Research Methods</t>
-  </si>
-  <si>
-    <t>Results/Findings</t>
-  </si>
-  <si>
-    <t>Mohammed A. Al Doghan &amp; Ariff Syah Juhari</t>
-  </si>
-  <si>
-    <t>Pengetahuan, Pelatihan, Keterampilan, Rasa Aman Karyawan, Produktivitas Karyawan</t>
-  </si>
-  <si>
-    <t>Metode Kuantitatif dengan 270 responden</t>
-  </si>
-  <si>
-    <t>Studi ini menegaskan bahwa keamanan karyawan (ES) adalah mediator kritis antara pengetahuan/pelatihan/keterampilan keselamatan dengan produktivitas. Industri petrokimia di Arab Saudi perlu fokus pada pelatihan keselamatan dan membangun kesadaran keamanan untuk meningkatkan kinerja karyawan.</t>
-  </si>
-  <si>
-    <t>Resi Amelia &amp; Risa Kartika Lubis</t>
-  </si>
-  <si>
-    <t>Pendidikan, Pelatihan Kerja, Produktivitas Kerja</t>
-  </si>
-  <si>
-    <t>Metode Kuantitatif dengan 92 responden karyawan PT Sagami Indonesia</t>
-  </si>
-  <si>
-    <t>Penelitian ini menyimpulkan bahwa pendidikan dan pelatihan kerja memiliki pengaruh signifikan, baik secara parsial maupun simultan, terhadap peningkatan produktivitas karyawan di PT. Sagami Indonesia.</t>
-  </si>
-  <si>
-    <t>Yusuf Rohmad Mustofa, Nur Aini Anisa, Nur Farida</t>
-  </si>
-  <si>
-    <t>Pelatihan Kerja, Produktivitas Kerja</t>
-  </si>
-  <si>
-    <t>Metode kuantitatif dengan 122 responden dari Divisi Kapal Perang PT. PAL Indonesia (Persero).</t>
-  </si>
-  <si>
-    <t>Penelitian ini menemukan bahwa pelatihan kerja secara parsial memiliki pengaruh positif dan signifikan terhadap produktivitas kerja karyawan di PT PAL Indonesia (Persero) Divisi Kapal Perang. Artinya, peningkatan dalam program pelatihan kerja secara langsung berkontribusi pada peningkatan produktivitas karyawan, menunjukkan bahwa pelatihan efektif dalam membekali karyawan dengan keterampilan dan pengetahuan yang relevan untuk pekerjaan mereka. Signifikansi statistik dari temuan ini mengindikasikan bahwa hubungan antara pelatihan dan produktivitas bukanlah kebetulan, melainkan hasil yang dapat diandalkan, yang menekankan pentingnya investasi perusahaan dalam pelatihan untuk meningkatkan kinerja karyawan.</t>
-  </si>
-  <si>
-    <t>Tegar Ainurrokhim, Kiskendra Citra Hati, Naufal Daffa Adibta</t>
-  </si>
-  <si>
-    <t>Wawancara kualitatif dengan pemilik UMKM.</t>
-  </si>
-  <si>
-    <t>Hasil penelitian menunjukkan bahwa transformasi digital menjadi kunci peningkatan daya saing UMKM di Indonesia, namun adopsinya masih terkendala rendahnya literasi digital dan terbatasnya akses pendanaan. Pelatihan keterampilan digital dan kemudahan pembiayaan diperlukan agar UMKM dapat memanfaatkan teknologi secara optimal, meningkatkan efisiensi, dan memperluas pasar. Dukungan kebijakan dan kolaborasi stakeholder menjadi faktor penentu keberhasilan transformasi ini.</t>
-  </si>
-  <si>
-    <t>Mira Gustiana Pangestu, Yosi Fahdillah, Vivi Usmayanti, Aini Tri Agustin</t>
-  </si>
-  <si>
-    <t>Pelatihan Digitalisasi Marketing, Peningkatan Produksi dan Pemasaran</t>
-  </si>
-  <si>
-    <t>Pemberian materi tentang digitalisasi marketing, penggunaan media digital sebagai alat pemasaran, dan praktik pembuatan media online digital, 10 orang responden.</t>
-  </si>
-  <si>
-    <t>Penelitian ini menunjukkan bahwa pelatihan digitalisasi marketing telah berhasil dilaksanakan untuk UMKM Kerupuk Ikan Kelurahan Pasir Panjang, dengan tujuan untuk memberikan pengetahuan dan keterampilan dalam pemasaran digital. Melalui pelatihan ini, para pelaku UMKM diharapkan dapat lebih efektif memanfaatkan platform digital untuk mempromosikan produk mereka, yang pada akhirnya dapat meningkatkan jangkauan pasar dan potensi peningkatan hasil produksi. Kegiatan ini juga mendapatkan respon positif dari peserta, yang antusias dalam mengikuti pelatihan dan berharap adanya keberlanjutan program untuk memaksimalkan pemasaran produk secara digital.</t>
-  </si>
-  <si>
-    <t>Maria Yertas</t>
-  </si>
-  <si>
-    <t>Training, Continuous Development, Digital Tools in Training, Organizational Culture, Leadership Engagement, Employee Productivity, Financial Performance</t>
-  </si>
-  <si>
-    <t>Pelatihan dan pengembangan berkelanjutan secara signifikan meningkatkan produktivitas karyawan dengan memperkuat keterampilan teknis dan soft skills seperti komunikasi dan kepemimpinan. Inisiatif digital seperti e-learning dan simulasi virtual membuat pelatihan lebih fleksibel dan efisien. Budaya organisasi yang mendukung pembelajaran serta keterlibatan pemimpin memperkuat hasil pelatihan. Peningkatan produktivitas ini terbukti berkorelasi langsung dengan kinerja keuangan perusahaan seperti efisiensi biaya, peningkatan pendapatan, dan ketahanan operasional.</t>
-  </si>
-  <si>
-    <t>Sebastian Schongen</t>
-  </si>
-  <si>
-    <t>Reena Chopra &amp; Sonika Sharma</t>
-  </si>
-  <si>
-    <t>Survei kuantitatif dengan 71 responden.</t>
-  </si>
-  <si>
-    <t>69% responden melaporkan peningkatan produktivitas akibat digitalisasi, tetapi 33% mengalami peningkatan stres. Digitalisasi memperluas jaringan kerja namun juga mengaburkan batas antara kerja dan kehidupan pribadi.</t>
-  </si>
-  <si>
-    <t>Maria Rosaria Gualano, Stefan Buttigieg &amp; Umberto Moscato</t>
-  </si>
-  <si>
-    <t>Editorial dengan tinjauan literatur dan analisis tematik dari beberapa studi.</t>
-  </si>
-  <si>
-    <t>Nizamil Fadhli, Israwati, Zulham Mahendra</t>
-  </si>
-  <si>
-    <t>Pendekatan kuantitatif dengan 100 responden.</t>
-  </si>
-  <si>
-    <t>Silpa Fauziah, Arga Sutrisna, Nita Fauziah Oktaviani</t>
-  </si>
-  <si>
-    <t>Kausalitas, dengan analisis regresi linier berganda dengan 64 responden.</t>
-  </si>
-  <si>
-    <t>Yohanes Suryadi, John E.H.J FoEh, Henny Manafe</t>
-  </si>
-  <si>
-    <t>Literature review.</t>
-  </si>
-  <si>
-    <t>Zalsafia Mistur, Nadhila Febriyanti, L. Jatmiko Jati</t>
-  </si>
-  <si>
-    <t>Kuantitatif, survei dengan 30 responden.</t>
-  </si>
-  <si>
-    <t>Hannes Zacher, Cort W. Rudolph</t>
-  </si>
-  <si>
-    <t>Digitalisasi meningkat secara linier, beban kerja stagnan; terdapat efek timbal balik di mana lonjakan digitalisasi di satu periode meningkatkan beban kerja periode berikutnya (dan sebaliknya), dengan kekuatan efek timbal balik yang semakin menguat seiring waktu.</t>
-  </si>
-  <si>
-    <t>Petra Saukkonen, Marko Elovainio, Lotta Virtanen, Anu-Marja Kaihlanen, Janna Nadav, Tinja Lääveri, Jukka Vänskä, Johanna Viitanen, Jarmo Reponen, Tarja Heponiemi</t>
-  </si>
-  <si>
-    <t>Variabel paling sentral adalah tujuan penggunaan HIS, sektor pekerjaan, dan status spesialisasi; nilai EHR berhubungan langsung terkuat dengan konsultasi lebih cepat (b=0.32) dan kemudahan akses informasi pasien (b=0.28); penggunaan EHR ≥6 bulan juga terkait kemudahan akses data pasien (b=0.18).</t>
-  </si>
-  <si>
-    <t>Elisa Tri Adinda Ariyanto, Sinta Sundari Heriyanti</t>
-  </si>
-  <si>
-    <t>Beban Kerja, Budaya Organisasi, Lingkungan Kerja, Produktivitas Karyawan</t>
-  </si>
-  <si>
-    <t>Metode kuantitatif dengan 120 responden.</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Beban kerja, budaya organisasi, dan lingkungan kerja sama-sama berpengaruh positif signifikan terhadap produktivitas karyawan; koefisien determinasi R²=0,586 (58,6% variasi produktivitas dijelaskan ketiga variabel) </t>
-  </si>
-  <si>
-    <t>Kurnia Putri Manoppo, Bernhard Tewal, Irvan Trang</t>
-  </si>
-  <si>
-    <t>Beban Kerja, Lingkungan Kerja, Integritas, Produktivitas Karyawan</t>
-  </si>
-  <si>
-    <t>Penelitian kuantitatif menggunakan sampel non-probabilitas sebanyak 61 responden.</t>
-  </si>
-  <si>
-    <t>Beban kerja, lingkungan kerja, dan integritas secara simultan maupun parsial berpengaruh positif signifikan terhadap produktivitas karyawan.</t>
-  </si>
-  <si>
-    <t>Martina Trisnawaty, Parwoto</t>
-  </si>
-  <si>
-    <t>Lingkungan Kerja, Beban Kerja, Produktivitas Karyawan</t>
-  </si>
-  <si>
-    <t>Penelitian kuantitatif menggunakan sampel probabilitas sebanyak 530 responden dengan 84 sampel, analisis regresi berganda.</t>
-  </si>
-  <si>
-    <t>Lingkungan kerja berpengaruh positif &amp; signifikan pada produktivitas; beban kerja berpengaruh negatif &amp; signifikan pada produktivitas</t>
-  </si>
-  <si>
-    <t>Gilbert Cette, Sandra Nevoux, Loriane Py</t>
-  </si>
-  <si>
-    <t>Survei firm-level yang dilakukan oleh Banque de France, menggunakan pendekatan variabel instrumen untuk mengatasi masalah endogenitas. Responden adalah 1.065 perusahaan manufaktur di Prancis dengan minimal 20 karyawan.</t>
-  </si>
-  <si>
-    <t>Penggunaan teknologi digital dan spesialis ICT (internal dan eksternal) meningkatkan produktivitas perusahaan secara signifikan. Secara ceteris paribus, penggunaan spesialis ICT dan teknologi digital dapat meningkatkan produktivitas tenaga kerja sekitar 23% dan total faktor produktivitas sekitar 17%. Namun, penggunaan ICT internal dan big data berdampak negatif pada share tenaga kerja, dengan penurunan sekitar 2,5%.</t>
-  </si>
-  <si>
-    <t>Alexander A. Kharlamov, Glenn Parry</t>
-  </si>
-  <si>
-    <t>Digitalisasi, Produktivitas, Manajemen, Profitabilitas, Servitisasi</t>
-  </si>
-  <si>
-    <t>Analisis ekonometrik dan text-mining dari data sekunder. Penelitian dilakukan dengan menggunakan data dari 258 penerbit buku di Inggris selama 10 tahun (2007-2016) dengan responden 258 penerbit buku di Inggris.</t>
-  </si>
-  <si>
-    <t>Studi ini menemukan bahwa baik perusahaan yang hanya menggunakan servitisasi (S-firms) maupun yang menggabungkan servitisasi dan digitalisasi (DS-firms) menunjukkan produktivitas yang lebih tinggi daripada perusahaan murni (P-firms). Profitabilitas DS-firms lebih tinggi dari P-firms, namun S-firms memiliki profitabilitas yang lebih rendah dibandingkan P-firms.</t>
-  </si>
-  <si>
-    <t>Tim Jeske, Marlene Würfels, Frank Lennings</t>
-  </si>
-  <si>
-    <t>Digitalisasi, Produktivitas, Management, Pekerjaan Manusia, Fleksibilitas Kerja</t>
-  </si>
-  <si>
-    <t>Analisis integrasi dari tiga studi (2015, 2017, 2019) di industri logam dan elektronik Jerman. Studi ini menggunakan analisis tren perkembangan digitalisasi dan dampaknya terhadap produktivitas, manajemen, dan pekerja.</t>
-  </si>
-  <si>
-    <t>Digitalisasi dalam industri produksi menunjukkan potensi peningkatan produktivitas sebesar 38% hingga 2027. Implementasi digitalisasi mempengaruhi manajemen dan desain kerja, serta meningkatkan fleksibilitas kerja bagi karyawan. Meskipun ada harapan positif, ada juga tantangan yang perlu dihadapi terkait dengan biaya dan perubahan dalam peran pekerjaan.</t>
-  </si>
-  <si>
-    <t>Adopsi Teknologi, Investasi Finansial, Kesenjangan Keterampilan (Skill Gaps), Pertumbuhan UMKM</t>
-  </si>
-  <si>
-    <t>Systematic Literature Review (SLR) dengan pendekatan kualitatif yang menganalisis literatur dari jurnal dan publikasi akademik tahun 2018–2024.</t>
-  </si>
-  <si>
-    <t>Penggunaan teknologi digital terhubung (networked digital technologies), Jenis pekerjaan, Jenis kelamin, Work-life balance, Ketimpangan sosial</t>
-  </si>
-  <si>
-    <t>Eksperimen alami (natural experiment) dengan pendekatan kuantitatif menggunakan data survei kepada 1.117 karyawan rumah sakit universitas (kelompok perlakuan) dan 415 karyawan rumah sakit gereja.</t>
-  </si>
-  <si>
-    <t>Digitalisasi meningkatkan work-life balance karyawan, terutama bagi perempuan, dengan memudahkan manajemen peran dan konflik peran. Namun, tidak ada bukti bahwa digitalisasi memperburuk ketimpangan sosial bagi pekerja berpendidikan tinggi.</t>
-  </si>
-  <si>
-    <t>Penggunaan email/telepon di luar jam kerja, Teleworking (bekerja jarak jauh), Kompleksitas pekerjaan, Produktivitas karyawan, Stres kerja</t>
-  </si>
-  <si>
-    <t>Akses online ke alat kerja, Kepemimpinan digital, Telework (kerja jarak jauh), Work-life balance, Kesehatan Mental</t>
-  </si>
-  <si>
-    <t>Digitalisasi selama pandemi COVID-19 meningkatkan fleksibilitas kerja tetapi juga mengancam hak "melepaskan diri" (right to disconnect). Kreativitas dan keterlibatan karyawan bisa ditingkatkan melalui kepemimpinan digital dan rotasi tugas.</t>
-  </si>
-  <si>
-    <t>Work-life Balance, Produktivitas Kerja, Loyalitas</t>
-  </si>
-  <si>
-    <t>Penelitian ini menunjukkan bahwa work-life balance memiliki pengaruh positif yang signifikan terhadap produktivitas dan loyalitas pegawai Kantor Walikota Pekanbaru.</t>
-  </si>
-  <si>
-    <t>Beban Kerja, Work-life Balance, Produktivitas Kerja</t>
-  </si>
-  <si>
-    <t>Beban kerja dan work-life balance secara simultan berpengaruh terhadap produktivitas kerja pegawai di Dinas Pendidikan dan Kebudayaan Kabupaten Tasikmalaya.</t>
-  </si>
-  <si>
-    <t>Work-life Balance, Work from Home, Teknologi Informasi, Fleksibilitas Kerja, Produktivitas Kerja</t>
-  </si>
-  <si>
-    <t>Artikel ini mengulas faktor-faktor yang mempengaruhi produktivitas kerja karyawan, yaitu Work-life Balance. Work from Home, Teknologi Informasi dan Fleksibilitas Kerja. Hasil dari literature review ini menunjukkan bahwa beberapa penelitian mendukung hipotesis yang diajukan, sementara penelitian lain tidak menemukan dukungan yang signifikan. Oleh karena itu, kesimpulan dari ulasan ini adalah bahwa masih diperlukan penelitian lebih lanjut, terutama penelitian kuantitatif, untuk mengkonfirmasi hubungan antara faktor-faktor tersebut dan produktivitas kerja karyawan.</t>
-  </si>
-  <si>
-    <t>Work-life Balance, Beban Kerja, Transformasi Sistem Digitalisasi, Produktivitas Karyawan</t>
-  </si>
-  <si>
-    <t>Makalah ini menyajikan konsep dan ide utama tentang Work Life Balance dan Produktivitas dalam organisasi pembelajaran. Hasil dari studi perbandingan ini menunjukkan bahwa ada hubungan positif antara Work Life Balance dan produktivitas karyawan. Oleh karena itu, makalah ini menekankan pentingnya mempromosikan pilihan fleksibilitas kerja untuk semua staf sebagai salah satu inisiatif fundamental untuk menciptakan Work-life Balance yang efektif.</t>
-  </si>
-  <si>
-    <t>Workplace Digitalization, Beban Kerja</t>
-  </si>
-  <si>
-    <t>Longitudinal 33 gelombang survei (April 2020–Des 2022) dengan autoregressive latent trajectory model (ALT-SR) dengan 1661 responden.</t>
-  </si>
-  <si>
-    <t>Perceived Effects of Digitalization (Kesan Digitalisasi), Purpose of HIS Use (Tujuan Penggunaan Sistem Informasi Kesehatan), Sektor Pekerjaan, Status Spesialisasi, engalaman Menggunakan HER Penilaian HER, Partisipasi Pengembangan HIS, Penggunaan Telemedicine</t>
-  </si>
-  <si>
-    <t>Survei nasional dan mixed graphical modeling network analysis dengan 4630 responden.</t>
-  </si>
-  <si>
-    <t>Spesialis ICT, Teknologi digital, Produktivitas, Total faktor produktivitas, (Labor share) Kompensasi</t>
+    <t>0.040</t>
+  </si>
+  <si>
+    <t>0.693</t>
+  </si>
+  <si>
+    <t>0.244</t>
+  </si>
+  <si>
+    <t>0.131</t>
+  </si>
+  <si>
+    <t>0.023</t>
+  </si>
+  <si>
+    <t>0.759</t>
+  </si>
+  <si>
+    <t>0.224</t>
   </si>
 </sst>
 </file>
@@ -1289,10 +1289,13 @@
   <dimension ref="A1:I9"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection sqref="A1:J10"/>
+      <selection sqref="A1:I9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="11.28515625" bestFit="1" customWidth="1"/>
+  </cols>
   <sheetData>
     <row r="1" spans="1:9" x14ac:dyDescent="0.25">
       <c r="B1" t="s">
@@ -1325,7 +1328,7 @@
         <v>0</v>
       </c>
       <c r="B2" t="s">
-        <v>8</v>
+        <v>15</v>
       </c>
     </row>
     <row r="3" spans="1:9" x14ac:dyDescent="0.25">
@@ -1333,7 +1336,7 @@
         <v>1</v>
       </c>
       <c r="B3" t="s">
-        <v>9</v>
+        <v>227</v>
       </c>
       <c r="C3" s="1">
         <v>1000</v>
@@ -1344,13 +1347,13 @@
         <v>2</v>
       </c>
       <c r="B4" t="s">
-        <v>10</v>
+        <v>228</v>
       </c>
       <c r="C4" t="s">
-        <v>11</v>
+        <v>9</v>
       </c>
       <c r="D4" t="s">
-        <v>12</v>
+        <v>77</v>
       </c>
     </row>
     <row r="5" spans="1:9" x14ac:dyDescent="0.25">
@@ -1358,16 +1361,16 @@
         <v>3</v>
       </c>
       <c r="B5" t="s">
+        <v>229</v>
+      </c>
+      <c r="C5" t="s">
         <v>13</v>
       </c>
-      <c r="C5" t="s">
-        <v>14</v>
-      </c>
       <c r="D5" t="s">
-        <v>15</v>
+        <v>230</v>
       </c>
       <c r="E5" t="s">
-        <v>16</v>
+        <v>79</v>
       </c>
     </row>
     <row r="6" spans="1:9" x14ac:dyDescent="0.25">
@@ -1375,16 +1378,16 @@
         <v>4</v>
       </c>
       <c r="B6" t="s">
-        <v>17</v>
+        <v>231</v>
       </c>
       <c r="C6" t="s">
-        <v>18</v>
+        <v>22</v>
       </c>
       <c r="D6" t="s">
-        <v>19</v>
+        <v>232</v>
       </c>
       <c r="E6" t="s">
-        <v>20</v>
+        <v>233</v>
       </c>
       <c r="F6" s="1">
         <v>1000</v>
@@ -1395,22 +1398,22 @@
         <v>5</v>
       </c>
       <c r="B7" t="s">
-        <v>21</v>
+        <v>234</v>
       </c>
       <c r="C7" t="s">
-        <v>22</v>
+        <v>17</v>
       </c>
       <c r="D7" t="s">
-        <v>23</v>
+        <v>235</v>
       </c>
       <c r="E7" t="s">
-        <v>24</v>
+        <v>236</v>
       </c>
       <c r="F7" t="s">
-        <v>25</v>
+        <v>237</v>
       </c>
       <c r="G7" t="s">
-        <v>26</v>
+        <v>238</v>
       </c>
     </row>
     <row r="8" spans="1:9" x14ac:dyDescent="0.25">
@@ -1418,25 +1421,25 @@
         <v>6</v>
       </c>
       <c r="B8" t="s">
-        <v>27</v>
+        <v>19</v>
       </c>
       <c r="C8" t="s">
-        <v>28</v>
+        <v>16</v>
       </c>
       <c r="D8" t="s">
-        <v>29</v>
+        <v>239</v>
       </c>
       <c r="E8" t="s">
-        <v>30</v>
+        <v>240</v>
       </c>
       <c r="F8" t="s">
-        <v>13</v>
+        <v>10</v>
       </c>
       <c r="G8" t="s">
-        <v>31</v>
+        <v>241</v>
       </c>
       <c r="H8" t="s">
-        <v>32</v>
+        <v>242</v>
       </c>
     </row>
     <row r="9" spans="1:9" x14ac:dyDescent="0.25">
@@ -1444,25 +1447,25 @@
         <v>7</v>
       </c>
       <c r="B9" t="s">
-        <v>33</v>
+        <v>16</v>
       </c>
       <c r="C9" t="s">
-        <v>34</v>
+        <v>243</v>
       </c>
       <c r="D9" t="s">
-        <v>35</v>
+        <v>244</v>
       </c>
       <c r="E9" t="s">
-        <v>36</v>
+        <v>18</v>
       </c>
       <c r="F9" t="s">
-        <v>37</v>
+        <v>245</v>
       </c>
       <c r="G9" t="s">
-        <v>38</v>
+        <v>246</v>
       </c>
       <c r="H9" t="s">
-        <v>39</v>
+        <v>247</v>
       </c>
       <c r="I9" s="1">
         <v>1000</v>
@@ -1477,7 +1480,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{20A8B17D-093C-4B3F-9D1A-100BD46EB91E}">
   <dimension ref="A1:F22"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A19" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="B22" sqref="B22"/>
     </sheetView>
   </sheetViews>
@@ -1492,22 +1495,22 @@
   <sheetData>
     <row r="1" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
-        <v>209</v>
+        <v>125</v>
       </c>
       <c r="B1" s="2" t="s">
-        <v>210</v>
+        <v>126</v>
       </c>
       <c r="C1" t="s">
-        <v>211</v>
+        <v>127</v>
       </c>
       <c r="D1" s="2" t="s">
-        <v>212</v>
+        <v>128</v>
       </c>
       <c r="E1" s="2" t="s">
-        <v>213</v>
+        <v>129</v>
       </c>
       <c r="F1" s="2" t="s">
-        <v>214</v>
+        <v>130</v>
       </c>
     </row>
     <row r="2" spans="1:6" ht="120" x14ac:dyDescent="0.25">
@@ -1515,19 +1518,19 @@
         <v>1</v>
       </c>
       <c r="B2" s="2" t="s">
-        <v>215</v>
+        <v>131</v>
       </c>
       <c r="C2">
         <v>2024</v>
       </c>
       <c r="D2" s="2" t="s">
-        <v>216</v>
+        <v>132</v>
       </c>
       <c r="E2" s="2" t="s">
-        <v>217</v>
+        <v>133</v>
       </c>
       <c r="F2" s="2" t="s">
-        <v>218</v>
+        <v>134</v>
       </c>
     </row>
     <row r="3" spans="1:6" ht="75" x14ac:dyDescent="0.25">
@@ -1535,19 +1538,19 @@
         <v>2</v>
       </c>
       <c r="B3" s="2" t="s">
-        <v>219</v>
+        <v>135</v>
       </c>
       <c r="C3">
         <v>2021</v>
       </c>
       <c r="D3" s="2" t="s">
-        <v>220</v>
+        <v>136</v>
       </c>
       <c r="E3" s="2" t="s">
-        <v>221</v>
+        <v>137</v>
       </c>
       <c r="F3" s="2" t="s">
-        <v>222</v>
+        <v>138</v>
       </c>
     </row>
     <row r="4" spans="1:6" ht="255" x14ac:dyDescent="0.25">
@@ -1555,19 +1558,19 @@
         <v>3</v>
       </c>
       <c r="B4" s="2" t="s">
-        <v>223</v>
+        <v>139</v>
       </c>
       <c r="C4">
         <v>2023</v>
       </c>
       <c r="D4" s="2" t="s">
-        <v>224</v>
+        <v>140</v>
       </c>
       <c r="E4" s="2" t="s">
-        <v>225</v>
+        <v>141</v>
       </c>
       <c r="F4" s="2" t="s">
-        <v>226</v>
+        <v>142</v>
       </c>
     </row>
     <row r="5" spans="1:6" ht="180" x14ac:dyDescent="0.25">
@@ -1575,19 +1578,19 @@
         <v>4</v>
       </c>
       <c r="B5" s="2" t="s">
-        <v>227</v>
+        <v>143</v>
       </c>
       <c r="C5">
         <v>2024</v>
       </c>
       <c r="D5" s="2" t="s">
-        <v>278</v>
+        <v>194</v>
       </c>
       <c r="E5" s="2" t="s">
-        <v>228</v>
+        <v>144</v>
       </c>
       <c r="F5" s="2" t="s">
-        <v>229</v>
+        <v>145</v>
       </c>
     </row>
     <row r="6" spans="1:6" ht="240" x14ac:dyDescent="0.25">
@@ -1595,19 +1598,19 @@
         <v>5</v>
       </c>
       <c r="B6" s="2" t="s">
-        <v>230</v>
+        <v>146</v>
       </c>
       <c r="C6">
         <v>2023</v>
       </c>
       <c r="D6" s="2" t="s">
-        <v>231</v>
+        <v>147</v>
       </c>
       <c r="E6" s="2" t="s">
-        <v>232</v>
+        <v>148</v>
       </c>
       <c r="F6" s="2" t="s">
-        <v>233</v>
+        <v>149</v>
       </c>
     </row>
     <row r="7" spans="1:6" ht="195" x14ac:dyDescent="0.25">
@@ -1615,19 +1618,19 @@
         <v>6</v>
       </c>
       <c r="B7" s="2" t="s">
-        <v>234</v>
+        <v>150</v>
       </c>
       <c r="C7">
         <v>2023</v>
       </c>
       <c r="D7" s="2" t="s">
-        <v>235</v>
+        <v>151</v>
       </c>
       <c r="E7" s="2" t="s">
-        <v>279</v>
+        <v>195</v>
       </c>
       <c r="F7" s="2" t="s">
-        <v>236</v>
+        <v>152</v>
       </c>
     </row>
     <row r="8" spans="1:6" ht="90" x14ac:dyDescent="0.25">
@@ -1635,19 +1638,19 @@
         <v>7</v>
       </c>
       <c r="B8" s="2" t="s">
-        <v>237</v>
+        <v>153</v>
       </c>
       <c r="C8">
         <v>2023</v>
       </c>
       <c r="D8" s="2" t="s">
-        <v>280</v>
+        <v>196</v>
       </c>
       <c r="E8" s="2" t="s">
-        <v>281</v>
+        <v>197</v>
       </c>
       <c r="F8" s="2" t="s">
-        <v>282</v>
+        <v>198</v>
       </c>
     </row>
     <row r="9" spans="1:6" ht="90" x14ac:dyDescent="0.25">
@@ -1655,19 +1658,19 @@
         <v>8</v>
       </c>
       <c r="B9" s="2" t="s">
-        <v>238</v>
+        <v>154</v>
       </c>
       <c r="C9">
         <v>2020</v>
       </c>
       <c r="D9" s="2" t="s">
-        <v>283</v>
+        <v>199</v>
       </c>
       <c r="E9" s="2" t="s">
-        <v>239</v>
+        <v>155</v>
       </c>
       <c r="F9" s="2" t="s">
-        <v>240</v>
+        <v>156</v>
       </c>
     </row>
     <row r="10" spans="1:6" ht="90" x14ac:dyDescent="0.25">
@@ -1675,19 +1678,19 @@
         <v>9</v>
       </c>
       <c r="B10" s="2" t="s">
-        <v>241</v>
+        <v>157</v>
       </c>
       <c r="C10">
         <v>2023</v>
       </c>
       <c r="D10" s="2" t="s">
-        <v>284</v>
+        <v>200</v>
       </c>
       <c r="E10" s="2" t="s">
-        <v>242</v>
+        <v>158</v>
       </c>
       <c r="F10" s="2" t="s">
-        <v>285</v>
+        <v>201</v>
       </c>
     </row>
     <row r="11" spans="1:6" ht="60" x14ac:dyDescent="0.25">
@@ -1695,19 +1698,19 @@
         <v>10</v>
       </c>
       <c r="B11" s="2" t="s">
-        <v>243</v>
+        <v>159</v>
       </c>
       <c r="C11">
         <v>2024</v>
       </c>
       <c r="D11" s="2" t="s">
-        <v>286</v>
+        <v>202</v>
       </c>
       <c r="E11" s="2" t="s">
-        <v>244</v>
+        <v>160</v>
       </c>
       <c r="F11" s="2" t="s">
-        <v>287</v>
+        <v>203</v>
       </c>
     </row>
     <row r="12" spans="1:6" ht="60" x14ac:dyDescent="0.25">
@@ -1715,19 +1718,19 @@
         <v>11</v>
       </c>
       <c r="B12" s="2" t="s">
-        <v>245</v>
+        <v>161</v>
       </c>
       <c r="C12">
         <v>2024</v>
       </c>
       <c r="D12" s="2" t="s">
-        <v>288</v>
+        <v>204</v>
       </c>
       <c r="E12" s="2" t="s">
-        <v>246</v>
+        <v>162</v>
       </c>
       <c r="F12" s="2" t="s">
-        <v>289</v>
+        <v>205</v>
       </c>
     </row>
     <row r="13" spans="1:6" ht="195" x14ac:dyDescent="0.25">
@@ -1735,19 +1738,19 @@
         <v>12</v>
       </c>
       <c r="B13" s="2" t="s">
-        <v>247</v>
+        <v>163</v>
       </c>
       <c r="C13">
         <v>2022</v>
       </c>
       <c r="D13" s="2" t="s">
-        <v>290</v>
+        <v>206</v>
       </c>
       <c r="E13" s="2" t="s">
-        <v>248</v>
+        <v>164</v>
       </c>
       <c r="F13" s="2" t="s">
-        <v>291</v>
+        <v>207</v>
       </c>
     </row>
     <row r="14" spans="1:6" ht="165" x14ac:dyDescent="0.25">
@@ -1755,19 +1758,19 @@
         <v>13</v>
       </c>
       <c r="B14" s="2" t="s">
-        <v>249</v>
+        <v>165</v>
       </c>
       <c r="C14">
         <v>2025</v>
       </c>
       <c r="D14" s="2" t="s">
-        <v>292</v>
+        <v>208</v>
       </c>
       <c r="E14" s="2" t="s">
-        <v>250</v>
+        <v>166</v>
       </c>
       <c r="F14" s="2" t="s">
-        <v>293</v>
+        <v>209</v>
       </c>
     </row>
     <row r="15" spans="1:6" ht="90" x14ac:dyDescent="0.25">
@@ -1775,19 +1778,19 @@
         <v>14</v>
       </c>
       <c r="B15" s="2" t="s">
-        <v>251</v>
+        <v>167</v>
       </c>
       <c r="C15">
         <v>2024</v>
       </c>
       <c r="D15" s="2" t="s">
-        <v>294</v>
+        <v>210</v>
       </c>
       <c r="E15" s="2" t="s">
-        <v>295</v>
+        <v>211</v>
       </c>
       <c r="F15" s="2" t="s">
-        <v>252</v>
+        <v>168</v>
       </c>
     </row>
     <row r="16" spans="1:6" ht="135" x14ac:dyDescent="0.25">
@@ -1795,19 +1798,19 @@
         <v>15</v>
       </c>
       <c r="B16" s="2" t="s">
-        <v>253</v>
+        <v>169</v>
       </c>
       <c r="C16">
         <v>2022</v>
       </c>
       <c r="D16" s="2" t="s">
-        <v>296</v>
+        <v>212</v>
       </c>
       <c r="E16" s="2" t="s">
-        <v>297</v>
+        <v>213</v>
       </c>
       <c r="F16" s="2" t="s">
-        <v>254</v>
+        <v>170</v>
       </c>
     </row>
     <row r="17" spans="1:6" ht="75" x14ac:dyDescent="0.25">
@@ -1815,19 +1818,19 @@
         <v>16</v>
       </c>
       <c r="B17" s="2" t="s">
-        <v>255</v>
+        <v>171</v>
       </c>
       <c r="C17">
         <v>2023</v>
       </c>
       <c r="D17" s="2" t="s">
-        <v>256</v>
+        <v>172</v>
       </c>
       <c r="E17" s="2" t="s">
-        <v>257</v>
+        <v>173</v>
       </c>
       <c r="F17" s="2" t="s">
-        <v>258</v>
+        <v>174</v>
       </c>
     </row>
     <row r="18" spans="1:6" ht="60" x14ac:dyDescent="0.25">
@@ -1835,19 +1838,19 @@
         <v>17</v>
       </c>
       <c r="B18" s="2" t="s">
-        <v>259</v>
+        <v>175</v>
       </c>
       <c r="C18">
         <v>2021</v>
       </c>
       <c r="D18" s="2" t="s">
-        <v>260</v>
+        <v>176</v>
       </c>
       <c r="E18" s="2" t="s">
-        <v>261</v>
+        <v>177</v>
       </c>
       <c r="F18" s="2" t="s">
-        <v>262</v>
+        <v>178</v>
       </c>
     </row>
     <row r="19" spans="1:6" ht="60" x14ac:dyDescent="0.25">
@@ -1855,19 +1858,19 @@
         <v>18</v>
       </c>
       <c r="B19" s="2" t="s">
-        <v>263</v>
+        <v>179</v>
       </c>
       <c r="C19">
         <v>2020</v>
       </c>
       <c r="D19" s="2" t="s">
-        <v>264</v>
+        <v>180</v>
       </c>
       <c r="E19" s="2" t="s">
-        <v>265</v>
+        <v>181</v>
       </c>
       <c r="F19" s="2" t="s">
-        <v>266</v>
+        <v>182</v>
       </c>
     </row>
     <row r="20" spans="1:6" ht="150" x14ac:dyDescent="0.25">
@@ -1875,19 +1878,19 @@
         <v>19</v>
       </c>
       <c r="B20" s="2" t="s">
-        <v>267</v>
+        <v>183</v>
       </c>
       <c r="C20">
         <v>2022</v>
       </c>
       <c r="D20" s="2" t="s">
-        <v>298</v>
+        <v>214</v>
       </c>
       <c r="E20" s="2" t="s">
-        <v>268</v>
+        <v>184</v>
       </c>
       <c r="F20" s="2" t="s">
-        <v>269</v>
+        <v>185</v>
       </c>
     </row>
     <row r="21" spans="1:6" ht="135" x14ac:dyDescent="0.25">
@@ -1895,19 +1898,19 @@
         <v>20</v>
       </c>
       <c r="B21" s="2" t="s">
-        <v>270</v>
+        <v>186</v>
       </c>
       <c r="C21">
         <v>2021</v>
       </c>
       <c r="D21" s="2" t="s">
-        <v>271</v>
+        <v>187</v>
       </c>
       <c r="E21" s="2" t="s">
-        <v>272</v>
+        <v>188</v>
       </c>
       <c r="F21" s="2" t="s">
-        <v>273</v>
+        <v>189</v>
       </c>
     </row>
     <row r="22" spans="1:6" ht="135" x14ac:dyDescent="0.25">
@@ -1915,19 +1918,19 @@
         <v>21</v>
       </c>
       <c r="B22" s="2" t="s">
-        <v>274</v>
+        <v>190</v>
       </c>
       <c r="C22">
         <v>2021</v>
       </c>
       <c r="D22" s="2" t="s">
-        <v>275</v>
+        <v>191</v>
       </c>
       <c r="E22" s="2" t="s">
-        <v>276</v>
+        <v>192</v>
       </c>
       <c r="F22" s="2" t="s">
-        <v>277</v>
+        <v>193</v>
       </c>
     </row>
   </sheetData>
@@ -1940,7 +1943,7 @@
   <dimension ref="A1:I9"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="G26" sqref="G26"/>
+      <selection sqref="A1:I9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1981,7 +1984,7 @@
         <v>1</v>
       </c>
       <c r="B3" t="s">
-        <v>61</v>
+        <v>250</v>
       </c>
     </row>
     <row r="4" spans="1:9" x14ac:dyDescent="0.25">
@@ -1989,10 +1992,10 @@
         <v>2</v>
       </c>
       <c r="B4" t="s">
-        <v>60</v>
+        <v>23</v>
       </c>
       <c r="C4" t="s">
-        <v>13</v>
+        <v>103</v>
       </c>
     </row>
     <row r="5" spans="1:9" x14ac:dyDescent="0.25">
@@ -2000,13 +2003,13 @@
         <v>3</v>
       </c>
       <c r="B5" t="s">
-        <v>59</v>
+        <v>103</v>
       </c>
       <c r="C5" t="s">
-        <v>27</v>
+        <v>21</v>
       </c>
       <c r="D5" t="s">
-        <v>58</v>
+        <v>107</v>
       </c>
     </row>
     <row r="6" spans="1:9" x14ac:dyDescent="0.25">
@@ -2014,16 +2017,16 @@
         <v>4</v>
       </c>
       <c r="B6" t="s">
-        <v>57</v>
+        <v>251</v>
       </c>
       <c r="C6" t="s">
-        <v>18</v>
+        <v>22</v>
       </c>
       <c r="D6" t="s">
-        <v>56</v>
+        <v>245</v>
       </c>
       <c r="E6" t="s">
-        <v>51</v>
+        <v>252</v>
       </c>
     </row>
     <row r="7" spans="1:9" x14ac:dyDescent="0.25">
@@ -2031,19 +2034,19 @@
         <v>5</v>
       </c>
       <c r="B7" t="s">
-        <v>55</v>
+        <v>253</v>
       </c>
       <c r="C7" t="s">
-        <v>54</v>
+        <v>254</v>
       </c>
       <c r="D7" t="s">
-        <v>53</v>
+        <v>255</v>
       </c>
       <c r="E7" t="s">
-        <v>52</v>
+        <v>256</v>
       </c>
       <c r="F7" t="s">
-        <v>51</v>
+        <v>257</v>
       </c>
     </row>
     <row r="8" spans="1:9" x14ac:dyDescent="0.25">
@@ -2051,22 +2054,22 @@
         <v>6</v>
       </c>
       <c r="B8" t="s">
-        <v>50</v>
+        <v>251</v>
       </c>
       <c r="C8" t="s">
-        <v>49</v>
+        <v>258</v>
       </c>
       <c r="D8" t="s">
-        <v>48</v>
+        <v>20</v>
       </c>
       <c r="E8" t="s">
-        <v>47</v>
+        <v>14</v>
       </c>
       <c r="F8" t="s">
-        <v>46</v>
+        <v>110</v>
       </c>
       <c r="G8" t="s">
-        <v>45</v>
+        <v>259</v>
       </c>
     </row>
     <row r="9" spans="1:9" x14ac:dyDescent="0.25">
@@ -2074,25 +2077,25 @@
         <v>7</v>
       </c>
       <c r="B9" t="s">
-        <v>44</v>
+        <v>260</v>
       </c>
       <c r="C9" t="s">
-        <v>34</v>
+        <v>243</v>
       </c>
       <c r="D9" t="s">
-        <v>43</v>
+        <v>11</v>
       </c>
       <c r="E9" t="s">
-        <v>42</v>
+        <v>18</v>
       </c>
       <c r="F9" t="s">
-        <v>37</v>
+        <v>245</v>
       </c>
       <c r="G9" t="s">
-        <v>41</v>
+        <v>261</v>
       </c>
       <c r="H9" t="s">
-        <v>40</v>
+        <v>21</v>
       </c>
     </row>
   </sheetData>
@@ -2105,7 +2108,7 @@
   <dimension ref="A1:E9"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="E35" sqref="E35"/>
+      <selection sqref="A1:E9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -2119,16 +2122,16 @@
   <sheetData>
     <row r="1" spans="1:5" x14ac:dyDescent="0.25">
       <c r="B1" t="s">
-        <v>62</v>
+        <v>24</v>
       </c>
       <c r="C1" t="s">
-        <v>63</v>
+        <v>25</v>
       </c>
       <c r="D1" t="s">
-        <v>64</v>
+        <v>26</v>
       </c>
       <c r="E1" t="s">
-        <v>65</v>
+        <v>27</v>
       </c>
     </row>
     <row r="2" spans="1:5" x14ac:dyDescent="0.25">
@@ -2136,16 +2139,16 @@
         <v>0</v>
       </c>
       <c r="B2" t="s">
-        <v>66</v>
+        <v>215</v>
       </c>
       <c r="C2" t="s">
-        <v>67</v>
+        <v>28</v>
       </c>
       <c r="D2" t="s">
-        <v>68</v>
+        <v>216</v>
       </c>
       <c r="E2" t="s">
-        <v>69</v>
+        <v>31</v>
       </c>
     </row>
     <row r="3" spans="1:5" x14ac:dyDescent="0.25">
@@ -2170,16 +2173,16 @@
         <v>2</v>
       </c>
       <c r="B4" t="s">
-        <v>70</v>
+        <v>217</v>
       </c>
       <c r="C4" t="s">
-        <v>71</v>
+        <v>29</v>
       </c>
       <c r="D4" t="s">
-        <v>72</v>
+        <v>218</v>
       </c>
       <c r="E4" t="s">
-        <v>73</v>
+        <v>219</v>
       </c>
     </row>
     <row r="5" spans="1:5" x14ac:dyDescent="0.25">
@@ -2187,16 +2190,16 @@
         <v>3</v>
       </c>
       <c r="B5" t="s">
-        <v>74</v>
+        <v>30</v>
       </c>
       <c r="C5" t="s">
-        <v>75</v>
+        <v>220</v>
       </c>
       <c r="D5" t="s">
-        <v>76</v>
+        <v>221</v>
       </c>
       <c r="E5" t="s">
-        <v>77</v>
+        <v>222</v>
       </c>
     </row>
     <row r="6" spans="1:5" x14ac:dyDescent="0.25">
@@ -2221,16 +2224,16 @@
         <v>5</v>
       </c>
       <c r="B7" t="s">
-        <v>78</v>
+        <v>216</v>
       </c>
       <c r="C7" t="s">
-        <v>78</v>
+        <v>223</v>
       </c>
       <c r="D7" t="s">
-        <v>79</v>
+        <v>224</v>
       </c>
       <c r="E7" t="s">
-        <v>80</v>
+        <v>225</v>
       </c>
     </row>
     <row r="8" spans="1:5" x14ac:dyDescent="0.25">
@@ -2238,16 +2241,16 @@
         <v>6</v>
       </c>
       <c r="B8" t="s">
-        <v>81</v>
+        <v>32</v>
       </c>
       <c r="C8" t="s">
-        <v>82</v>
+        <v>226</v>
       </c>
       <c r="D8" t="s">
-        <v>83</v>
+        <v>33</v>
       </c>
       <c r="E8" t="s">
-        <v>84</v>
+        <v>34</v>
       </c>
     </row>
     <row r="9" spans="1:5" x14ac:dyDescent="0.25">
@@ -2310,354 +2313,354 @@
     </row>
     <row r="2" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
-        <v>85</v>
+        <v>35</v>
       </c>
       <c r="C2" t="s">
-        <v>86</v>
+        <v>215</v>
       </c>
     </row>
     <row r="3" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
-        <v>87</v>
+        <v>36</v>
       </c>
       <c r="B3" t="s">
-        <v>88</v>
+        <v>264</v>
       </c>
     </row>
     <row r="4" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
-        <v>89</v>
+        <v>37</v>
       </c>
       <c r="B4" t="s">
-        <v>90</v>
+        <v>265</v>
       </c>
     </row>
     <row r="5" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
-        <v>91</v>
+        <v>38</v>
       </c>
       <c r="B5" t="s">
-        <v>92</v>
+        <v>266</v>
       </c>
     </row>
     <row r="6" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
-        <v>93</v>
+        <v>39</v>
       </c>
       <c r="B6" t="s">
-        <v>94</v>
+        <v>55</v>
       </c>
     </row>
     <row r="7" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
-        <v>95</v>
+        <v>41</v>
       </c>
       <c r="B7" t="s">
-        <v>96</v>
+        <v>77</v>
       </c>
     </row>
     <row r="8" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
-        <v>97</v>
+        <v>43</v>
       </c>
       <c r="B8" t="s">
-        <v>98</v>
+        <v>68</v>
       </c>
     </row>
     <row r="9" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
-        <v>99</v>
+        <v>44</v>
       </c>
       <c r="D9" t="s">
-        <v>100</v>
+        <v>64</v>
       </c>
     </row>
     <row r="10" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A10" t="s">
-        <v>101</v>
+        <v>46</v>
       </c>
       <c r="D10" t="s">
-        <v>102</v>
+        <v>45</v>
       </c>
     </row>
     <row r="11" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A11" t="s">
-        <v>103</v>
+        <v>48</v>
       </c>
       <c r="D11" t="s">
-        <v>104</v>
+        <v>267</v>
       </c>
     </row>
     <row r="12" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A12" t="s">
-        <v>105</v>
+        <v>49</v>
       </c>
       <c r="D12" t="s">
-        <v>106</v>
+        <v>77</v>
       </c>
     </row>
     <row r="13" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A13" t="s">
-        <v>107</v>
+        <v>50</v>
       </c>
       <c r="D13" t="s">
-        <v>108</v>
+        <v>58</v>
       </c>
     </row>
     <row r="14" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A14" t="s">
-        <v>109</v>
+        <v>52</v>
       </c>
       <c r="D14" t="s">
-        <v>110</v>
+        <v>268</v>
       </c>
     </row>
     <row r="15" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A15" t="s">
-        <v>111</v>
+        <v>54</v>
       </c>
       <c r="D15" t="s">
-        <v>112</v>
+        <v>264</v>
       </c>
     </row>
     <row r="16" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A16" t="s">
-        <v>113</v>
+        <v>56</v>
       </c>
       <c r="D16" t="s">
-        <v>114</v>
+        <v>269</v>
       </c>
     </row>
     <row r="17" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A17" t="s">
-        <v>115</v>
+        <v>57</v>
       </c>
       <c r="D17" t="s">
-        <v>116</v>
+        <v>270</v>
       </c>
     </row>
     <row r="18" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A18" t="s">
-        <v>117</v>
+        <v>59</v>
       </c>
       <c r="D18" t="s">
-        <v>118</v>
+        <v>47</v>
       </c>
     </row>
     <row r="19" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A19" t="s">
-        <v>119</v>
+        <v>60</v>
       </c>
       <c r="D19" t="s">
-        <v>120</v>
+        <v>61</v>
       </c>
     </row>
     <row r="20" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A20" t="s">
-        <v>121</v>
+        <v>62</v>
       </c>
       <c r="F20" t="s">
-        <v>118</v>
+        <v>42</v>
       </c>
     </row>
     <row r="21" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A21" t="s">
-        <v>122</v>
+        <v>63</v>
       </c>
       <c r="E21" t="s">
-        <v>123</v>
+        <v>271</v>
       </c>
     </row>
     <row r="22" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A22" t="s">
-        <v>124</v>
+        <v>65</v>
       </c>
       <c r="E22" t="s">
-        <v>125</v>
+        <v>66</v>
       </c>
     </row>
     <row r="23" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A23" t="s">
-        <v>126</v>
+        <v>67</v>
       </c>
       <c r="E23" t="s">
-        <v>127</v>
+        <v>40</v>
       </c>
     </row>
     <row r="24" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A24" t="s">
-        <v>128</v>
+        <v>69</v>
       </c>
       <c r="E24" t="s">
-        <v>129</v>
+        <v>272</v>
       </c>
     </row>
     <row r="25" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A25" t="s">
-        <v>130</v>
+        <v>70</v>
       </c>
       <c r="E25" t="s">
-        <v>8</v>
+        <v>15</v>
       </c>
     </row>
     <row r="26" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A26" t="s">
-        <v>131</v>
+        <v>71</v>
       </c>
       <c r="E26" t="s">
-        <v>16</v>
+        <v>273</v>
       </c>
     </row>
     <row r="27" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A27" t="s">
-        <v>132</v>
+        <v>72</v>
       </c>
       <c r="E27" t="s">
-        <v>127</v>
+        <v>8</v>
       </c>
     </row>
     <row r="28" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A28" t="s">
-        <v>133</v>
+        <v>73</v>
       </c>
       <c r="E28" t="s">
-        <v>134</v>
+        <v>74</v>
       </c>
     </row>
     <row r="29" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A29" t="s">
-        <v>135</v>
+        <v>75</v>
       </c>
       <c r="E29" t="s">
-        <v>112</v>
+        <v>274</v>
       </c>
     </row>
     <row r="30" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A30" t="s">
-        <v>136</v>
+        <v>76</v>
       </c>
       <c r="E30" t="s">
-        <v>137</v>
+        <v>275</v>
       </c>
     </row>
     <row r="31" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A31" t="s">
-        <v>138</v>
+        <v>78</v>
       </c>
       <c r="G31" t="s">
-        <v>139</v>
+        <v>276</v>
       </c>
     </row>
     <row r="32" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A32" t="s">
-        <v>140</v>
+        <v>80</v>
       </c>
       <c r="G32" t="s">
-        <v>127</v>
+        <v>12</v>
       </c>
     </row>
     <row r="33" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A33" t="s">
-        <v>141</v>
+        <v>81</v>
       </c>
       <c r="G33" t="s">
-        <v>142</v>
+        <v>277</v>
       </c>
     </row>
     <row r="34" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A34" t="s">
-        <v>143</v>
+        <v>82</v>
       </c>
       <c r="G34" t="s">
-        <v>125</v>
+        <v>53</v>
       </c>
     </row>
     <row r="35" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A35" t="s">
-        <v>144</v>
+        <v>83</v>
       </c>
       <c r="G35" t="s">
-        <v>125</v>
+        <v>68</v>
       </c>
     </row>
     <row r="36" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A36" t="s">
-        <v>145</v>
+        <v>84</v>
       </c>
       <c r="G36" t="s">
-        <v>16</v>
+        <v>268</v>
       </c>
     </row>
     <row r="37" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A37" t="s">
-        <v>146</v>
+        <v>85</v>
       </c>
       <c r="G37" t="s">
-        <v>147</v>
+        <v>51</v>
       </c>
     </row>
     <row r="38" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A38" t="s">
-        <v>148</v>
+        <v>86</v>
       </c>
       <c r="G38" t="s">
-        <v>149</v>
+        <v>87</v>
       </c>
     </row>
     <row r="39" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A39" t="s">
-        <v>150</v>
+        <v>88</v>
       </c>
       <c r="I39" s="1">
-        <v>1022</v>
+        <v>1020</v>
       </c>
     </row>
     <row r="40" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A40" t="s">
-        <v>151</v>
+        <v>89</v>
       </c>
       <c r="H40" t="s">
-        <v>152</v>
+        <v>278</v>
       </c>
     </row>
     <row r="41" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A41" t="s">
-        <v>153</v>
+        <v>90</v>
       </c>
       <c r="H41" t="s">
-        <v>137</v>
+        <v>279</v>
       </c>
     </row>
     <row r="42" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A42" t="s">
-        <v>154</v>
+        <v>91</v>
       </c>
       <c r="H42" t="s">
-        <v>114</v>
+        <v>280</v>
       </c>
     </row>
     <row r="43" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A43" t="s">
-        <v>155</v>
+        <v>92</v>
       </c>
       <c r="H43" t="s">
-        <v>156</v>
+        <v>281</v>
       </c>
     </row>
     <row r="44" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A44" t="s">
-        <v>157</v>
+        <v>93</v>
       </c>
       <c r="H44" t="s">
-        <v>158</v>
+        <v>58</v>
       </c>
     </row>
     <row r="45" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A45" t="s">
-        <v>159</v>
+        <v>94</v>
       </c>
       <c r="H45" t="s">
-        <v>106</v>
+        <v>276</v>
       </c>
     </row>
   </sheetData>
@@ -2669,8 +2672,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{61D632CE-895E-47EE-8302-B52F9BDA9B35}">
   <dimension ref="A1:F8"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="J14" sqref="J14"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection sqref="A1:F8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -2682,159 +2685,159 @@
   <sheetData>
     <row r="1" spans="1:6" x14ac:dyDescent="0.25">
       <c r="B1" t="s">
-        <v>160</v>
+        <v>95</v>
       </c>
       <c r="C1" t="s">
-        <v>161</v>
+        <v>96</v>
       </c>
       <c r="D1" t="s">
-        <v>162</v>
+        <v>97</v>
       </c>
       <c r="E1" t="s">
-        <v>163</v>
+        <v>98</v>
       </c>
       <c r="F1" t="s">
-        <v>164</v>
+        <v>99</v>
       </c>
     </row>
     <row r="2" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
-        <v>165</v>
+        <v>100</v>
       </c>
       <c r="B2" t="s">
-        <v>166</v>
+        <v>283</v>
       </c>
       <c r="C2" t="s">
-        <v>167</v>
+        <v>284</v>
       </c>
       <c r="D2" t="s">
-        <v>54</v>
+        <v>261</v>
       </c>
       <c r="E2" s="1">
-        <v>29370</v>
+        <v>26000</v>
       </c>
       <c r="F2" t="s">
-        <v>168</v>
+        <v>101</v>
       </c>
     </row>
     <row r="3" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
-        <v>169</v>
+        <v>102</v>
       </c>
       <c r="B3" t="s">
-        <v>170</v>
+        <v>251</v>
       </c>
       <c r="C3" t="s">
-        <v>46</v>
+        <v>251</v>
       </c>
       <c r="D3" t="s">
-        <v>170</v>
-      </c>
-      <c r="E3" t="s">
-        <v>171</v>
+        <v>10</v>
+      </c>
+      <c r="E3" s="1">
+        <v>1271</v>
       </c>
       <c r="F3" t="s">
-        <v>172</v>
+        <v>285</v>
       </c>
     </row>
     <row r="4" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
-        <v>173</v>
+        <v>104</v>
       </c>
       <c r="B4" t="s">
-        <v>174</v>
+        <v>286</v>
       </c>
       <c r="C4" t="s">
-        <v>175</v>
+        <v>287</v>
       </c>
       <c r="D4" t="s">
-        <v>176</v>
+        <v>288</v>
       </c>
       <c r="E4" s="1">
-        <v>5174</v>
+        <v>5244</v>
       </c>
       <c r="F4" t="s">
-        <v>168</v>
+        <v>101</v>
       </c>
     </row>
     <row r="5" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
-        <v>177</v>
+        <v>106</v>
       </c>
       <c r="B5" t="s">
-        <v>178</v>
+        <v>245</v>
       </c>
       <c r="C5" t="s">
-        <v>179</v>
+        <v>252</v>
       </c>
       <c r="D5" t="s">
-        <v>170</v>
+        <v>10</v>
       </c>
       <c r="E5" s="1">
-        <v>2461</v>
+        <v>2188</v>
       </c>
       <c r="F5" t="s">
-        <v>28</v>
+        <v>289</v>
       </c>
     </row>
     <row r="6" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
-        <v>180</v>
+        <v>108</v>
       </c>
       <c r="B6" t="s">
-        <v>181</v>
+        <v>290</v>
       </c>
       <c r="C6" t="s">
-        <v>182</v>
+        <v>291</v>
       </c>
       <c r="D6" t="s">
-        <v>59</v>
-      </c>
-      <c r="E6" s="1">
-        <v>1081</v>
+        <v>292</v>
+      </c>
+      <c r="E6" s="1" t="s">
+        <v>293</v>
       </c>
       <c r="F6" t="s">
-        <v>183</v>
+        <v>294</v>
       </c>
     </row>
     <row r="7" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
-        <v>184</v>
+        <v>109</v>
       </c>
       <c r="B7" t="s">
-        <v>52</v>
+        <v>295</v>
       </c>
       <c r="C7" t="s">
-        <v>24</v>
+        <v>295</v>
       </c>
       <c r="D7" t="s">
-        <v>185</v>
+        <v>105</v>
       </c>
       <c r="E7" s="1">
-        <v>3992</v>
+        <v>3921</v>
       </c>
       <c r="F7" t="s">
-        <v>168</v>
+        <v>101</v>
       </c>
     </row>
     <row r="8" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
-        <v>186</v>
+        <v>111</v>
       </c>
       <c r="B8" t="s">
-        <v>187</v>
+        <v>296</v>
       </c>
       <c r="C8" t="s">
-        <v>187</v>
+        <v>296</v>
       </c>
       <c r="D8" t="s">
-        <v>36</v>
+        <v>229</v>
       </c>
       <c r="E8" t="s">
-        <v>188</v>
+        <v>297</v>
       </c>
       <c r="F8" t="s">
-        <v>189</v>
+        <v>298</v>
       </c>
     </row>
   </sheetData>
@@ -2847,17 +2850,17 @@
   <dimension ref="A1:C2"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection sqref="A1:D3"/>
+      <selection sqref="A1:C2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <sheetData>
     <row r="1" spans="1:3" x14ac:dyDescent="0.25">
       <c r="B1" t="s">
-        <v>190</v>
+        <v>112</v>
       </c>
       <c r="C1" t="s">
-        <v>191</v>
+        <v>113</v>
       </c>
     </row>
     <row r="2" spans="1:3" x14ac:dyDescent="0.25">
@@ -2865,10 +2868,10 @@
         <v>5</v>
       </c>
       <c r="B2" t="s">
-        <v>192</v>
+        <v>262</v>
       </c>
       <c r="C2" t="s">
-        <v>193</v>
+        <v>263</v>
       </c>
     </row>
   </sheetData>
@@ -2881,20 +2884,20 @@
   <dimension ref="A1:D9"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection sqref="A1:E10"/>
+      <selection sqref="A1:D9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <sheetData>
     <row r="1" spans="1:4" x14ac:dyDescent="0.25">
       <c r="B1" t="s">
-        <v>194</v>
+        <v>114</v>
       </c>
       <c r="C1" t="s">
-        <v>195</v>
+        <v>115</v>
       </c>
       <c r="D1" t="s">
-        <v>196</v>
+        <v>116</v>
       </c>
     </row>
     <row r="2" spans="1:4" x14ac:dyDescent="0.25">
@@ -2960,10 +2963,10 @@
         <v>3000000</v>
       </c>
       <c r="C7" s="1">
-        <v>1772020</v>
+        <v>1855933</v>
       </c>
       <c r="D7" t="s">
-        <v>197</v>
+        <v>282</v>
       </c>
     </row>
     <row r="8" spans="1:4" x14ac:dyDescent="0.25">
@@ -2998,72 +3001,72 @@
   <dimension ref="A1:C6"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="N12" sqref="N12"/>
+      <selection sqref="A1:C6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <sheetData>
     <row r="1" spans="1:3" x14ac:dyDescent="0.25">
       <c r="B1" t="s">
-        <v>198</v>
+        <v>117</v>
       </c>
       <c r="C1" t="s">
-        <v>199</v>
+        <v>118</v>
       </c>
     </row>
     <row r="2" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
-        <v>200</v>
+        <v>119</v>
       </c>
       <c r="B2" t="s">
-        <v>185</v>
+        <v>110</v>
       </c>
       <c r="C2" t="s">
-        <v>185</v>
+        <v>110</v>
       </c>
     </row>
     <row r="3" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
-        <v>201</v>
+        <v>120</v>
       </c>
       <c r="B3" s="1">
-        <v>1003</v>
+        <v>1020</v>
       </c>
       <c r="C3" s="1">
-        <v>1005</v>
+        <v>1021</v>
       </c>
     </row>
     <row r="4" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
-        <v>202</v>
+        <v>121</v>
       </c>
       <c r="B4" t="s">
-        <v>203</v>
+        <v>248</v>
       </c>
       <c r="C4" t="s">
-        <v>204</v>
+        <v>248</v>
       </c>
     </row>
     <row r="5" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
-        <v>205</v>
+        <v>122</v>
       </c>
       <c r="B5" s="1">
-        <v>939460</v>
+        <v>946449</v>
       </c>
       <c r="C5" s="1">
-        <v>940749</v>
+        <v>947010</v>
       </c>
     </row>
     <row r="6" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
-        <v>206</v>
+        <v>123</v>
       </c>
       <c r="B6" t="s">
-        <v>207</v>
+        <v>249</v>
       </c>
       <c r="C6" t="s">
-        <v>207</v>
+        <v>249</v>
       </c>
     </row>
   </sheetData>
@@ -3075,8 +3078,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{C0D852D1-3B6B-4BB9-864E-C3E094800358}">
   <dimension ref="A1:B45"/>
   <sheetViews>
-    <sheetView topLeftCell="A37" workbookViewId="0">
-      <selection sqref="A1:C46"/>
+    <sheetView topLeftCell="A25" workbookViewId="0">
+      <selection activeCell="J38" sqref="J38"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -3086,12 +3089,12 @@
   <sheetData>
     <row r="1" spans="1:2" x14ac:dyDescent="0.25">
       <c r="B1" t="s">
-        <v>208</v>
+        <v>124</v>
       </c>
     </row>
     <row r="2" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
-        <v>85</v>
+        <v>35</v>
       </c>
       <c r="B2" s="1">
         <v>1000</v>
@@ -3099,143 +3102,143 @@
     </row>
     <row r="3" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
-        <v>87</v>
+        <v>36</v>
       </c>
       <c r="B3" s="1">
-        <v>2755</v>
+        <v>2709</v>
       </c>
     </row>
     <row r="4" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
-        <v>89</v>
+        <v>37</v>
       </c>
       <c r="B4" s="1">
-        <v>2958</v>
+        <v>2925</v>
       </c>
     </row>
     <row r="5" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
-        <v>91</v>
+        <v>38</v>
       </c>
       <c r="B5" s="1">
-        <v>4151</v>
+        <v>3939</v>
       </c>
     </row>
     <row r="6" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
-        <v>93</v>
+        <v>39</v>
       </c>
       <c r="B6" s="1">
-        <v>3207</v>
+        <v>3039</v>
       </c>
     </row>
     <row r="7" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
-        <v>95</v>
+        <v>41</v>
       </c>
       <c r="B7" s="1">
-        <v>2635</v>
+        <v>2517</v>
       </c>
     </row>
     <row r="8" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
-        <v>97</v>
+        <v>43</v>
       </c>
       <c r="B8" s="1">
-        <v>3097</v>
+        <v>3114</v>
       </c>
     </row>
     <row r="9" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
-        <v>99</v>
+        <v>44</v>
       </c>
       <c r="B9" s="1">
-        <v>2911</v>
+        <v>2842</v>
       </c>
     </row>
     <row r="10" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A10" t="s">
-        <v>101</v>
+        <v>46</v>
       </c>
       <c r="B10" s="1">
-        <v>2889</v>
+        <v>2815</v>
       </c>
     </row>
     <row r="11" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A11" t="s">
-        <v>103</v>
+        <v>48</v>
       </c>
       <c r="B11" s="1">
-        <v>4079</v>
+        <v>3818</v>
       </c>
     </row>
     <row r="12" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A12" t="s">
-        <v>105</v>
+        <v>49</v>
       </c>
       <c r="B12" s="1">
-        <v>3189</v>
+        <v>3015</v>
       </c>
     </row>
     <row r="13" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A13" t="s">
-        <v>107</v>
+        <v>50</v>
       </c>
       <c r="B13" s="1">
-        <v>3212</v>
+        <v>2907</v>
       </c>
     </row>
     <row r="14" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A14" t="s">
-        <v>109</v>
+        <v>52</v>
       </c>
       <c r="B14" s="1">
-        <v>3409</v>
+        <v>3056</v>
       </c>
     </row>
     <row r="15" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A15" t="s">
-        <v>111</v>
+        <v>54</v>
       </c>
       <c r="B15" s="1">
-        <v>3817</v>
+        <v>3429</v>
       </c>
     </row>
     <row r="16" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A16" t="s">
-        <v>113</v>
+        <v>56</v>
       </c>
       <c r="B16" s="1">
-        <v>2750</v>
+        <v>2393</v>
       </c>
     </row>
     <row r="17" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A17" t="s">
-        <v>115</v>
+        <v>57</v>
       </c>
       <c r="B17" s="1">
-        <v>3068</v>
+        <v>2845</v>
       </c>
     </row>
     <row r="18" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A18" t="s">
-        <v>117</v>
+        <v>59</v>
       </c>
       <c r="B18" s="1">
-        <v>2740</v>
+        <v>2746</v>
       </c>
     </row>
     <row r="19" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A19" t="s">
-        <v>119</v>
+        <v>60</v>
       </c>
       <c r="B19" s="1">
-        <v>3138</v>
+        <v>3111</v>
       </c>
     </row>
     <row r="20" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A20" t="s">
-        <v>121</v>
+        <v>62</v>
       </c>
       <c r="B20" s="1">
         <v>1000</v>
@@ -3243,151 +3246,151 @@
     </row>
     <row r="21" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A21" t="s">
-        <v>122</v>
+        <v>63</v>
       </c>
       <c r="B21" s="1">
-        <v>2965</v>
+        <v>2994</v>
       </c>
     </row>
     <row r="22" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A22" t="s">
-        <v>124</v>
+        <v>65</v>
       </c>
       <c r="B22" s="1">
-        <v>3778</v>
+        <v>3785</v>
       </c>
     </row>
     <row r="23" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A23" t="s">
-        <v>126</v>
+        <v>67</v>
       </c>
       <c r="B23" s="1">
-        <v>3292</v>
+        <v>3290</v>
       </c>
     </row>
     <row r="24" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A24" t="s">
-        <v>128</v>
+        <v>69</v>
       </c>
       <c r="B24" s="1">
-        <v>3648</v>
+        <v>3574</v>
       </c>
     </row>
     <row r="25" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A25" t="s">
-        <v>130</v>
+        <v>70</v>
       </c>
       <c r="B25" s="1">
-        <v>3590</v>
+        <v>3486</v>
       </c>
     </row>
     <row r="26" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A26" t="s">
-        <v>131</v>
+        <v>71</v>
       </c>
       <c r="B26" s="1">
-        <v>3269</v>
+        <v>3148</v>
       </c>
     </row>
     <row r="27" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A27" t="s">
-        <v>132</v>
+        <v>72</v>
       </c>
       <c r="B27" s="1">
-        <v>3471</v>
+        <v>3444</v>
       </c>
     </row>
     <row r="28" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A28" t="s">
-        <v>133</v>
+        <v>73</v>
       </c>
       <c r="B28" s="1">
-        <v>3681</v>
+        <v>3648</v>
       </c>
     </row>
     <row r="29" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A29" t="s">
-        <v>135</v>
+        <v>75</v>
       </c>
       <c r="B29" s="1">
-        <v>3642</v>
+        <v>3599</v>
       </c>
     </row>
     <row r="30" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A30" t="s">
-        <v>136</v>
+        <v>76</v>
       </c>
       <c r="B30" s="1">
-        <v>3009</v>
+        <v>2998</v>
       </c>
     </row>
     <row r="31" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A31" t="s">
-        <v>138</v>
+        <v>78</v>
       </c>
       <c r="B31" s="1">
-        <v>3190</v>
+        <v>2989</v>
       </c>
     </row>
     <row r="32" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A32" t="s">
-        <v>140</v>
+        <v>80</v>
       </c>
       <c r="B32" s="1">
-        <v>3418</v>
+        <v>3243</v>
       </c>
     </row>
     <row r="33" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A33" t="s">
-        <v>141</v>
+        <v>81</v>
       </c>
       <c r="B33" s="1">
-        <v>3188</v>
+        <v>2857</v>
       </c>
     </row>
     <row r="34" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A34" t="s">
-        <v>143</v>
+        <v>82</v>
       </c>
       <c r="B34" s="1">
-        <v>3462</v>
+        <v>3092</v>
       </c>
     </row>
     <row r="35" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A35" t="s">
-        <v>144</v>
+        <v>83</v>
       </c>
       <c r="B35" s="1">
-        <v>3430</v>
+        <v>3334</v>
       </c>
     </row>
     <row r="36" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A36" t="s">
-        <v>145</v>
+        <v>84</v>
       </c>
       <c r="B36" s="1">
-        <v>3253</v>
+        <v>2915</v>
       </c>
     </row>
     <row r="37" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A37" t="s">
-        <v>146</v>
+        <v>85</v>
       </c>
       <c r="B37" s="1">
-        <v>3292</v>
+        <v>3075</v>
       </c>
     </row>
     <row r="38" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A38" t="s">
-        <v>148</v>
+        <v>86</v>
       </c>
       <c r="B38" s="1">
-        <v>3108</v>
+        <v>3068</v>
       </c>
     </row>
     <row r="39" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A39" t="s">
-        <v>150</v>
+        <v>88</v>
       </c>
       <c r="B39" s="1">
         <v>1000</v>
@@ -3395,7 +3398,7 @@
     </row>
     <row r="40" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A40" t="s">
-        <v>151</v>
+        <v>89</v>
       </c>
       <c r="B40" s="1">
         <v>2371</v>
@@ -3403,7 +3406,7 @@
     </row>
     <row r="41" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A41" t="s">
-        <v>153</v>
+        <v>90</v>
       </c>
       <c r="B41" s="1">
         <v>2382</v>
@@ -3411,7 +3414,7 @@
     </row>
     <row r="42" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A42" t="s">
-        <v>154</v>
+        <v>91</v>
       </c>
       <c r="B42" s="1">
         <v>2326</v>
@@ -3419,7 +3422,7 @@
     </row>
     <row r="43" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A43" t="s">
-        <v>155</v>
+        <v>92</v>
       </c>
       <c r="B43" s="1">
         <v>2396</v>
@@ -3427,7 +3430,7 @@
     </row>
     <row r="44" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A44" t="s">
-        <v>157</v>
+        <v>93</v>
       </c>
       <c r="B44" s="1">
         <v>2350</v>
@@ -3435,7 +3438,7 @@
     </row>
     <row r="45" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A45" t="s">
-        <v>159</v>
+        <v>94</v>
       </c>
       <c r="B45" s="1">
         <v>2479</v>

--- a/target/smartpls.xlsx
+++ b/target/smartpls.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="29530"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="29628"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\www\tesis\target\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E4D0D10B-5594-43FF-A2D1-020AD78BC405}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4F389773-2936-4B90-AD71-FA742C4BF8CF}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="1950" yWindow="1950" windowWidth="21600" windowHeight="11295" activeTab="4" xr2:uid="{A045F930-4DC8-43A3-823B-36ED7A8AB670}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" activeTab="4" xr2:uid="{A045F930-4DC8-43A3-823B-36ED7A8AB670}"/>
   </bookViews>
   <sheets>
     <sheet name="flc" sheetId="1" r:id="rId1"/>
@@ -34,7 +34,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="427" uniqueCount="299">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="407" uniqueCount="293">
   <si>
     <t>BK (X3)</t>
   </si>
@@ -60,54 +60,9 @@
     <t>WB &gt; D &gt; PK</t>
   </si>
   <si>
-    <t>0.876</t>
-  </si>
-  <si>
-    <t>-0.035</t>
-  </si>
-  <si>
-    <t>0.037</t>
-  </si>
-  <si>
-    <t>0.085</t>
-  </si>
-  <si>
-    <t>0.870</t>
-  </si>
-  <si>
-    <t>-0.042</t>
-  </si>
-  <si>
-    <t>0.077</t>
-  </si>
-  <si>
-    <t>0.872</t>
-  </si>
-  <si>
-    <t>0.007</t>
-  </si>
-  <si>
-    <t>-0.011</t>
-  </si>
-  <si>
-    <t>0.031</t>
-  </si>
-  <si>
-    <t>0.045</t>
-  </si>
-  <si>
-    <t>0.055</t>
-  </si>
-  <si>
     <t>0.044</t>
   </si>
   <si>
-    <t>0.075</t>
-  </si>
-  <si>
-    <t>0.065</t>
-  </si>
-  <si>
     <t>Cronbach's Alpha</t>
   </si>
   <si>
@@ -123,24 +78,9 @@
     <t>0.939</t>
   </si>
   <si>
-    <t>0.967</t>
-  </si>
-  <si>
-    <t>0.964</t>
-  </si>
-  <si>
-    <t>0.761</t>
-  </si>
-  <si>
     <t>0.915</t>
   </si>
   <si>
-    <t>0.933</t>
-  </si>
-  <si>
-    <t>0.700</t>
-  </si>
-  <si>
     <t>BK (X3) * D (Z)</t>
   </si>
   <si>
@@ -156,93 +96,42 @@
     <t>BK4</t>
   </si>
   <si>
-    <t>0.882</t>
-  </si>
-  <si>
     <t>BK5</t>
   </si>
   <si>
-    <t>0.851</t>
-  </si>
-  <si>
     <t>BK6</t>
   </si>
   <si>
     <t>D1</t>
   </si>
   <si>
-    <t>0.838</t>
-  </si>
-  <si>
-    <t>D10</t>
-  </si>
-  <si>
-    <t>0.840</t>
-  </si>
-  <si>
-    <t>D11</t>
-  </si>
-  <si>
     <t>D2</t>
   </si>
   <si>
     <t>D3</t>
   </si>
   <si>
-    <t>0.864</t>
-  </si>
-  <si>
     <t>D4</t>
   </si>
   <si>
-    <t>0.865</t>
-  </si>
-  <si>
     <t>D5</t>
   </si>
   <si>
-    <t>0.874</t>
-  </si>
-  <si>
     <t>D6</t>
   </si>
   <si>
     <t>D7</t>
   </si>
   <si>
-    <t>0.849</t>
-  </si>
-  <si>
-    <t>D8</t>
-  </si>
-  <si>
-    <t>D9</t>
-  </si>
-  <si>
-    <t>0.842</t>
-  </si>
-  <si>
     <t>P (X1) * D (Z)</t>
   </si>
   <si>
     <t>P1</t>
   </si>
   <si>
-    <t>0.834</t>
-  </si>
-  <si>
-    <t>P10</t>
-  </si>
-  <si>
-    <t>0.880</t>
-  </si>
-  <si>
     <t>P2</t>
   </si>
   <si>
-    <t>0.878</t>
-  </si>
-  <si>
     <t>P3</t>
   </si>
   <si>
@@ -258,24 +147,15 @@
     <t>P7</t>
   </si>
   <si>
-    <t>0.875</t>
-  </si>
-  <si>
     <t>P8</t>
   </si>
   <si>
     <t>P9</t>
   </si>
   <si>
-    <t>0.844</t>
-  </si>
-  <si>
     <t>PK1</t>
   </si>
   <si>
-    <t>0.868</t>
-  </si>
-  <si>
     <t>PK2</t>
   </si>
   <si>
@@ -297,9 +177,6 @@
     <t>PK8</t>
   </si>
   <si>
-    <t>0.863</t>
-  </si>
-  <si>
     <t>WB (X2) * D (Z)</t>
   </si>
   <si>
@@ -315,12 +192,6 @@
     <t>WB4</t>
   </si>
   <si>
-    <t>WB5</t>
-  </si>
-  <si>
-    <t>WB6</t>
-  </si>
-  <si>
     <t>Original Sample (O)</t>
   </si>
   <si>
@@ -345,30 +216,18 @@
     <t>BK &gt; D &gt; PK -&gt; PK (Y)</t>
   </si>
   <si>
-    <t>0.036</t>
-  </si>
-  <si>
     <t>D (Z) -&gt; PK (Y)</t>
   </si>
   <si>
-    <t>0.033</t>
-  </si>
-  <si>
     <t>P (X1) -&gt; PK (Y)</t>
   </si>
   <si>
-    <t>0.088</t>
-  </si>
-  <si>
     <t>P &gt; D &gt; PK -&gt; PK (Y)</t>
   </si>
   <si>
     <t>WB (X2) -&gt; PK (Y)</t>
   </si>
   <si>
-    <t>0.034</t>
-  </si>
-  <si>
     <t>WB &gt; D &gt; PK -&gt; PK (Y)</t>
   </si>
   <si>
@@ -681,256 +540,379 @@
     <t>Spesialis ICT, Teknologi digital, Produktivitas, Total faktor produktivitas, (Labor share) Kompensasi</t>
   </si>
   <si>
-    <t>0.937</t>
-  </si>
-  <si>
-    <t>0.950</t>
-  </si>
-  <si>
-    <t>0.960</t>
-  </si>
-  <si>
-    <t>0.965</t>
-  </si>
-  <si>
     <t>0.712</t>
   </si>
   <si>
-    <t>0.981</t>
-  </si>
-  <si>
-    <t>0.968</t>
-  </si>
-  <si>
-    <t>0.753</t>
-  </si>
-  <si>
-    <t>0.951</t>
-  </si>
-  <si>
-    <t>0.958</t>
-  </si>
-  <si>
-    <t>0.743</t>
-  </si>
-  <si>
     <t>0.930</t>
   </si>
   <si>
-    <t>-0.068</t>
-  </si>
-  <si>
-    <t>-0.032</t>
-  </si>
-  <si>
-    <t>0.030</t>
-  </si>
-  <si>
-    <t>0.084</t>
-  </si>
-  <si>
-    <t>-0.046</t>
-  </si>
-  <si>
-    <t>-0.080</t>
-  </si>
-  <si>
-    <t>-0.090</t>
-  </si>
-  <si>
-    <t>0.681</t>
-  </si>
-  <si>
-    <t>0.148</t>
-  </si>
-  <si>
-    <t>0.125</t>
-  </si>
-  <si>
-    <t>-0.066</t>
-  </si>
-  <si>
-    <t>0.862</t>
-  </si>
-  <si>
     <t>-0.015</t>
   </si>
   <si>
-    <t>0.063</t>
-  </si>
-  <si>
-    <t>0.163</t>
-  </si>
-  <si>
-    <t>0.837</t>
-  </si>
-  <si>
-    <t>0.054</t>
-  </si>
-  <si>
-    <t>-0.083</t>
-  </si>
-  <si>
-    <t>0.081</t>
-  </si>
-  <si>
-    <t>0.016</t>
-  </si>
-  <si>
-    <t>-0.012</t>
-  </si>
-  <si>
-    <t>0.450</t>
-  </si>
-  <si>
-    <t>0.932</t>
-  </si>
-  <si>
     <t>0.070</t>
   </si>
   <si>
-    <t>0.047</t>
-  </si>
-  <si>
     <t>0.087</t>
   </si>
   <si>
-    <t>0.720</t>
-  </si>
-  <si>
-    <t>0.028</t>
-  </si>
-  <si>
-    <t>0.149</t>
-  </si>
-  <si>
-    <t>0.123</t>
-  </si>
-  <si>
-    <t>0.067</t>
-  </si>
-  <si>
-    <t>0.014</t>
-  </si>
-  <si>
-    <t>0.169</t>
-  </si>
-  <si>
-    <t>0.021</t>
-  </si>
-  <si>
-    <t>0.026</t>
-  </si>
-  <si>
-    <t>0.521</t>
-  </si>
-  <si>
-    <t>0.511</t>
-  </si>
-  <si>
-    <t>0.859</t>
-  </si>
-  <si>
-    <t>0.867</t>
-  </si>
-  <si>
-    <t>0.911</t>
-  </si>
-  <si>
     <t>0.887</t>
   </si>
   <si>
-    <t>0.853</t>
-  </si>
-  <si>
     <t>0.799</t>
   </si>
   <si>
     <t>0.835</t>
   </si>
   <si>
-    <t>0.833</t>
-  </si>
-  <si>
-    <t>0.883</t>
-  </si>
-  <si>
-    <t>0.861</t>
-  </si>
-  <si>
-    <t>0.871</t>
-  </si>
-  <si>
-    <t>0.846</t>
-  </si>
-  <si>
-    <t>0.858</t>
-  </si>
-  <si>
     <t>0.843</t>
   </si>
   <si>
     <t>0.815</t>
   </si>
   <si>
-    <t>0.845</t>
-  </si>
-  <si>
-    <t>0.827</t>
-  </si>
-  <si>
-    <t>0.824</t>
-  </si>
-  <si>
-    <t>0.381</t>
-  </si>
-  <si>
-    <t>0.680</t>
-  </si>
-  <si>
-    <t>0.678</t>
-  </si>
-  <si>
-    <t>0.102</t>
-  </si>
-  <si>
-    <t>0.166</t>
-  </si>
-  <si>
     <t>0.171</t>
   </si>
   <si>
-    <t>0.032</t>
-  </si>
-  <si>
-    <t>0.015</t>
-  </si>
-  <si>
-    <t>-0.028</t>
-  </si>
-  <si>
-    <t>-0.027</t>
-  </si>
-  <si>
     <t>0.040</t>
   </si>
   <si>
-    <t>0.693</t>
-  </si>
-  <si>
     <t>0.244</t>
   </si>
   <si>
-    <t>0.131</t>
-  </si>
-  <si>
-    <t>0.023</t>
-  </si>
-  <si>
     <t>0.759</t>
   </si>
   <si>
-    <t>0.224</t>
+    <t>0.574</t>
+  </si>
+  <si>
+    <t>-0.074</t>
+  </si>
+  <si>
+    <t>0.046</t>
+  </si>
+  <si>
+    <t>0.041</t>
+  </si>
+  <si>
+    <t>0.080</t>
+  </si>
+  <si>
+    <t>-0.009</t>
+  </si>
+  <si>
+    <t>0.062</t>
+  </si>
+  <si>
+    <t>0.096</t>
+  </si>
+  <si>
+    <t>0.004</t>
+  </si>
+  <si>
+    <t>0.006</t>
+  </si>
+  <si>
+    <t>0.098</t>
+  </si>
+  <si>
+    <t>0.039</t>
+  </si>
+  <si>
+    <t>0.095</t>
+  </si>
+  <si>
+    <t>0.101</t>
+  </si>
+  <si>
+    <t>0.577</t>
+  </si>
+  <si>
+    <t>0.249</t>
+  </si>
+  <si>
+    <t>0.042</t>
+  </si>
+  <si>
+    <t>0.092</t>
+  </si>
+  <si>
+    <t>0.025</t>
+  </si>
+  <si>
+    <t>0.059</t>
+  </si>
+  <si>
+    <t>0.152</t>
+  </si>
+  <si>
+    <t>0.439</t>
+  </si>
+  <si>
+    <t>0.103</t>
+  </si>
+  <si>
+    <t>0.056</t>
+  </si>
+  <si>
+    <t>0.043</t>
+  </si>
+  <si>
+    <t>0.460</t>
+  </si>
+  <si>
+    <t>0.904</t>
+  </si>
+  <si>
+    <t>0.907</t>
+  </si>
+  <si>
+    <t>0.926</t>
+  </si>
+  <si>
+    <t>0.675</t>
+  </si>
+  <si>
+    <t>0.905</t>
+  </si>
+  <si>
+    <t>0.914</t>
+  </si>
+  <si>
+    <t>0.924</t>
+  </si>
+  <si>
+    <t>0.636</t>
+  </si>
+  <si>
+    <t>0.943</t>
+  </si>
+  <si>
+    <t>0.936</t>
+  </si>
+  <si>
+    <t>0.618</t>
+  </si>
+  <si>
+    <t>0.626</t>
+  </si>
+  <si>
+    <t>0.992</t>
+  </si>
+  <si>
+    <t>0.664</t>
+  </si>
+  <si>
+    <t>0.811</t>
+  </si>
+  <si>
+    <t>0.814</t>
+  </si>
+  <si>
+    <t>0.866</t>
+  </si>
+  <si>
+    <t>0.841</t>
+  </si>
+  <si>
+    <t>0.774</t>
+  </si>
+  <si>
+    <t>0.823</t>
+  </si>
+  <si>
+    <t>0.790</t>
+  </si>
+  <si>
+    <t>0.805</t>
+  </si>
+  <si>
+    <t>0.796</t>
+  </si>
+  <si>
+    <t>0.779</t>
+  </si>
+  <si>
+    <t>0.812</t>
+  </si>
+  <si>
+    <t>0.768</t>
+  </si>
+  <si>
+    <t>0.831</t>
+  </si>
+  <si>
+    <t>0.817</t>
+  </si>
+  <si>
+    <t>0.776</t>
+  </si>
+  <si>
+    <t>0.760</t>
+  </si>
+  <si>
+    <t>0.818</t>
+  </si>
+  <si>
+    <t>0.795</t>
+  </si>
+  <si>
+    <t>0.800</t>
+  </si>
+  <si>
+    <t>0.782</t>
+  </si>
+  <si>
+    <t>0.744</t>
+  </si>
+  <si>
+    <t>0.808</t>
+  </si>
+  <si>
+    <t>0.763</t>
+  </si>
+  <si>
+    <t>0.998</t>
+  </si>
+  <si>
+    <t>0.806</t>
+  </si>
+  <si>
+    <t>0.757</t>
+  </si>
+  <si>
+    <t>0.793</t>
+  </si>
+  <si>
+    <t>0.896</t>
+  </si>
+  <si>
+    <t>0.822</t>
+  </si>
+  <si>
+    <t>-0.112</t>
+  </si>
+  <si>
+    <t>-0.067</t>
+  </si>
+  <si>
+    <t>0.001</t>
+  </si>
+  <si>
+    <t>0.797</t>
+  </si>
+  <si>
+    <t>-0.095</t>
+  </si>
+  <si>
+    <t>0.786</t>
+  </si>
+  <si>
+    <t>-0.106</t>
+  </si>
+  <si>
+    <t>0.222</t>
+  </si>
+  <si>
+    <t>-0.169</t>
+  </si>
+  <si>
+    <t>-0.111</t>
+  </si>
+  <si>
+    <t>0.578</t>
+  </si>
+  <si>
+    <t>-0.144</t>
+  </si>
+  <si>
+    <t>0.200</t>
+  </si>
+  <si>
+    <t>-0.123</t>
+  </si>
+  <si>
+    <t>0.791</t>
+  </si>
+  <si>
+    <t>0.050</t>
+  </si>
+  <si>
+    <t>-0.143</t>
+  </si>
+  <si>
+    <t>0.091</t>
+  </si>
+  <si>
+    <t>0.114</t>
+  </si>
+  <si>
+    <t>0.097</t>
+  </si>
+  <si>
+    <t>-0.014</t>
+  </si>
+  <si>
+    <t>-0.051</t>
+  </si>
+  <si>
+    <t>0.089</t>
+  </si>
+  <si>
+    <t>0.116</t>
+  </si>
+  <si>
+    <t>0.094</t>
+  </si>
+  <si>
+    <t>0.035</t>
+  </si>
+  <si>
+    <t>0.100</t>
+  </si>
+  <si>
+    <t>0.112</t>
+  </si>
+  <si>
+    <t>0.176</t>
+  </si>
+  <si>
+    <t>0.631</t>
+  </si>
+  <si>
+    <t>0.151</t>
+  </si>
+  <si>
+    <t>0.215</t>
+  </si>
+  <si>
+    <t>0.127</t>
+  </si>
+  <si>
+    <t>0.074</t>
+  </si>
+  <si>
+    <t>0.193</t>
+  </si>
+  <si>
+    <t>0.118</t>
+  </si>
+  <si>
+    <t>0.106</t>
+  </si>
+  <si>
+    <t>0.414</t>
+  </si>
+  <si>
+    <t>0.400</t>
+  </si>
+  <si>
+    <t>0.251</t>
+  </si>
+  <si>
+    <t>0.052</t>
+  </si>
+  <si>
+    <t>0.741</t>
   </si>
 </sst>
 </file>
@@ -1289,7 +1271,7 @@
   <dimension ref="A1:I9"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection sqref="A1:I9"/>
+      <selection activeCell="S17" sqref="S17"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1328,7 +1310,7 @@
         <v>0</v>
       </c>
       <c r="B2" t="s">
-        <v>15</v>
+        <v>250</v>
       </c>
     </row>
     <row r="3" spans="1:9" x14ac:dyDescent="0.25">
@@ -1336,7 +1318,7 @@
         <v>1</v>
       </c>
       <c r="B3" t="s">
-        <v>227</v>
+        <v>251</v>
       </c>
       <c r="C3" s="1">
         <v>1000</v>
@@ -1347,13 +1329,13 @@
         <v>2</v>
       </c>
       <c r="B4" t="s">
-        <v>228</v>
+        <v>252</v>
       </c>
       <c r="C4" t="s">
-        <v>9</v>
+        <v>253</v>
       </c>
       <c r="D4" t="s">
-        <v>77</v>
+        <v>254</v>
       </c>
     </row>
     <row r="5" spans="1:9" x14ac:dyDescent="0.25">
@@ -1361,16 +1343,16 @@
         <v>3</v>
       </c>
       <c r="B5" t="s">
-        <v>229</v>
+        <v>172</v>
       </c>
       <c r="C5" t="s">
-        <v>13</v>
+        <v>255</v>
       </c>
       <c r="D5" t="s">
-        <v>230</v>
+        <v>192</v>
       </c>
       <c r="E5" t="s">
-        <v>79</v>
+        <v>256</v>
       </c>
     </row>
     <row r="6" spans="1:9" x14ac:dyDescent="0.25">
@@ -1378,16 +1360,16 @@
         <v>4</v>
       </c>
       <c r="B6" t="s">
-        <v>231</v>
+        <v>257</v>
       </c>
       <c r="C6" t="s">
-        <v>22</v>
+        <v>258</v>
       </c>
       <c r="D6" t="s">
-        <v>232</v>
+        <v>259</v>
       </c>
       <c r="E6" t="s">
-        <v>233</v>
+        <v>260</v>
       </c>
       <c r="F6" s="1">
         <v>1000</v>
@@ -1398,22 +1380,22 @@
         <v>5</v>
       </c>
       <c r="B7" t="s">
-        <v>234</v>
+        <v>261</v>
       </c>
       <c r="C7" t="s">
-        <v>17</v>
+        <v>262</v>
       </c>
       <c r="D7" t="s">
-        <v>235</v>
+        <v>263</v>
       </c>
       <c r="E7" t="s">
-        <v>236</v>
+        <v>178</v>
       </c>
       <c r="F7" t="s">
-        <v>237</v>
+        <v>264</v>
       </c>
       <c r="G7" t="s">
-        <v>238</v>
+        <v>265</v>
       </c>
     </row>
     <row r="8" spans="1:9" x14ac:dyDescent="0.25">
@@ -1421,25 +1403,25 @@
         <v>6</v>
       </c>
       <c r="B8" t="s">
-        <v>19</v>
+        <v>266</v>
       </c>
       <c r="C8" t="s">
-        <v>16</v>
+        <v>170</v>
       </c>
       <c r="D8" t="s">
-        <v>239</v>
+        <v>267</v>
       </c>
       <c r="E8" t="s">
-        <v>240</v>
+        <v>268</v>
       </c>
       <c r="F8" t="s">
-        <v>10</v>
+        <v>269</v>
       </c>
       <c r="G8" t="s">
-        <v>241</v>
+        <v>270</v>
       </c>
       <c r="H8" t="s">
-        <v>242</v>
+        <v>177</v>
       </c>
     </row>
     <row r="9" spans="1:9" x14ac:dyDescent="0.25">
@@ -1447,25 +1429,25 @@
         <v>7</v>
       </c>
       <c r="B9" t="s">
-        <v>16</v>
+        <v>271</v>
       </c>
       <c r="C9" t="s">
-        <v>243</v>
+        <v>171</v>
       </c>
       <c r="D9" t="s">
-        <v>244</v>
+        <v>272</v>
       </c>
       <c r="E9" t="s">
-        <v>18</v>
+        <v>194</v>
       </c>
       <c r="F9" t="s">
-        <v>245</v>
+        <v>273</v>
       </c>
       <c r="G9" t="s">
-        <v>246</v>
+        <v>170</v>
       </c>
       <c r="H9" t="s">
-        <v>247</v>
+        <v>271</v>
       </c>
       <c r="I9" s="1">
         <v>1000</v>
@@ -1495,22 +1477,22 @@
   <sheetData>
     <row r="1" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
-        <v>125</v>
+        <v>78</v>
       </c>
       <c r="B1" s="2" t="s">
-        <v>126</v>
+        <v>79</v>
       </c>
       <c r="C1" t="s">
-        <v>127</v>
+        <v>80</v>
       </c>
       <c r="D1" s="2" t="s">
-        <v>128</v>
+        <v>81</v>
       </c>
       <c r="E1" s="2" t="s">
-        <v>129</v>
+        <v>82</v>
       </c>
       <c r="F1" s="2" t="s">
-        <v>130</v>
+        <v>83</v>
       </c>
     </row>
     <row r="2" spans="1:6" ht="120" x14ac:dyDescent="0.25">
@@ -1518,19 +1500,19 @@
         <v>1</v>
       </c>
       <c r="B2" s="2" t="s">
-        <v>131</v>
+        <v>84</v>
       </c>
       <c r="C2">
         <v>2024</v>
       </c>
       <c r="D2" s="2" t="s">
-        <v>132</v>
+        <v>85</v>
       </c>
       <c r="E2" s="2" t="s">
-        <v>133</v>
+        <v>86</v>
       </c>
       <c r="F2" s="2" t="s">
-        <v>134</v>
+        <v>87</v>
       </c>
     </row>
     <row r="3" spans="1:6" ht="75" x14ac:dyDescent="0.25">
@@ -1538,19 +1520,19 @@
         <v>2</v>
       </c>
       <c r="B3" s="2" t="s">
-        <v>135</v>
+        <v>88</v>
       </c>
       <c r="C3">
         <v>2021</v>
       </c>
       <c r="D3" s="2" t="s">
-        <v>136</v>
+        <v>89</v>
       </c>
       <c r="E3" s="2" t="s">
-        <v>137</v>
+        <v>90</v>
       </c>
       <c r="F3" s="2" t="s">
-        <v>138</v>
+        <v>91</v>
       </c>
     </row>
     <row r="4" spans="1:6" ht="255" x14ac:dyDescent="0.25">
@@ -1558,19 +1540,19 @@
         <v>3</v>
       </c>
       <c r="B4" s="2" t="s">
-        <v>139</v>
+        <v>92</v>
       </c>
       <c r="C4">
         <v>2023</v>
       </c>
       <c r="D4" s="2" t="s">
-        <v>140</v>
+        <v>93</v>
       </c>
       <c r="E4" s="2" t="s">
-        <v>141</v>
+        <v>94</v>
       </c>
       <c r="F4" s="2" t="s">
-        <v>142</v>
+        <v>95</v>
       </c>
     </row>
     <row r="5" spans="1:6" ht="180" x14ac:dyDescent="0.25">
@@ -1578,19 +1560,19 @@
         <v>4</v>
       </c>
       <c r="B5" s="2" t="s">
-        <v>143</v>
+        <v>96</v>
       </c>
       <c r="C5">
         <v>2024</v>
       </c>
       <c r="D5" s="2" t="s">
-        <v>194</v>
+        <v>147</v>
       </c>
       <c r="E5" s="2" t="s">
-        <v>144</v>
+        <v>97</v>
       </c>
       <c r="F5" s="2" t="s">
-        <v>145</v>
+        <v>98</v>
       </c>
     </row>
     <row r="6" spans="1:6" ht="240" x14ac:dyDescent="0.25">
@@ -1598,19 +1580,19 @@
         <v>5</v>
       </c>
       <c r="B6" s="2" t="s">
-        <v>146</v>
+        <v>99</v>
       </c>
       <c r="C6">
         <v>2023</v>
       </c>
       <c r="D6" s="2" t="s">
-        <v>147</v>
+        <v>100</v>
       </c>
       <c r="E6" s="2" t="s">
-        <v>148</v>
+        <v>101</v>
       </c>
       <c r="F6" s="2" t="s">
-        <v>149</v>
+        <v>102</v>
       </c>
     </row>
     <row r="7" spans="1:6" ht="195" x14ac:dyDescent="0.25">
@@ -1618,19 +1600,19 @@
         <v>6</v>
       </c>
       <c r="B7" s="2" t="s">
-        <v>150</v>
+        <v>103</v>
       </c>
       <c r="C7">
         <v>2023</v>
       </c>
       <c r="D7" s="2" t="s">
-        <v>151</v>
+        <v>104</v>
       </c>
       <c r="E7" s="2" t="s">
-        <v>195</v>
+        <v>148</v>
       </c>
       <c r="F7" s="2" t="s">
-        <v>152</v>
+        <v>105</v>
       </c>
     </row>
     <row r="8" spans="1:6" ht="90" x14ac:dyDescent="0.25">
@@ -1638,19 +1620,19 @@
         <v>7</v>
       </c>
       <c r="B8" s="2" t="s">
-        <v>153</v>
+        <v>106</v>
       </c>
       <c r="C8">
         <v>2023</v>
       </c>
       <c r="D8" s="2" t="s">
-        <v>196</v>
+        <v>149</v>
       </c>
       <c r="E8" s="2" t="s">
-        <v>197</v>
+        <v>150</v>
       </c>
       <c r="F8" s="2" t="s">
-        <v>198</v>
+        <v>151</v>
       </c>
     </row>
     <row r="9" spans="1:6" ht="90" x14ac:dyDescent="0.25">
@@ -1658,19 +1640,19 @@
         <v>8</v>
       </c>
       <c r="B9" s="2" t="s">
-        <v>154</v>
+        <v>107</v>
       </c>
       <c r="C9">
         <v>2020</v>
       </c>
       <c r="D9" s="2" t="s">
-        <v>199</v>
+        <v>152</v>
       </c>
       <c r="E9" s="2" t="s">
-        <v>155</v>
+        <v>108</v>
       </c>
       <c r="F9" s="2" t="s">
-        <v>156</v>
+        <v>109</v>
       </c>
     </row>
     <row r="10" spans="1:6" ht="90" x14ac:dyDescent="0.25">
@@ -1678,19 +1660,19 @@
         <v>9</v>
       </c>
       <c r="B10" s="2" t="s">
-        <v>157</v>
+        <v>110</v>
       </c>
       <c r="C10">
         <v>2023</v>
       </c>
       <c r="D10" s="2" t="s">
-        <v>200</v>
+        <v>153</v>
       </c>
       <c r="E10" s="2" t="s">
-        <v>158</v>
+        <v>111</v>
       </c>
       <c r="F10" s="2" t="s">
-        <v>201</v>
+        <v>154</v>
       </c>
     </row>
     <row r="11" spans="1:6" ht="60" x14ac:dyDescent="0.25">
@@ -1698,19 +1680,19 @@
         <v>10</v>
       </c>
       <c r="B11" s="2" t="s">
-        <v>159</v>
+        <v>112</v>
       </c>
       <c r="C11">
         <v>2024</v>
       </c>
       <c r="D11" s="2" t="s">
-        <v>202</v>
+        <v>155</v>
       </c>
       <c r="E11" s="2" t="s">
-        <v>160</v>
+        <v>113</v>
       </c>
       <c r="F11" s="2" t="s">
-        <v>203</v>
+        <v>156</v>
       </c>
     </row>
     <row r="12" spans="1:6" ht="60" x14ac:dyDescent="0.25">
@@ -1718,19 +1700,19 @@
         <v>11</v>
       </c>
       <c r="B12" s="2" t="s">
-        <v>161</v>
+        <v>114</v>
       </c>
       <c r="C12">
         <v>2024</v>
       </c>
       <c r="D12" s="2" t="s">
-        <v>204</v>
+        <v>157</v>
       </c>
       <c r="E12" s="2" t="s">
-        <v>162</v>
+        <v>115</v>
       </c>
       <c r="F12" s="2" t="s">
-        <v>205</v>
+        <v>158</v>
       </c>
     </row>
     <row r="13" spans="1:6" ht="195" x14ac:dyDescent="0.25">
@@ -1738,19 +1720,19 @@
         <v>12</v>
       </c>
       <c r="B13" s="2" t="s">
-        <v>163</v>
+        <v>116</v>
       </c>
       <c r="C13">
         <v>2022</v>
       </c>
       <c r="D13" s="2" t="s">
-        <v>206</v>
+        <v>159</v>
       </c>
       <c r="E13" s="2" t="s">
-        <v>164</v>
+        <v>117</v>
       </c>
       <c r="F13" s="2" t="s">
-        <v>207</v>
+        <v>160</v>
       </c>
     </row>
     <row r="14" spans="1:6" ht="165" x14ac:dyDescent="0.25">
@@ -1758,19 +1740,19 @@
         <v>13</v>
       </c>
       <c r="B14" s="2" t="s">
-        <v>165</v>
+        <v>118</v>
       </c>
       <c r="C14">
         <v>2025</v>
       </c>
       <c r="D14" s="2" t="s">
-        <v>208</v>
+        <v>161</v>
       </c>
       <c r="E14" s="2" t="s">
-        <v>166</v>
+        <v>119</v>
       </c>
       <c r="F14" s="2" t="s">
-        <v>209</v>
+        <v>162</v>
       </c>
     </row>
     <row r="15" spans="1:6" ht="90" x14ac:dyDescent="0.25">
@@ -1778,19 +1760,19 @@
         <v>14</v>
       </c>
       <c r="B15" s="2" t="s">
-        <v>167</v>
+        <v>120</v>
       </c>
       <c r="C15">
         <v>2024</v>
       </c>
       <c r="D15" s="2" t="s">
-        <v>210</v>
+        <v>163</v>
       </c>
       <c r="E15" s="2" t="s">
-        <v>211</v>
+        <v>164</v>
       </c>
       <c r="F15" s="2" t="s">
-        <v>168</v>
+        <v>121</v>
       </c>
     </row>
     <row r="16" spans="1:6" ht="135" x14ac:dyDescent="0.25">
@@ -1798,19 +1780,19 @@
         <v>15</v>
       </c>
       <c r="B16" s="2" t="s">
-        <v>169</v>
+        <v>122</v>
       </c>
       <c r="C16">
         <v>2022</v>
       </c>
       <c r="D16" s="2" t="s">
-        <v>212</v>
+        <v>165</v>
       </c>
       <c r="E16" s="2" t="s">
-        <v>213</v>
+        <v>166</v>
       </c>
       <c r="F16" s="2" t="s">
-        <v>170</v>
+        <v>123</v>
       </c>
     </row>
     <row r="17" spans="1:6" ht="75" x14ac:dyDescent="0.25">
@@ -1818,19 +1800,19 @@
         <v>16</v>
       </c>
       <c r="B17" s="2" t="s">
-        <v>171</v>
+        <v>124</v>
       </c>
       <c r="C17">
         <v>2023</v>
       </c>
       <c r="D17" s="2" t="s">
-        <v>172</v>
+        <v>125</v>
       </c>
       <c r="E17" s="2" t="s">
-        <v>173</v>
+        <v>126</v>
       </c>
       <c r="F17" s="2" t="s">
-        <v>174</v>
+        <v>127</v>
       </c>
     </row>
     <row r="18" spans="1:6" ht="60" x14ac:dyDescent="0.25">
@@ -1838,19 +1820,19 @@
         <v>17</v>
       </c>
       <c r="B18" s="2" t="s">
-        <v>175</v>
+        <v>128</v>
       </c>
       <c r="C18">
         <v>2021</v>
       </c>
       <c r="D18" s="2" t="s">
-        <v>176</v>
+        <v>129</v>
       </c>
       <c r="E18" s="2" t="s">
-        <v>177</v>
+        <v>130</v>
       </c>
       <c r="F18" s="2" t="s">
-        <v>178</v>
+        <v>131</v>
       </c>
     </row>
     <row r="19" spans="1:6" ht="60" x14ac:dyDescent="0.25">
@@ -1858,19 +1840,19 @@
         <v>18</v>
       </c>
       <c r="B19" s="2" t="s">
-        <v>179</v>
+        <v>132</v>
       </c>
       <c r="C19">
         <v>2020</v>
       </c>
       <c r="D19" s="2" t="s">
-        <v>180</v>
+        <v>133</v>
       </c>
       <c r="E19" s="2" t="s">
-        <v>181</v>
+        <v>134</v>
       </c>
       <c r="F19" s="2" t="s">
-        <v>182</v>
+        <v>135</v>
       </c>
     </row>
     <row r="20" spans="1:6" ht="150" x14ac:dyDescent="0.25">
@@ -1878,19 +1860,19 @@
         <v>19</v>
       </c>
       <c r="B20" s="2" t="s">
-        <v>183</v>
+        <v>136</v>
       </c>
       <c r="C20">
         <v>2022</v>
       </c>
       <c r="D20" s="2" t="s">
-        <v>214</v>
+        <v>167</v>
       </c>
       <c r="E20" s="2" t="s">
-        <v>184</v>
+        <v>137</v>
       </c>
       <c r="F20" s="2" t="s">
-        <v>185</v>
+        <v>138</v>
       </c>
     </row>
     <row r="21" spans="1:6" ht="135" x14ac:dyDescent="0.25">
@@ -1898,19 +1880,19 @@
         <v>20</v>
       </c>
       <c r="B21" s="2" t="s">
-        <v>186</v>
+        <v>139</v>
       </c>
       <c r="C21">
         <v>2021</v>
       </c>
       <c r="D21" s="2" t="s">
-        <v>187</v>
+        <v>140</v>
       </c>
       <c r="E21" s="2" t="s">
-        <v>188</v>
+        <v>141</v>
       </c>
       <c r="F21" s="2" t="s">
-        <v>189</v>
+        <v>142</v>
       </c>
     </row>
     <row r="22" spans="1:6" ht="135" x14ac:dyDescent="0.25">
@@ -1918,19 +1900,19 @@
         <v>21</v>
       </c>
       <c r="B22" s="2" t="s">
-        <v>190</v>
+        <v>143</v>
       </c>
       <c r="C22">
         <v>2021</v>
       </c>
       <c r="D22" s="2" t="s">
-        <v>191</v>
+        <v>144</v>
       </c>
       <c r="E22" s="2" t="s">
-        <v>192</v>
+        <v>145</v>
       </c>
       <c r="F22" s="2" t="s">
-        <v>193</v>
+        <v>146</v>
       </c>
     </row>
   </sheetData>
@@ -1984,7 +1966,7 @@
         <v>1</v>
       </c>
       <c r="B3" t="s">
-        <v>250</v>
+        <v>274</v>
       </c>
     </row>
     <row r="4" spans="1:9" x14ac:dyDescent="0.25">
@@ -1992,10 +1974,10 @@
         <v>2</v>
       </c>
       <c r="B4" t="s">
-        <v>23</v>
+        <v>275</v>
       </c>
       <c r="C4" t="s">
-        <v>103</v>
+        <v>276</v>
       </c>
     </row>
     <row r="5" spans="1:9" x14ac:dyDescent="0.25">
@@ -2003,13 +1985,13 @@
         <v>3</v>
       </c>
       <c r="B5" t="s">
-        <v>103</v>
+        <v>277</v>
       </c>
       <c r="C5" t="s">
-        <v>21</v>
+        <v>199</v>
       </c>
       <c r="D5" t="s">
-        <v>107</v>
+        <v>278</v>
       </c>
     </row>
     <row r="6" spans="1:9" x14ac:dyDescent="0.25">
@@ -2017,16 +1999,16 @@
         <v>4</v>
       </c>
       <c r="B6" t="s">
-        <v>251</v>
+        <v>278</v>
       </c>
       <c r="C6" t="s">
-        <v>22</v>
+        <v>258</v>
       </c>
       <c r="D6" t="s">
-        <v>245</v>
+        <v>279</v>
       </c>
       <c r="E6" t="s">
-        <v>252</v>
+        <v>274</v>
       </c>
     </row>
     <row r="7" spans="1:9" x14ac:dyDescent="0.25">
@@ -2034,19 +2016,19 @@
         <v>5</v>
       </c>
       <c r="B7" t="s">
-        <v>253</v>
+        <v>280</v>
       </c>
       <c r="C7" t="s">
-        <v>254</v>
+        <v>281</v>
       </c>
       <c r="D7" t="s">
-        <v>255</v>
+        <v>282</v>
       </c>
       <c r="E7" t="s">
-        <v>256</v>
+        <v>279</v>
       </c>
       <c r="F7" t="s">
-        <v>257</v>
+        <v>283</v>
       </c>
     </row>
     <row r="8" spans="1:9" x14ac:dyDescent="0.25">
@@ -2054,22 +2036,22 @@
         <v>6</v>
       </c>
       <c r="B8" t="s">
-        <v>251</v>
+        <v>284</v>
       </c>
       <c r="C8" t="s">
-        <v>258</v>
+        <v>206</v>
       </c>
       <c r="D8" t="s">
-        <v>20</v>
+        <v>285</v>
       </c>
       <c r="E8" t="s">
-        <v>14</v>
+        <v>278</v>
       </c>
       <c r="F8" t="s">
-        <v>110</v>
+        <v>286</v>
       </c>
       <c r="G8" t="s">
-        <v>259</v>
+        <v>287</v>
       </c>
     </row>
     <row r="9" spans="1:9" x14ac:dyDescent="0.25">
@@ -2077,25 +2059,25 @@
         <v>7</v>
       </c>
       <c r="B9" t="s">
-        <v>260</v>
+        <v>193</v>
       </c>
       <c r="C9" t="s">
-        <v>243</v>
+        <v>171</v>
       </c>
       <c r="D9" t="s">
-        <v>11</v>
+        <v>201</v>
       </c>
       <c r="E9" t="s">
-        <v>18</v>
+        <v>277</v>
       </c>
       <c r="F9" t="s">
-        <v>245</v>
+        <v>273</v>
       </c>
       <c r="G9" t="s">
-        <v>261</v>
+        <v>179</v>
       </c>
       <c r="H9" t="s">
-        <v>21</v>
+        <v>188</v>
       </c>
     </row>
   </sheetData>
@@ -2122,16 +2104,16 @@
   <sheetData>
     <row r="1" spans="1:5" x14ac:dyDescent="0.25">
       <c r="B1" t="s">
-        <v>24</v>
+        <v>9</v>
       </c>
       <c r="C1" t="s">
-        <v>25</v>
+        <v>10</v>
       </c>
       <c r="D1" t="s">
-        <v>26</v>
+        <v>11</v>
       </c>
       <c r="E1" t="s">
-        <v>27</v>
+        <v>12</v>
       </c>
     </row>
     <row r="2" spans="1:5" x14ac:dyDescent="0.25">
@@ -2139,16 +2121,16 @@
         <v>0</v>
       </c>
       <c r="B2" t="s">
-        <v>215</v>
+        <v>208</v>
       </c>
       <c r="C2" t="s">
-        <v>28</v>
+        <v>209</v>
       </c>
       <c r="D2" t="s">
-        <v>216</v>
+        <v>210</v>
       </c>
       <c r="E2" t="s">
-        <v>31</v>
+        <v>211</v>
       </c>
     </row>
     <row r="3" spans="1:5" x14ac:dyDescent="0.25">
@@ -2173,16 +2155,16 @@
         <v>2</v>
       </c>
       <c r="B4" t="s">
-        <v>217</v>
+        <v>212</v>
       </c>
       <c r="C4" t="s">
-        <v>29</v>
+        <v>213</v>
       </c>
       <c r="D4" t="s">
-        <v>218</v>
+        <v>214</v>
       </c>
       <c r="E4" t="s">
-        <v>219</v>
+        <v>215</v>
       </c>
     </row>
     <row r="5" spans="1:5" x14ac:dyDescent="0.25">
@@ -2190,16 +2172,16 @@
         <v>3</v>
       </c>
       <c r="B5" t="s">
-        <v>30</v>
+        <v>214</v>
       </c>
       <c r="C5" t="s">
-        <v>220</v>
+        <v>216</v>
       </c>
       <c r="D5" t="s">
-        <v>221</v>
+        <v>217</v>
       </c>
       <c r="E5" t="s">
-        <v>222</v>
+        <v>218</v>
       </c>
     </row>
     <row r="6" spans="1:5" x14ac:dyDescent="0.25">
@@ -2224,16 +2206,16 @@
         <v>5</v>
       </c>
       <c r="B7" t="s">
-        <v>216</v>
+        <v>213</v>
       </c>
       <c r="C7" t="s">
-        <v>223</v>
+        <v>14</v>
       </c>
       <c r="D7" t="s">
-        <v>224</v>
+        <v>169</v>
       </c>
       <c r="E7" t="s">
-        <v>225</v>
+        <v>219</v>
       </c>
     </row>
     <row r="8" spans="1:5" x14ac:dyDescent="0.25">
@@ -2241,16 +2223,16 @@
         <v>6</v>
       </c>
       <c r="B8" t="s">
-        <v>32</v>
+        <v>176</v>
       </c>
       <c r="C8" t="s">
-        <v>226</v>
+        <v>220</v>
       </c>
       <c r="D8" t="s">
-        <v>33</v>
+        <v>173</v>
       </c>
       <c r="E8" t="s">
-        <v>34</v>
+        <v>221</v>
       </c>
     </row>
     <row r="9" spans="1:5" x14ac:dyDescent="0.25">
@@ -2277,10 +2259,10 @@
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{02CF344E-BB11-4CB3-9A36-5269510EDA15}">
-  <dimension ref="A1:I45"/>
+  <dimension ref="A1:I39"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection sqref="A1:I45"/>
+      <selection activeCell="I18" sqref="I18"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -2313,355 +2295,302 @@
     </row>
     <row r="2" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
-        <v>35</v>
+        <v>15</v>
       </c>
       <c r="C2" t="s">
-        <v>215</v>
+        <v>13</v>
       </c>
     </row>
     <row r="3" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
-        <v>36</v>
+        <v>16</v>
       </c>
       <c r="B3" t="s">
-        <v>264</v>
+        <v>222</v>
       </c>
     </row>
     <row r="4" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
-        <v>37</v>
+        <v>17</v>
       </c>
       <c r="B4" t="s">
-        <v>265</v>
+        <v>223</v>
       </c>
     </row>
     <row r="5" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
-        <v>38</v>
+        <v>18</v>
       </c>
       <c r="B5" t="s">
-        <v>266</v>
+        <v>224</v>
       </c>
     </row>
     <row r="6" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
-        <v>39</v>
+        <v>19</v>
       </c>
       <c r="B6" t="s">
-        <v>55</v>
+        <v>225</v>
       </c>
     </row>
     <row r="7" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
-        <v>41</v>
+        <v>20</v>
       </c>
       <c r="B7" t="s">
-        <v>77</v>
+        <v>226</v>
       </c>
     </row>
     <row r="8" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
-        <v>43</v>
+        <v>21</v>
       </c>
       <c r="B8" t="s">
-        <v>68</v>
+        <v>227</v>
       </c>
     </row>
     <row r="9" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
-        <v>44</v>
+        <v>22</v>
       </c>
       <c r="D9" t="s">
-        <v>64</v>
+        <v>228</v>
       </c>
     </row>
     <row r="10" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A10" t="s">
-        <v>46</v>
+        <v>23</v>
       </c>
       <c r="D10" t="s">
-        <v>45</v>
+        <v>229</v>
       </c>
     </row>
     <row r="11" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A11" t="s">
-        <v>48</v>
+        <v>24</v>
       </c>
       <c r="D11" t="s">
-        <v>267</v>
+        <v>230</v>
       </c>
     </row>
     <row r="12" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A12" t="s">
-        <v>49</v>
+        <v>25</v>
       </c>
       <c r="D12" t="s">
-        <v>77</v>
+        <v>231</v>
       </c>
     </row>
     <row r="13" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A13" t="s">
-        <v>50</v>
+        <v>26</v>
       </c>
       <c r="D13" t="s">
-        <v>58</v>
+        <v>232</v>
       </c>
     </row>
     <row r="14" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A14" t="s">
-        <v>52</v>
+        <v>27</v>
       </c>
       <c r="D14" t="s">
-        <v>268</v>
+        <v>233</v>
       </c>
     </row>
     <row r="15" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A15" t="s">
-        <v>54</v>
+        <v>28</v>
       </c>
       <c r="D15" t="s">
-        <v>264</v>
+        <v>234</v>
       </c>
     </row>
     <row r="16" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A16" t="s">
-        <v>56</v>
-      </c>
-      <c r="D16" t="s">
-        <v>269</v>
+        <v>29</v>
+      </c>
+      <c r="F16" t="s">
+        <v>175</v>
       </c>
     </row>
     <row r="17" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A17" t="s">
-        <v>57</v>
-      </c>
-      <c r="D17" t="s">
-        <v>270</v>
+        <v>30</v>
+      </c>
+      <c r="E17" t="s">
+        <v>235</v>
       </c>
     </row>
     <row r="18" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A18" t="s">
-        <v>59</v>
-      </c>
-      <c r="D18" t="s">
-        <v>47</v>
+        <v>31</v>
+      </c>
+      <c r="E18" t="s">
+        <v>227</v>
       </c>
     </row>
     <row r="19" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A19" t="s">
-        <v>60</v>
-      </c>
-      <c r="D19" t="s">
-        <v>61</v>
+        <v>32</v>
+      </c>
+      <c r="E19" t="s">
+        <v>236</v>
       </c>
     </row>
     <row r="20" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A20" t="s">
-        <v>62</v>
-      </c>
-      <c r="F20" t="s">
-        <v>42</v>
+        <v>33</v>
+      </c>
+      <c r="E20" t="s">
+        <v>168</v>
       </c>
     </row>
     <row r="21" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A21" t="s">
-        <v>63</v>
+        <v>34</v>
       </c>
       <c r="E21" t="s">
-        <v>271</v>
+        <v>174</v>
       </c>
     </row>
     <row r="22" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A22" t="s">
-        <v>65</v>
+        <v>35</v>
       </c>
       <c r="E22" t="s">
-        <v>66</v>
+        <v>237</v>
       </c>
     </row>
     <row r="23" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A23" t="s">
-        <v>67</v>
+        <v>36</v>
       </c>
       <c r="E23" t="s">
-        <v>40</v>
+        <v>229</v>
       </c>
     </row>
     <row r="24" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A24" t="s">
-        <v>69</v>
+        <v>37</v>
       </c>
       <c r="E24" t="s">
-        <v>272</v>
+        <v>181</v>
       </c>
     </row>
     <row r="25" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A25" t="s">
-        <v>70</v>
+        <v>38</v>
       </c>
       <c r="E25" t="s">
-        <v>15</v>
+        <v>238</v>
       </c>
     </row>
     <row r="26" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A26" t="s">
-        <v>71</v>
-      </c>
-      <c r="E26" t="s">
-        <v>273</v>
+        <v>39</v>
+      </c>
+      <c r="G26" t="s">
+        <v>239</v>
       </c>
     </row>
     <row r="27" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A27" t="s">
-        <v>72</v>
-      </c>
-      <c r="E27" t="s">
-        <v>8</v>
+        <v>40</v>
+      </c>
+      <c r="G27" t="s">
+        <v>238</v>
       </c>
     </row>
     <row r="28" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A28" t="s">
-        <v>73</v>
-      </c>
-      <c r="E28" t="s">
-        <v>74</v>
+        <v>41</v>
+      </c>
+      <c r="G28" t="s">
+        <v>240</v>
       </c>
     </row>
     <row r="29" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A29" t="s">
-        <v>75</v>
-      </c>
-      <c r="E29" t="s">
-        <v>274</v>
+        <v>42</v>
+      </c>
+      <c r="G29" t="s">
+        <v>241</v>
       </c>
     </row>
     <row r="30" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A30" t="s">
-        <v>76</v>
-      </c>
-      <c r="E30" t="s">
-        <v>275</v>
+        <v>43</v>
+      </c>
+      <c r="G30" t="s">
+        <v>223</v>
       </c>
     </row>
     <row r="31" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A31" t="s">
-        <v>78</v>
+        <v>44</v>
       </c>
       <c r="G31" t="s">
-        <v>276</v>
+        <v>242</v>
       </c>
     </row>
     <row r="32" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A32" t="s">
-        <v>80</v>
+        <v>45</v>
       </c>
       <c r="G32" t="s">
-        <v>12</v>
+        <v>243</v>
       </c>
     </row>
     <row r="33" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A33" t="s">
-        <v>81</v>
+        <v>46</v>
       </c>
       <c r="G33" t="s">
-        <v>277</v>
+        <v>244</v>
       </c>
     </row>
     <row r="34" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A34" t="s">
-        <v>82</v>
-      </c>
-      <c r="G34" t="s">
-        <v>53</v>
+        <v>47</v>
+      </c>
+      <c r="I34" t="s">
+        <v>245</v>
       </c>
     </row>
     <row r="35" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A35" t="s">
-        <v>83</v>
-      </c>
-      <c r="G35" t="s">
-        <v>68</v>
+        <v>48</v>
+      </c>
+      <c r="H35" t="s">
+        <v>246</v>
       </c>
     </row>
     <row r="36" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A36" t="s">
-        <v>84</v>
-      </c>
-      <c r="G36" t="s">
-        <v>268</v>
+        <v>49</v>
+      </c>
+      <c r="H36" t="s">
+        <v>247</v>
       </c>
     </row>
     <row r="37" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A37" t="s">
-        <v>85</v>
-      </c>
-      <c r="G37" t="s">
-        <v>51</v>
+        <v>50</v>
+      </c>
+      <c r="H37" t="s">
+        <v>248</v>
       </c>
     </row>
     <row r="38" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A38" t="s">
-        <v>86</v>
-      </c>
-      <c r="G38" t="s">
-        <v>87</v>
+        <v>51</v>
+      </c>
+      <c r="H38" t="s">
+        <v>249</v>
       </c>
     </row>
     <row r="39" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A39" t="s">
-        <v>88</v>
-      </c>
-      <c r="I39" s="1">
-        <v>1020</v>
-      </c>
-    </row>
-    <row r="40" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A40" t="s">
-        <v>89</v>
-      </c>
-      <c r="H40" t="s">
-        <v>278</v>
-      </c>
-    </row>
-    <row r="41" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A41" t="s">
-        <v>90</v>
-      </c>
-      <c r="H41" t="s">
-        <v>279</v>
-      </c>
-    </row>
-    <row r="42" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A42" t="s">
-        <v>91</v>
-      </c>
-      <c r="H42" t="s">
-        <v>280</v>
-      </c>
-    </row>
-    <row r="43" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A43" t="s">
-        <v>92</v>
-      </c>
-      <c r="H43" t="s">
-        <v>281</v>
-      </c>
-    </row>
-    <row r="44" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A44" t="s">
-        <v>93</v>
-      </c>
-      <c r="H44" t="s">
-        <v>58</v>
-      </c>
-    </row>
-    <row r="45" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A45" t="s">
-        <v>94</v>
-      </c>
-      <c r="H45" t="s">
-        <v>276</v>
-      </c>
+      <c r="I39" s="1"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -2673,11 +2602,12 @@
   <dimension ref="A1:F8"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection sqref="A1:F8"/>
+      <selection activeCell="A2" sqref="A2:A8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
+    <col min="1" max="1" width="19.28515625" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="11.5703125" customWidth="1"/>
     <col min="5" max="5" width="9" customWidth="1"/>
     <col min="6" max="6" width="8.5703125" bestFit="1" customWidth="1"/>
@@ -2685,159 +2615,159 @@
   <sheetData>
     <row r="1" spans="1:6" x14ac:dyDescent="0.25">
       <c r="B1" t="s">
-        <v>95</v>
+        <v>52</v>
       </c>
       <c r="C1" t="s">
-        <v>96</v>
+        <v>53</v>
       </c>
       <c r="D1" t="s">
-        <v>97</v>
+        <v>54</v>
       </c>
       <c r="E1" t="s">
-        <v>98</v>
+        <v>55</v>
       </c>
       <c r="F1" t="s">
-        <v>99</v>
+        <v>56</v>
       </c>
     </row>
     <row r="2" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
-        <v>100</v>
+        <v>57</v>
       </c>
       <c r="B2" t="s">
-        <v>283</v>
+        <v>182</v>
       </c>
       <c r="C2" t="s">
-        <v>284</v>
+        <v>196</v>
       </c>
       <c r="D2" t="s">
-        <v>261</v>
+        <v>179</v>
       </c>
       <c r="E2" s="1">
-        <v>26000</v>
+        <v>14523</v>
       </c>
       <c r="F2" t="s">
-        <v>101</v>
+        <v>58</v>
       </c>
     </row>
     <row r="3" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
-        <v>102</v>
+        <v>59</v>
       </c>
       <c r="B3" t="s">
-        <v>251</v>
+        <v>183</v>
       </c>
       <c r="C3" t="s">
-        <v>251</v>
+        <v>183</v>
       </c>
       <c r="D3" t="s">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="E3" s="1">
-        <v>1271</v>
+        <v>1691</v>
       </c>
       <c r="F3" t="s">
-        <v>285</v>
+        <v>184</v>
       </c>
     </row>
     <row r="4" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
-        <v>104</v>
+        <v>60</v>
       </c>
       <c r="B4" t="s">
-        <v>286</v>
+        <v>180</v>
       </c>
       <c r="C4" t="s">
-        <v>287</v>
+        <v>197</v>
       </c>
       <c r="D4" t="s">
-        <v>288</v>
+        <v>198</v>
       </c>
       <c r="E4" s="1">
-        <v>5244</v>
+        <v>5785</v>
       </c>
       <c r="F4" t="s">
-        <v>101</v>
+        <v>58</v>
       </c>
     </row>
     <row r="5" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
-        <v>106</v>
+        <v>61</v>
       </c>
       <c r="B5" t="s">
-        <v>245</v>
+        <v>186</v>
       </c>
       <c r="C5" t="s">
-        <v>252</v>
+        <v>199</v>
       </c>
       <c r="D5" t="s">
-        <v>10</v>
+        <v>185</v>
       </c>
       <c r="E5" s="1">
-        <v>2188</v>
+        <v>1967</v>
       </c>
       <c r="F5" t="s">
-        <v>289</v>
+        <v>200</v>
       </c>
     </row>
     <row r="6" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
-        <v>108</v>
+        <v>62</v>
       </c>
       <c r="B6" t="s">
-        <v>290</v>
+        <v>187</v>
       </c>
       <c r="C6" t="s">
-        <v>291</v>
+        <v>58</v>
       </c>
       <c r="D6" t="s">
-        <v>292</v>
+        <v>201</v>
       </c>
       <c r="E6" s="1" t="s">
-        <v>293</v>
+        <v>202</v>
       </c>
       <c r="F6" t="s">
-        <v>294</v>
+        <v>203</v>
       </c>
     </row>
     <row r="7" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
-        <v>109</v>
+        <v>63</v>
       </c>
       <c r="B7" t="s">
-        <v>295</v>
+        <v>189</v>
       </c>
       <c r="C7" t="s">
-        <v>295</v>
+        <v>204</v>
       </c>
       <c r="D7" t="s">
-        <v>105</v>
+        <v>205</v>
       </c>
       <c r="E7" s="1">
-        <v>3921</v>
+        <v>1718</v>
       </c>
       <c r="F7" t="s">
-        <v>101</v>
+        <v>206</v>
       </c>
     </row>
     <row r="8" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
-        <v>111</v>
+        <v>64</v>
       </c>
       <c r="B8" t="s">
-        <v>296</v>
+        <v>190</v>
       </c>
       <c r="C8" t="s">
-        <v>296</v>
+        <v>191</v>
       </c>
       <c r="D8" t="s">
-        <v>229</v>
+        <v>8</v>
       </c>
       <c r="E8" t="s">
-        <v>297</v>
+        <v>195</v>
       </c>
       <c r="F8" t="s">
-        <v>298</v>
+        <v>207</v>
       </c>
     </row>
   </sheetData>
@@ -2850,17 +2780,17 @@
   <dimension ref="A1:C2"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection sqref="A1:C2"/>
+      <selection activeCell="N18" sqref="N18"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <sheetData>
     <row r="1" spans="1:3" x14ac:dyDescent="0.25">
       <c r="B1" t="s">
-        <v>112</v>
+        <v>65</v>
       </c>
       <c r="C1" t="s">
-        <v>113</v>
+        <v>66</v>
       </c>
     </row>
     <row r="2" spans="1:3" x14ac:dyDescent="0.25">
@@ -2868,10 +2798,10 @@
         <v>5</v>
       </c>
       <c r="B2" t="s">
-        <v>262</v>
+        <v>288</v>
       </c>
       <c r="C2" t="s">
-        <v>263</v>
+        <v>289</v>
       </c>
     </row>
   </sheetData>
@@ -2891,13 +2821,13 @@
   <sheetData>
     <row r="1" spans="1:4" x14ac:dyDescent="0.25">
       <c r="B1" t="s">
-        <v>114</v>
+        <v>67</v>
       </c>
       <c r="C1" t="s">
-        <v>115</v>
+        <v>68</v>
       </c>
       <c r="D1" t="s">
-        <v>116</v>
+        <v>69</v>
       </c>
     </row>
     <row r="2" spans="1:4" x14ac:dyDescent="0.25">
@@ -2905,10 +2835,10 @@
         <v>0</v>
       </c>
       <c r="B2" s="1">
-        <v>2250000</v>
+        <v>1740000</v>
       </c>
       <c r="C2" s="1">
-        <v>2250000</v>
+        <v>1740000</v>
       </c>
     </row>
     <row r="3" spans="1:4" x14ac:dyDescent="0.25">
@@ -2916,10 +2846,10 @@
         <v>1</v>
       </c>
       <c r="B3" s="1">
-        <v>375000</v>
+        <v>290000</v>
       </c>
       <c r="C3" s="1">
-        <v>375000</v>
+        <v>290000</v>
       </c>
     </row>
     <row r="4" spans="1:4" x14ac:dyDescent="0.25">
@@ -2927,10 +2857,10 @@
         <v>2</v>
       </c>
       <c r="B4" s="1">
-        <v>4125000</v>
+        <v>2030000</v>
       </c>
       <c r="C4" s="1">
-        <v>4125000</v>
+        <v>2030000</v>
       </c>
     </row>
     <row r="5" spans="1:4" x14ac:dyDescent="0.25">
@@ -2938,10 +2868,10 @@
         <v>3</v>
       </c>
       <c r="B5" s="1">
-        <v>3750000</v>
+        <v>2610000</v>
       </c>
       <c r="C5" s="1">
-        <v>3750000</v>
+        <v>2610000</v>
       </c>
     </row>
     <row r="6" spans="1:4" x14ac:dyDescent="0.25">
@@ -2949,10 +2879,10 @@
         <v>4</v>
       </c>
       <c r="B6" s="1">
-        <v>375000</v>
+        <v>290000</v>
       </c>
       <c r="C6" s="1">
-        <v>375000</v>
+        <v>290000</v>
       </c>
     </row>
     <row r="7" spans="1:4" x14ac:dyDescent="0.25">
@@ -2960,13 +2890,13 @@
         <v>5</v>
       </c>
       <c r="B7" s="1">
-        <v>3000000</v>
+        <v>2320000</v>
       </c>
       <c r="C7" s="1">
-        <v>1855933</v>
+        <v>1736621</v>
       </c>
       <c r="D7" t="s">
-        <v>282</v>
+        <v>290</v>
       </c>
     </row>
     <row r="8" spans="1:4" x14ac:dyDescent="0.25">
@@ -2974,10 +2904,10 @@
         <v>6</v>
       </c>
       <c r="B8" s="1">
-        <v>2250000</v>
+        <v>1160000</v>
       </c>
       <c r="C8" s="1">
-        <v>2250000</v>
+        <v>1160000</v>
       </c>
     </row>
     <row r="9" spans="1:4" x14ac:dyDescent="0.25">
@@ -2985,10 +2915,10 @@
         <v>7</v>
       </c>
       <c r="B9" s="1">
-        <v>375000</v>
+        <v>290000</v>
       </c>
       <c r="C9" s="1">
-        <v>375000</v>
+        <v>290000</v>
       </c>
     </row>
   </sheetData>
@@ -3005,68 +2935,72 @@
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="2" max="2" width="15.85546875" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="16.140625" bestFit="1" customWidth="1"/>
+  </cols>
   <sheetData>
     <row r="1" spans="1:3" x14ac:dyDescent="0.25">
       <c r="B1" t="s">
-        <v>117</v>
+        <v>70</v>
       </c>
       <c r="C1" t="s">
-        <v>118</v>
+        <v>71</v>
       </c>
     </row>
     <row r="2" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
-        <v>119</v>
+        <v>72</v>
       </c>
       <c r="B2" t="s">
-        <v>110</v>
+        <v>291</v>
       </c>
       <c r="C2" t="s">
-        <v>110</v>
+        <v>291</v>
       </c>
     </row>
     <row r="3" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
-        <v>120</v>
+        <v>73</v>
       </c>
       <c r="B3" s="1">
-        <v>1020</v>
+        <v>1625</v>
       </c>
       <c r="C3" s="1">
-        <v>1021</v>
+        <v>1629</v>
       </c>
     </row>
     <row r="4" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
-        <v>121</v>
+        <v>74</v>
       </c>
       <c r="B4" t="s">
-        <v>248</v>
+        <v>292</v>
       </c>
       <c r="C4" t="s">
-        <v>248</v>
+        <v>292</v>
       </c>
     </row>
     <row r="5" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
-        <v>122</v>
+        <v>75</v>
       </c>
       <c r="B5" s="1">
-        <v>946449</v>
+        <v>1222848</v>
       </c>
       <c r="C5" s="1">
-        <v>947010</v>
+        <v>1223680</v>
       </c>
     </row>
     <row r="6" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
-        <v>123</v>
+        <v>76</v>
       </c>
       <c r="B6" t="s">
-        <v>249</v>
+        <v>222</v>
       </c>
       <c r="C6" t="s">
-        <v>249</v>
+        <v>222</v>
       </c>
     </row>
   </sheetData>
@@ -3078,8 +3012,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{C0D852D1-3B6B-4BB9-864E-C3E094800358}">
   <dimension ref="A1:B45"/>
   <sheetViews>
-    <sheetView topLeftCell="A25" workbookViewId="0">
-      <selection activeCell="J38" sqref="J38"/>
+    <sheetView workbookViewId="0">
+      <selection sqref="A1:C39"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -3089,12 +3023,12 @@
   <sheetData>
     <row r="1" spans="1:2" x14ac:dyDescent="0.25">
       <c r="B1" t="s">
-        <v>124</v>
+        <v>77</v>
       </c>
     </row>
     <row r="2" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
-        <v>35</v>
+        <v>15</v>
       </c>
       <c r="B2" s="1">
         <v>1000</v>
@@ -3102,347 +3036,312 @@
     </row>
     <row r="3" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
-        <v>36</v>
+        <v>16</v>
       </c>
       <c r="B3" s="1">
-        <v>2709</v>
+        <v>2100</v>
       </c>
     </row>
     <row r="4" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
-        <v>37</v>
+        <v>17</v>
       </c>
       <c r="B4" s="1">
-        <v>2925</v>
+        <v>2210</v>
       </c>
     </row>
     <row r="5" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
-        <v>38</v>
+        <v>18</v>
       </c>
       <c r="B5" s="1">
-        <v>3939</v>
+        <v>2692</v>
       </c>
     </row>
     <row r="6" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
-        <v>39</v>
+        <v>19</v>
       </c>
       <c r="B6" s="1">
-        <v>3039</v>
+        <v>2517</v>
       </c>
     </row>
     <row r="7" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
-        <v>41</v>
+        <v>20</v>
       </c>
       <c r="B7" s="1">
-        <v>2517</v>
+        <v>1939</v>
       </c>
     </row>
     <row r="8" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
-        <v>43</v>
+        <v>21</v>
       </c>
       <c r="B8" s="1">
-        <v>3114</v>
+        <v>2205</v>
       </c>
     </row>
     <row r="9" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
-        <v>44</v>
+        <v>22</v>
       </c>
       <c r="B9" s="1">
-        <v>2842</v>
+        <v>2077</v>
       </c>
     </row>
     <row r="10" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A10" t="s">
-        <v>46</v>
+        <v>23</v>
       </c>
       <c r="B10" s="1">
-        <v>2815</v>
+        <v>2082</v>
       </c>
     </row>
     <row r="11" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A11" t="s">
-        <v>48</v>
+        <v>24</v>
       </c>
       <c r="B11" s="1">
-        <v>3818</v>
+        <v>2250</v>
       </c>
     </row>
     <row r="12" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A12" t="s">
-        <v>49</v>
+        <v>25</v>
       </c>
       <c r="B12" s="1">
-        <v>3015</v>
+        <v>1949</v>
       </c>
     </row>
     <row r="13" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A13" t="s">
-        <v>50</v>
+        <v>26</v>
       </c>
       <c r="B13" s="1">
-        <v>2907</v>
+        <v>2140</v>
       </c>
     </row>
     <row r="14" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A14" t="s">
-        <v>52</v>
+        <v>27</v>
       </c>
       <c r="B14" s="1">
-        <v>3056</v>
+        <v>2005</v>
       </c>
     </row>
     <row r="15" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A15" t="s">
-        <v>54</v>
+        <v>28</v>
       </c>
       <c r="B15" s="1">
-        <v>3429</v>
+        <v>2311</v>
       </c>
     </row>
     <row r="16" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A16" t="s">
-        <v>56</v>
+        <v>29</v>
       </c>
       <c r="B16" s="1">
-        <v>2393</v>
+        <v>1000</v>
       </c>
     </row>
     <row r="17" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A17" t="s">
-        <v>57</v>
+        <v>30</v>
       </c>
       <c r="B17" s="1">
-        <v>2845</v>
+        <v>2138</v>
       </c>
     </row>
     <row r="18" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A18" t="s">
-        <v>59</v>
+        <v>31</v>
       </c>
       <c r="B18" s="1">
-        <v>2746</v>
+        <v>2486</v>
       </c>
     </row>
     <row r="19" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A19" t="s">
-        <v>60</v>
+        <v>32</v>
       </c>
       <c r="B19" s="1">
-        <v>3111</v>
+        <v>2497</v>
       </c>
     </row>
     <row r="20" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A20" t="s">
-        <v>62</v>
+        <v>33</v>
       </c>
       <c r="B20" s="1">
-        <v>1000</v>
+        <v>1843</v>
       </c>
     </row>
     <row r="21" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A21" t="s">
-        <v>63</v>
+        <v>34</v>
       </c>
       <c r="B21" s="1">
-        <v>2994</v>
+        <v>2251</v>
       </c>
     </row>
     <row r="22" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A22" t="s">
-        <v>65</v>
+        <v>35</v>
       </c>
       <c r="B22" s="1">
-        <v>3785</v>
+        <v>2377</v>
       </c>
     </row>
     <row r="23" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A23" t="s">
-        <v>67</v>
+        <v>36</v>
       </c>
       <c r="B23" s="1">
-        <v>3290</v>
+        <v>2458</v>
       </c>
     </row>
     <row r="24" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A24" t="s">
-        <v>69</v>
+        <v>37</v>
       </c>
       <c r="B24" s="1">
-        <v>3574</v>
+        <v>1963</v>
       </c>
     </row>
     <row r="25" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A25" t="s">
-        <v>70</v>
+        <v>38</v>
       </c>
       <c r="B25" s="1">
-        <v>3486</v>
+        <v>2560</v>
       </c>
     </row>
     <row r="26" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A26" t="s">
-        <v>71</v>
+        <v>39</v>
       </c>
       <c r="B26" s="1">
-        <v>3148</v>
+        <v>2244</v>
       </c>
     </row>
     <row r="27" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A27" t="s">
-        <v>72</v>
+        <v>40</v>
       </c>
       <c r="B27" s="1">
-        <v>3444</v>
+        <v>2437</v>
       </c>
     </row>
     <row r="28" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A28" t="s">
-        <v>73</v>
+        <v>41</v>
       </c>
       <c r="B28" s="1">
-        <v>3648</v>
+        <v>2547</v>
       </c>
     </row>
     <row r="29" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A29" t="s">
-        <v>75</v>
+        <v>42</v>
       </c>
       <c r="B29" s="1">
-        <v>3599</v>
+        <v>2026</v>
       </c>
     </row>
     <row r="30" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A30" t="s">
-        <v>76</v>
+        <v>43</v>
       </c>
       <c r="B30" s="1">
-        <v>2998</v>
+        <v>2766</v>
       </c>
     </row>
     <row r="31" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A31" t="s">
-        <v>78</v>
+        <v>44</v>
       </c>
       <c r="B31" s="1">
-        <v>2989</v>
+        <v>2001</v>
       </c>
     </row>
     <row r="32" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A32" t="s">
-        <v>80</v>
+        <v>45</v>
       </c>
       <c r="B32" s="1">
-        <v>3243</v>
+        <v>2422</v>
       </c>
     </row>
     <row r="33" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A33" t="s">
-        <v>81</v>
+        <v>46</v>
       </c>
       <c r="B33" s="1">
-        <v>2857</v>
+        <v>2105</v>
       </c>
     </row>
     <row r="34" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A34" t="s">
-        <v>82</v>
+        <v>47</v>
       </c>
       <c r="B34" s="1">
-        <v>3092</v>
+        <v>1000</v>
       </c>
     </row>
     <row r="35" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A35" t="s">
-        <v>83</v>
+        <v>48</v>
       </c>
       <c r="B35" s="1">
-        <v>3334</v>
+        <v>1960</v>
       </c>
     </row>
     <row r="36" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A36" t="s">
-        <v>84</v>
+        <v>49</v>
       </c>
       <c r="B36" s="1">
-        <v>2915</v>
+        <v>1885</v>
       </c>
     </row>
     <row r="37" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A37" t="s">
-        <v>85</v>
+        <v>50</v>
       </c>
       <c r="B37" s="1">
-        <v>3075</v>
+        <v>1753</v>
       </c>
     </row>
     <row r="38" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A38" t="s">
-        <v>86</v>
+        <v>51</v>
       </c>
       <c r="B38" s="1">
-        <v>3068</v>
+        <v>1834</v>
       </c>
     </row>
     <row r="39" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A39" t="s">
-        <v>88</v>
-      </c>
-      <c r="B39" s="1">
-        <v>1000</v>
-      </c>
+      <c r="B39" s="1"/>
     </row>
     <row r="40" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A40" t="s">
-        <v>89</v>
-      </c>
-      <c r="B40" s="1">
-        <v>2371</v>
-      </c>
+      <c r="B40" s="1"/>
     </row>
     <row r="41" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A41" t="s">
-        <v>90</v>
-      </c>
-      <c r="B41" s="1">
-        <v>2382</v>
-      </c>
+      <c r="B41" s="1"/>
     </row>
     <row r="42" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A42" t="s">
-        <v>91</v>
-      </c>
-      <c r="B42" s="1">
-        <v>2326</v>
-      </c>
+      <c r="B42" s="1"/>
     </row>
     <row r="43" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A43" t="s">
-        <v>92</v>
-      </c>
-      <c r="B43" s="1">
-        <v>2396</v>
-      </c>
+      <c r="B43" s="1"/>
     </row>
     <row r="44" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A44" t="s">
-        <v>93</v>
-      </c>
-      <c r="B44" s="1">
-        <v>2350</v>
-      </c>
+      <c r="B44" s="1"/>
     </row>
     <row r="45" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A45" t="s">
-        <v>94</v>
-      </c>
-      <c r="B45" s="1">
-        <v>2479</v>
-      </c>
+      <c r="B45" s="1"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/target/smartpls.xlsx
+++ b/target/smartpls.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\www\tesis\target\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4F389773-2936-4B90-AD71-FA742C4BF8CF}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C4180B62-CD4A-4BEC-B9FF-B044A1821A6E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" activeTab="4" xr2:uid="{A045F930-4DC8-43A3-823B-36ED7A8AB670}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" activeTab="1" xr2:uid="{A045F930-4DC8-43A3-823B-36ED7A8AB670}"/>
   </bookViews>
   <sheets>
     <sheet name="flc" sheetId="1" r:id="rId1"/>
@@ -34,7 +34,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="407" uniqueCount="293">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="250" uniqueCount="164">
   <si>
     <t>BK (X3)</t>
   </si>
@@ -60,9 +60,6 @@
     <t>WB &gt; D &gt; PK</t>
   </si>
   <si>
-    <t>0.044</t>
-  </si>
-  <si>
     <t>Cronbach's Alpha</t>
   </si>
   <si>
@@ -75,12 +72,6 @@
     <t>Average Variance Extracted (AVE)</t>
   </si>
   <si>
-    <t>0.939</t>
-  </si>
-  <si>
-    <t>0.915</t>
-  </si>
-  <si>
     <t>BK (X3) * D (Z)</t>
   </si>
   <si>
@@ -210,9 +201,6 @@
     <t>BK (X3) -&gt; PK (Y)</t>
   </si>
   <si>
-    <t>0.000</t>
-  </si>
-  <si>
     <t>BK &gt; D &gt; PK -&gt; PK (Y)</t>
   </si>
   <si>
@@ -538,387 +526,16 @@
   </si>
   <si>
     <t>Spesialis ICT, Teknologi digital, Produktivitas, Total faktor produktivitas, (Labor share) Kompensasi</t>
-  </si>
-  <si>
-    <t>0.712</t>
-  </si>
-  <si>
-    <t>0.930</t>
-  </si>
-  <si>
-    <t>-0.015</t>
-  </si>
-  <si>
-    <t>0.070</t>
-  </si>
-  <si>
-    <t>0.087</t>
-  </si>
-  <si>
-    <t>0.887</t>
-  </si>
-  <si>
-    <t>0.799</t>
-  </si>
-  <si>
-    <t>0.835</t>
-  </si>
-  <si>
-    <t>0.843</t>
-  </si>
-  <si>
-    <t>0.815</t>
-  </si>
-  <si>
-    <t>0.171</t>
-  </si>
-  <si>
-    <t>0.040</t>
-  </si>
-  <si>
-    <t>0.244</t>
-  </si>
-  <si>
-    <t>0.759</t>
-  </si>
-  <si>
-    <t>0.574</t>
-  </si>
-  <si>
-    <t>-0.074</t>
-  </si>
-  <si>
-    <t>0.046</t>
-  </si>
-  <si>
-    <t>0.041</t>
-  </si>
-  <si>
-    <t>0.080</t>
-  </si>
-  <si>
-    <t>-0.009</t>
-  </si>
-  <si>
-    <t>0.062</t>
-  </si>
-  <si>
-    <t>0.096</t>
-  </si>
-  <si>
-    <t>0.004</t>
-  </si>
-  <si>
-    <t>0.006</t>
-  </si>
-  <si>
-    <t>0.098</t>
-  </si>
-  <si>
-    <t>0.039</t>
-  </si>
-  <si>
-    <t>0.095</t>
-  </si>
-  <si>
-    <t>0.101</t>
-  </si>
-  <si>
-    <t>0.577</t>
-  </si>
-  <si>
-    <t>0.249</t>
-  </si>
-  <si>
-    <t>0.042</t>
-  </si>
-  <si>
-    <t>0.092</t>
-  </si>
-  <si>
-    <t>0.025</t>
-  </si>
-  <si>
-    <t>0.059</t>
-  </si>
-  <si>
-    <t>0.152</t>
-  </si>
-  <si>
-    <t>0.439</t>
-  </si>
-  <si>
-    <t>0.103</t>
-  </si>
-  <si>
-    <t>0.056</t>
-  </si>
-  <si>
-    <t>0.043</t>
-  </si>
-  <si>
-    <t>0.460</t>
-  </si>
-  <si>
-    <t>0.904</t>
-  </si>
-  <si>
-    <t>0.907</t>
-  </si>
-  <si>
-    <t>0.926</t>
-  </si>
-  <si>
-    <t>0.675</t>
-  </si>
-  <si>
-    <t>0.905</t>
-  </si>
-  <si>
-    <t>0.914</t>
-  </si>
-  <si>
-    <t>0.924</t>
-  </si>
-  <si>
-    <t>0.636</t>
-  </si>
-  <si>
-    <t>0.943</t>
-  </si>
-  <si>
-    <t>0.936</t>
-  </si>
-  <si>
-    <t>0.618</t>
-  </si>
-  <si>
-    <t>0.626</t>
-  </si>
-  <si>
-    <t>0.992</t>
-  </si>
-  <si>
-    <t>0.664</t>
-  </si>
-  <si>
-    <t>0.811</t>
-  </si>
-  <si>
-    <t>0.814</t>
-  </si>
-  <si>
-    <t>0.866</t>
-  </si>
-  <si>
-    <t>0.841</t>
-  </si>
-  <si>
-    <t>0.774</t>
-  </si>
-  <si>
-    <t>0.823</t>
-  </si>
-  <si>
-    <t>0.790</t>
-  </si>
-  <si>
-    <t>0.805</t>
-  </si>
-  <si>
-    <t>0.796</t>
-  </si>
-  <si>
-    <t>0.779</t>
-  </si>
-  <si>
-    <t>0.812</t>
-  </si>
-  <si>
-    <t>0.768</t>
-  </si>
-  <si>
-    <t>0.831</t>
-  </si>
-  <si>
-    <t>0.817</t>
-  </si>
-  <si>
-    <t>0.776</t>
-  </si>
-  <si>
-    <t>0.760</t>
-  </si>
-  <si>
-    <t>0.818</t>
-  </si>
-  <si>
-    <t>0.795</t>
-  </si>
-  <si>
-    <t>0.800</t>
-  </si>
-  <si>
-    <t>0.782</t>
-  </si>
-  <si>
-    <t>0.744</t>
-  </si>
-  <si>
-    <t>0.808</t>
-  </si>
-  <si>
-    <t>0.763</t>
-  </si>
-  <si>
-    <t>0.998</t>
-  </si>
-  <si>
-    <t>0.806</t>
-  </si>
-  <si>
-    <t>0.757</t>
-  </si>
-  <si>
-    <t>0.793</t>
-  </si>
-  <si>
-    <t>0.896</t>
-  </si>
-  <si>
-    <t>0.822</t>
-  </si>
-  <si>
-    <t>-0.112</t>
-  </si>
-  <si>
-    <t>-0.067</t>
-  </si>
-  <si>
-    <t>0.001</t>
-  </si>
-  <si>
-    <t>0.797</t>
-  </si>
-  <si>
-    <t>-0.095</t>
-  </si>
-  <si>
-    <t>0.786</t>
-  </si>
-  <si>
-    <t>-0.106</t>
-  </si>
-  <si>
-    <t>0.222</t>
-  </si>
-  <si>
-    <t>-0.169</t>
-  </si>
-  <si>
-    <t>-0.111</t>
-  </si>
-  <si>
-    <t>0.578</t>
-  </si>
-  <si>
-    <t>-0.144</t>
-  </si>
-  <si>
-    <t>0.200</t>
-  </si>
-  <si>
-    <t>-0.123</t>
-  </si>
-  <si>
-    <t>0.791</t>
-  </si>
-  <si>
-    <t>0.050</t>
-  </si>
-  <si>
-    <t>-0.143</t>
-  </si>
-  <si>
-    <t>0.091</t>
-  </si>
-  <si>
-    <t>0.114</t>
-  </si>
-  <si>
-    <t>0.097</t>
-  </si>
-  <si>
-    <t>-0.014</t>
-  </si>
-  <si>
-    <t>-0.051</t>
-  </si>
-  <si>
-    <t>0.089</t>
-  </si>
-  <si>
-    <t>0.116</t>
-  </si>
-  <si>
-    <t>0.094</t>
-  </si>
-  <si>
-    <t>0.035</t>
-  </si>
-  <si>
-    <t>0.100</t>
-  </si>
-  <si>
-    <t>0.112</t>
-  </si>
-  <si>
-    <t>0.176</t>
-  </si>
-  <si>
-    <t>0.631</t>
-  </si>
-  <si>
-    <t>0.151</t>
-  </si>
-  <si>
-    <t>0.215</t>
-  </si>
-  <si>
-    <t>0.127</t>
-  </si>
-  <si>
-    <t>0.074</t>
-  </si>
-  <si>
-    <t>0.193</t>
-  </si>
-  <si>
-    <t>0.118</t>
-  </si>
-  <si>
-    <t>0.106</t>
-  </si>
-  <si>
-    <t>0.414</t>
-  </si>
-  <si>
-    <t>0.400</t>
-  </si>
-  <si>
-    <t>0.251</t>
-  </si>
-  <si>
-    <t>0.052</t>
-  </si>
-  <si>
-    <t>0.741</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+  <numFmts count="2">
+    <numFmt numFmtId="166" formatCode="#,##0.000"/>
+    <numFmt numFmtId="168" formatCode="0.000"/>
+  </numFmts>
   <fonts count="1" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -948,12 +565,15 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="3">
+  <cellXfs count="6">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="3" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
+    <xf numFmtId="166" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="1" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="168" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -1271,7 +891,7 @@
   <dimension ref="A1:I9"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="S17" sqref="S17"/>
+      <selection activeCell="D7" sqref="A1:I9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1309,148 +929,148 @@
       <c r="A2" t="s">
         <v>0</v>
       </c>
-      <c r="B2" t="s">
-        <v>250</v>
+      <c r="B2">
+        <v>0.82199999999999995</v>
       </c>
     </row>
     <row r="3" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
         <v>1</v>
       </c>
-      <c r="B3" t="s">
-        <v>251</v>
+      <c r="B3">
+        <v>-0.112</v>
       </c>
       <c r="C3" s="1">
-        <v>1000</v>
+        <v>1</v>
       </c>
     </row>
     <row r="4" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
         <v>2</v>
       </c>
-      <c r="B4" t="s">
-        <v>252</v>
-      </c>
-      <c r="C4" t="s">
-        <v>253</v>
-      </c>
-      <c r="D4" t="s">
-        <v>254</v>
+      <c r="B4">
+        <v>-6.7000000000000004E-2</v>
+      </c>
+      <c r="C4">
+        <v>1E-3</v>
+      </c>
+      <c r="D4">
+        <v>0.79700000000000004</v>
       </c>
     </row>
     <row r="5" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
         <v>3</v>
       </c>
-      <c r="B5" t="s">
-        <v>172</v>
-      </c>
-      <c r="C5" t="s">
-        <v>255</v>
-      </c>
-      <c r="D5" t="s">
-        <v>192</v>
-      </c>
-      <c r="E5" t="s">
-        <v>256</v>
+      <c r="B5">
+        <v>8.6999999999999994E-2</v>
+      </c>
+      <c r="C5">
+        <v>-9.5000000000000001E-2</v>
+      </c>
+      <c r="D5">
+        <v>9.8000000000000004E-2</v>
+      </c>
+      <c r="E5">
+        <v>0.78600000000000003</v>
       </c>
     </row>
     <row r="6" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
         <v>4</v>
       </c>
-      <c r="B6" t="s">
-        <v>257</v>
-      </c>
-      <c r="C6" t="s">
-        <v>258</v>
-      </c>
-      <c r="D6" t="s">
-        <v>259</v>
-      </c>
-      <c r="E6" t="s">
-        <v>260</v>
+      <c r="B6">
+        <v>-0.106</v>
+      </c>
+      <c r="C6">
+        <v>0.222</v>
+      </c>
+      <c r="D6">
+        <v>-0.16900000000000001</v>
+      </c>
+      <c r="E6">
+        <v>-0.111</v>
       </c>
       <c r="F6" s="1">
-        <v>1000</v>
+        <v>1</v>
       </c>
     </row>
     <row r="7" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
         <v>5</v>
       </c>
-      <c r="B7" t="s">
-        <v>261</v>
-      </c>
-      <c r="C7" t="s">
-        <v>262</v>
-      </c>
-      <c r="D7" t="s">
-        <v>263</v>
-      </c>
-      <c r="E7" t="s">
-        <v>178</v>
-      </c>
-      <c r="F7" t="s">
-        <v>264</v>
-      </c>
-      <c r="G7" t="s">
-        <v>265</v>
+      <c r="B7">
+        <v>0.57799999999999996</v>
+      </c>
+      <c r="C7">
+        <v>-0.14399999999999999</v>
+      </c>
+      <c r="D7">
+        <v>0.2</v>
+      </c>
+      <c r="E7">
+        <v>0.17100000000000001</v>
+      </c>
+      <c r="F7">
+        <v>-0.123</v>
+      </c>
+      <c r="G7">
+        <v>0.79100000000000004</v>
       </c>
     </row>
     <row r="8" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
         <v>6</v>
       </c>
-      <c r="B8" t="s">
-        <v>266</v>
-      </c>
-      <c r="C8" t="s">
-        <v>170</v>
-      </c>
-      <c r="D8" t="s">
-        <v>267</v>
-      </c>
-      <c r="E8" t="s">
-        <v>268</v>
-      </c>
-      <c r="F8" t="s">
-        <v>269</v>
-      </c>
-      <c r="G8" t="s">
-        <v>270</v>
-      </c>
-      <c r="H8" t="s">
-        <v>177</v>
+      <c r="B8">
+        <v>0.05</v>
+      </c>
+      <c r="C8">
+        <v>-1.4999999999999999E-2</v>
+      </c>
+      <c r="D8">
+        <v>-0.14299999999999999</v>
+      </c>
+      <c r="E8">
+        <v>9.0999999999999998E-2</v>
+      </c>
+      <c r="F8">
+        <v>0.114</v>
+      </c>
+      <c r="G8">
+        <v>9.7000000000000003E-2</v>
+      </c>
+      <c r="H8">
+        <v>0.81499999999999995</v>
       </c>
     </row>
     <row r="9" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
         <v>7</v>
       </c>
-      <c r="B9" t="s">
-        <v>271</v>
-      </c>
-      <c r="C9" t="s">
-        <v>171</v>
-      </c>
-      <c r="D9" t="s">
-        <v>272</v>
-      </c>
-      <c r="E9" t="s">
-        <v>194</v>
-      </c>
-      <c r="F9" t="s">
-        <v>273</v>
-      </c>
-      <c r="G9" t="s">
-        <v>170</v>
-      </c>
-      <c r="H9" t="s">
-        <v>271</v>
+      <c r="B9">
+        <v>-1.4E-2</v>
+      </c>
+      <c r="C9">
+        <v>7.0000000000000007E-2</v>
+      </c>
+      <c r="D9">
+        <v>-5.0999999999999997E-2</v>
+      </c>
+      <c r="E9">
+        <v>9.5000000000000001E-2</v>
+      </c>
+      <c r="F9">
+        <v>8.8999999999999996E-2</v>
+      </c>
+      <c r="G9">
+        <v>-1.4999999999999999E-2</v>
+      </c>
+      <c r="H9">
+        <v>-1.4E-2</v>
       </c>
       <c r="I9" s="1">
-        <v>1000</v>
+        <v>1</v>
       </c>
     </row>
   </sheetData>
@@ -1477,22 +1097,22 @@
   <sheetData>
     <row r="1" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
+        <v>74</v>
+      </c>
+      <c r="B1" s="2" t="s">
+        <v>75</v>
+      </c>
+      <c r="C1" t="s">
+        <v>76</v>
+      </c>
+      <c r="D1" s="2" t="s">
+        <v>77</v>
+      </c>
+      <c r="E1" s="2" t="s">
         <v>78</v>
       </c>
-      <c r="B1" s="2" t="s">
+      <c r="F1" s="2" t="s">
         <v>79</v>
-      </c>
-      <c r="C1" t="s">
-        <v>80</v>
-      </c>
-      <c r="D1" s="2" t="s">
-        <v>81</v>
-      </c>
-      <c r="E1" s="2" t="s">
-        <v>82</v>
-      </c>
-      <c r="F1" s="2" t="s">
-        <v>83</v>
       </c>
     </row>
     <row r="2" spans="1:6" ht="120" x14ac:dyDescent="0.25">
@@ -1500,19 +1120,19 @@
         <v>1</v>
       </c>
       <c r="B2" s="2" t="s">
-        <v>84</v>
+        <v>80</v>
       </c>
       <c r="C2">
         <v>2024</v>
       </c>
       <c r="D2" s="2" t="s">
-        <v>85</v>
+        <v>81</v>
       </c>
       <c r="E2" s="2" t="s">
-        <v>86</v>
+        <v>82</v>
       </c>
       <c r="F2" s="2" t="s">
-        <v>87</v>
+        <v>83</v>
       </c>
     </row>
     <row r="3" spans="1:6" ht="75" x14ac:dyDescent="0.25">
@@ -1520,19 +1140,19 @@
         <v>2</v>
       </c>
       <c r="B3" s="2" t="s">
-        <v>88</v>
+        <v>84</v>
       </c>
       <c r="C3">
         <v>2021</v>
       </c>
       <c r="D3" s="2" t="s">
-        <v>89</v>
+        <v>85</v>
       </c>
       <c r="E3" s="2" t="s">
-        <v>90</v>
+        <v>86</v>
       </c>
       <c r="F3" s="2" t="s">
-        <v>91</v>
+        <v>87</v>
       </c>
     </row>
     <row r="4" spans="1:6" ht="255" x14ac:dyDescent="0.25">
@@ -1540,19 +1160,19 @@
         <v>3</v>
       </c>
       <c r="B4" s="2" t="s">
-        <v>92</v>
+        <v>88</v>
       </c>
       <c r="C4">
         <v>2023</v>
       </c>
       <c r="D4" s="2" t="s">
-        <v>93</v>
+        <v>89</v>
       </c>
       <c r="E4" s="2" t="s">
-        <v>94</v>
+        <v>90</v>
       </c>
       <c r="F4" s="2" t="s">
-        <v>95</v>
+        <v>91</v>
       </c>
     </row>
     <row r="5" spans="1:6" ht="180" x14ac:dyDescent="0.25">
@@ -1560,19 +1180,19 @@
         <v>4</v>
       </c>
       <c r="B5" s="2" t="s">
-        <v>96</v>
+        <v>92</v>
       </c>
       <c r="C5">
         <v>2024</v>
       </c>
       <c r="D5" s="2" t="s">
-        <v>147</v>
+        <v>143</v>
       </c>
       <c r="E5" s="2" t="s">
-        <v>97</v>
+        <v>93</v>
       </c>
       <c r="F5" s="2" t="s">
-        <v>98</v>
+        <v>94</v>
       </c>
     </row>
     <row r="6" spans="1:6" ht="240" x14ac:dyDescent="0.25">
@@ -1580,19 +1200,19 @@
         <v>5</v>
       </c>
       <c r="B6" s="2" t="s">
-        <v>99</v>
+        <v>95</v>
       </c>
       <c r="C6">
         <v>2023</v>
       </c>
       <c r="D6" s="2" t="s">
-        <v>100</v>
+        <v>96</v>
       </c>
       <c r="E6" s="2" t="s">
-        <v>101</v>
+        <v>97</v>
       </c>
       <c r="F6" s="2" t="s">
-        <v>102</v>
+        <v>98</v>
       </c>
     </row>
     <row r="7" spans="1:6" ht="195" x14ac:dyDescent="0.25">
@@ -1600,19 +1220,19 @@
         <v>6</v>
       </c>
       <c r="B7" s="2" t="s">
-        <v>103</v>
+        <v>99</v>
       </c>
       <c r="C7">
         <v>2023</v>
       </c>
       <c r="D7" s="2" t="s">
-        <v>104</v>
+        <v>100</v>
       </c>
       <c r="E7" s="2" t="s">
-        <v>148</v>
+        <v>144</v>
       </c>
       <c r="F7" s="2" t="s">
-        <v>105</v>
+        <v>101</v>
       </c>
     </row>
     <row r="8" spans="1:6" ht="90" x14ac:dyDescent="0.25">
@@ -1620,19 +1240,19 @@
         <v>7</v>
       </c>
       <c r="B8" s="2" t="s">
-        <v>106</v>
+        <v>102</v>
       </c>
       <c r="C8">
         <v>2023</v>
       </c>
       <c r="D8" s="2" t="s">
-        <v>149</v>
+        <v>145</v>
       </c>
       <c r="E8" s="2" t="s">
-        <v>150</v>
+        <v>146</v>
       </c>
       <c r="F8" s="2" t="s">
-        <v>151</v>
+        <v>147</v>
       </c>
     </row>
     <row r="9" spans="1:6" ht="90" x14ac:dyDescent="0.25">
@@ -1640,19 +1260,19 @@
         <v>8</v>
       </c>
       <c r="B9" s="2" t="s">
-        <v>107</v>
+        <v>103</v>
       </c>
       <c r="C9">
         <v>2020</v>
       </c>
       <c r="D9" s="2" t="s">
-        <v>152</v>
+        <v>148</v>
       </c>
       <c r="E9" s="2" t="s">
-        <v>108</v>
+        <v>104</v>
       </c>
       <c r="F9" s="2" t="s">
-        <v>109</v>
+        <v>105</v>
       </c>
     </row>
     <row r="10" spans="1:6" ht="90" x14ac:dyDescent="0.25">
@@ -1660,19 +1280,19 @@
         <v>9</v>
       </c>
       <c r="B10" s="2" t="s">
-        <v>110</v>
+        <v>106</v>
       </c>
       <c r="C10">
         <v>2023</v>
       </c>
       <c r="D10" s="2" t="s">
-        <v>153</v>
+        <v>149</v>
       </c>
       <c r="E10" s="2" t="s">
-        <v>111</v>
+        <v>107</v>
       </c>
       <c r="F10" s="2" t="s">
-        <v>154</v>
+        <v>150</v>
       </c>
     </row>
     <row r="11" spans="1:6" ht="60" x14ac:dyDescent="0.25">
@@ -1680,19 +1300,19 @@
         <v>10</v>
       </c>
       <c r="B11" s="2" t="s">
-        <v>112</v>
+        <v>108</v>
       </c>
       <c r="C11">
         <v>2024</v>
       </c>
       <c r="D11" s="2" t="s">
-        <v>155</v>
+        <v>151</v>
       </c>
       <c r="E11" s="2" t="s">
-        <v>113</v>
+        <v>109</v>
       </c>
       <c r="F11" s="2" t="s">
-        <v>156</v>
+        <v>152</v>
       </c>
     </row>
     <row r="12" spans="1:6" ht="60" x14ac:dyDescent="0.25">
@@ -1700,19 +1320,19 @@
         <v>11</v>
       </c>
       <c r="B12" s="2" t="s">
-        <v>114</v>
+        <v>110</v>
       </c>
       <c r="C12">
         <v>2024</v>
       </c>
       <c r="D12" s="2" t="s">
-        <v>157</v>
+        <v>153</v>
       </c>
       <c r="E12" s="2" t="s">
-        <v>115</v>
+        <v>111</v>
       </c>
       <c r="F12" s="2" t="s">
-        <v>158</v>
+        <v>154</v>
       </c>
     </row>
     <row r="13" spans="1:6" ht="195" x14ac:dyDescent="0.25">
@@ -1720,19 +1340,19 @@
         <v>12</v>
       </c>
       <c r="B13" s="2" t="s">
-        <v>116</v>
+        <v>112</v>
       </c>
       <c r="C13">
         <v>2022</v>
       </c>
       <c r="D13" s="2" t="s">
-        <v>159</v>
+        <v>155</v>
       </c>
       <c r="E13" s="2" t="s">
-        <v>117</v>
+        <v>113</v>
       </c>
       <c r="F13" s="2" t="s">
-        <v>160</v>
+        <v>156</v>
       </c>
     </row>
     <row r="14" spans="1:6" ht="165" x14ac:dyDescent="0.25">
@@ -1740,19 +1360,19 @@
         <v>13</v>
       </c>
       <c r="B14" s="2" t="s">
-        <v>118</v>
+        <v>114</v>
       </c>
       <c r="C14">
         <v>2025</v>
       </c>
       <c r="D14" s="2" t="s">
-        <v>161</v>
+        <v>157</v>
       </c>
       <c r="E14" s="2" t="s">
-        <v>119</v>
+        <v>115</v>
       </c>
       <c r="F14" s="2" t="s">
-        <v>162</v>
+        <v>158</v>
       </c>
     </row>
     <row r="15" spans="1:6" ht="90" x14ac:dyDescent="0.25">
@@ -1760,19 +1380,19 @@
         <v>14</v>
       </c>
       <c r="B15" s="2" t="s">
-        <v>120</v>
+        <v>116</v>
       </c>
       <c r="C15">
         <v>2024</v>
       </c>
       <c r="D15" s="2" t="s">
-        <v>163</v>
+        <v>159</v>
       </c>
       <c r="E15" s="2" t="s">
-        <v>164</v>
+        <v>160</v>
       </c>
       <c r="F15" s="2" t="s">
-        <v>121</v>
+        <v>117</v>
       </c>
     </row>
     <row r="16" spans="1:6" ht="135" x14ac:dyDescent="0.25">
@@ -1780,19 +1400,19 @@
         <v>15</v>
       </c>
       <c r="B16" s="2" t="s">
-        <v>122</v>
+        <v>118</v>
       </c>
       <c r="C16">
         <v>2022</v>
       </c>
       <c r="D16" s="2" t="s">
-        <v>165</v>
+        <v>161</v>
       </c>
       <c r="E16" s="2" t="s">
-        <v>166</v>
+        <v>162</v>
       </c>
       <c r="F16" s="2" t="s">
-        <v>123</v>
+        <v>119</v>
       </c>
     </row>
     <row r="17" spans="1:6" ht="75" x14ac:dyDescent="0.25">
@@ -1800,19 +1420,19 @@
         <v>16</v>
       </c>
       <c r="B17" s="2" t="s">
-        <v>124</v>
+        <v>120</v>
       </c>
       <c r="C17">
         <v>2023</v>
       </c>
       <c r="D17" s="2" t="s">
-        <v>125</v>
+        <v>121</v>
       </c>
       <c r="E17" s="2" t="s">
-        <v>126</v>
+        <v>122</v>
       </c>
       <c r="F17" s="2" t="s">
-        <v>127</v>
+        <v>123</v>
       </c>
     </row>
     <row r="18" spans="1:6" ht="60" x14ac:dyDescent="0.25">
@@ -1820,19 +1440,19 @@
         <v>17</v>
       </c>
       <c r="B18" s="2" t="s">
-        <v>128</v>
+        <v>124</v>
       </c>
       <c r="C18">
         <v>2021</v>
       </c>
       <c r="D18" s="2" t="s">
-        <v>129</v>
+        <v>125</v>
       </c>
       <c r="E18" s="2" t="s">
-        <v>130</v>
+        <v>126</v>
       </c>
       <c r="F18" s="2" t="s">
-        <v>131</v>
+        <v>127</v>
       </c>
     </row>
     <row r="19" spans="1:6" ht="60" x14ac:dyDescent="0.25">
@@ -1840,19 +1460,19 @@
         <v>18</v>
       </c>
       <c r="B19" s="2" t="s">
-        <v>132</v>
+        <v>128</v>
       </c>
       <c r="C19">
         <v>2020</v>
       </c>
       <c r="D19" s="2" t="s">
-        <v>133</v>
+        <v>129</v>
       </c>
       <c r="E19" s="2" t="s">
-        <v>134</v>
+        <v>130</v>
       </c>
       <c r="F19" s="2" t="s">
-        <v>135</v>
+        <v>131</v>
       </c>
     </row>
     <row r="20" spans="1:6" ht="150" x14ac:dyDescent="0.25">
@@ -1860,19 +1480,19 @@
         <v>19</v>
       </c>
       <c r="B20" s="2" t="s">
-        <v>136</v>
+        <v>132</v>
       </c>
       <c r="C20">
         <v>2022</v>
       </c>
       <c r="D20" s="2" t="s">
-        <v>167</v>
+        <v>163</v>
       </c>
       <c r="E20" s="2" t="s">
-        <v>137</v>
+        <v>133</v>
       </c>
       <c r="F20" s="2" t="s">
-        <v>138</v>
+        <v>134</v>
       </c>
     </row>
     <row r="21" spans="1:6" ht="135" x14ac:dyDescent="0.25">
@@ -1880,19 +1500,19 @@
         <v>20</v>
       </c>
       <c r="B21" s="2" t="s">
-        <v>139</v>
+        <v>135</v>
       </c>
       <c r="C21">
         <v>2021</v>
       </c>
       <c r="D21" s="2" t="s">
-        <v>140</v>
+        <v>136</v>
       </c>
       <c r="E21" s="2" t="s">
-        <v>141</v>
+        <v>137</v>
       </c>
       <c r="F21" s="2" t="s">
-        <v>142</v>
+        <v>138</v>
       </c>
     </row>
     <row r="22" spans="1:6" ht="135" x14ac:dyDescent="0.25">
@@ -1900,19 +1520,19 @@
         <v>21</v>
       </c>
       <c r="B22" s="2" t="s">
-        <v>143</v>
+        <v>139</v>
       </c>
       <c r="C22">
         <v>2021</v>
       </c>
       <c r="D22" s="2" t="s">
-        <v>144</v>
+        <v>140</v>
       </c>
       <c r="E22" s="2" t="s">
-        <v>145</v>
+        <v>141</v>
       </c>
       <c r="F22" s="2" t="s">
-        <v>146</v>
+        <v>142</v>
       </c>
     </row>
   </sheetData>
@@ -1924,8 +1544,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{F7F330E7-8043-4EA0-8FEA-9B4956202FA4}">
   <dimension ref="A1:I9"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection sqref="A1:I9"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="C5" sqref="A1:I9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1965,119 +1585,119 @@
       <c r="A3" t="s">
         <v>1</v>
       </c>
-      <c r="B3" t="s">
-        <v>274</v>
+      <c r="B3">
+        <v>0.11600000000000001</v>
       </c>
     </row>
     <row r="4" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
         <v>2</v>
       </c>
-      <c r="B4" t="s">
-        <v>275</v>
-      </c>
-      <c r="C4" t="s">
-        <v>276</v>
+      <c r="B4">
+        <v>9.4E-2</v>
+      </c>
+      <c r="C4">
+        <v>3.5000000000000003E-2</v>
       </c>
     </row>
     <row r="5" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
         <v>3</v>
       </c>
-      <c r="B5" t="s">
-        <v>277</v>
-      </c>
-      <c r="C5" t="s">
-        <v>199</v>
-      </c>
-      <c r="D5" t="s">
-        <v>278</v>
+      <c r="B5">
+        <v>0.1</v>
+      </c>
+      <c r="C5">
+        <v>9.1999999999999998E-2</v>
+      </c>
+      <c r="D5">
+        <v>0.112</v>
       </c>
     </row>
     <row r="6" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
         <v>4</v>
       </c>
-      <c r="B6" t="s">
-        <v>278</v>
-      </c>
-      <c r="C6" t="s">
-        <v>258</v>
-      </c>
-      <c r="D6" t="s">
-        <v>279</v>
-      </c>
-      <c r="E6" t="s">
-        <v>274</v>
+      <c r="B6">
+        <v>0.112</v>
+      </c>
+      <c r="C6">
+        <v>0.222</v>
+      </c>
+      <c r="D6">
+        <v>0.17599999999999999</v>
+      </c>
+      <c r="E6">
+        <v>0.11600000000000001</v>
       </c>
     </row>
     <row r="7" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
         <v>5</v>
       </c>
-      <c r="B7" t="s">
-        <v>280</v>
-      </c>
-      <c r="C7" t="s">
-        <v>281</v>
-      </c>
-      <c r="D7" t="s">
-        <v>282</v>
-      </c>
-      <c r="E7" t="s">
-        <v>279</v>
-      </c>
-      <c r="F7" t="s">
-        <v>283</v>
+      <c r="B7">
+        <v>0.63100000000000001</v>
+      </c>
+      <c r="C7">
+        <v>0.151</v>
+      </c>
+      <c r="D7">
+        <v>0.215</v>
+      </c>
+      <c r="E7">
+        <v>0.17599999999999999</v>
+      </c>
+      <c r="F7">
+        <v>0.127</v>
       </c>
     </row>
     <row r="8" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
         <v>6</v>
       </c>
-      <c r="B8" t="s">
-        <v>284</v>
-      </c>
-      <c r="C8" t="s">
-        <v>206</v>
-      </c>
-      <c r="D8" t="s">
-        <v>285</v>
-      </c>
-      <c r="E8" t="s">
-        <v>278</v>
-      </c>
-      <c r="F8" t="s">
-        <v>286</v>
-      </c>
-      <c r="G8" t="s">
-        <v>287</v>
+      <c r="B8">
+        <v>7.3999999999999996E-2</v>
+      </c>
+      <c r="C8">
+        <v>4.2999999999999997E-2</v>
+      </c>
+      <c r="D8">
+        <v>0.193</v>
+      </c>
+      <c r="E8">
+        <v>0.112</v>
+      </c>
+      <c r="F8">
+        <v>0.11799999999999999</v>
+      </c>
+      <c r="G8">
+        <v>0.106</v>
       </c>
     </row>
     <row r="9" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
         <v>7</v>
       </c>
-      <c r="B9" t="s">
-        <v>193</v>
-      </c>
-      <c r="C9" t="s">
-        <v>171</v>
-      </c>
-      <c r="D9" t="s">
-        <v>201</v>
-      </c>
-      <c r="E9" t="s">
-        <v>277</v>
-      </c>
-      <c r="F9" t="s">
-        <v>273</v>
-      </c>
-      <c r="G9" t="s">
-        <v>179</v>
-      </c>
-      <c r="H9" t="s">
-        <v>188</v>
+      <c r="B9">
+        <v>3.9E-2</v>
+      </c>
+      <c r="C9">
+        <v>7.0000000000000007E-2</v>
+      </c>
+      <c r="D9">
+        <v>5.8999999999999997E-2</v>
+      </c>
+      <c r="E9">
+        <v>0.1</v>
+      </c>
+      <c r="F9">
+        <v>8.8999999999999996E-2</v>
+      </c>
+      <c r="G9">
+        <v>0.04</v>
+      </c>
+      <c r="H9">
+        <v>6.2E-2</v>
       </c>
     </row>
   </sheetData>
@@ -2104,33 +1724,33 @@
   <sheetData>
     <row r="1" spans="1:5" x14ac:dyDescent="0.25">
       <c r="B1" t="s">
+        <v>8</v>
+      </c>
+      <c r="C1" t="s">
         <v>9</v>
       </c>
-      <c r="C1" t="s">
+      <c r="D1" t="s">
         <v>10</v>
       </c>
-      <c r="D1" t="s">
+      <c r="E1" t="s">
         <v>11</v>
-      </c>
-      <c r="E1" t="s">
-        <v>12</v>
       </c>
     </row>
     <row r="2" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
         <v>0</v>
       </c>
-      <c r="B2" t="s">
-        <v>208</v>
-      </c>
-      <c r="C2" t="s">
-        <v>209</v>
-      </c>
-      <c r="D2" t="s">
-        <v>210</v>
-      </c>
-      <c r="E2" t="s">
-        <v>211</v>
+      <c r="B2">
+        <v>0.90400000000000003</v>
+      </c>
+      <c r="C2">
+        <v>0.90700000000000003</v>
+      </c>
+      <c r="D2">
+        <v>0.92600000000000005</v>
+      </c>
+      <c r="E2">
+        <v>0.67500000000000004</v>
       </c>
     </row>
     <row r="3" spans="1:5" x14ac:dyDescent="0.25">
@@ -2138,50 +1758,50 @@
         <v>1</v>
       </c>
       <c r="B3" s="1">
-        <v>1000</v>
+        <v>1</v>
       </c>
       <c r="C3" s="1">
-        <v>1000</v>
+        <v>1</v>
       </c>
       <c r="D3" s="1">
-        <v>1000</v>
+        <v>1</v>
       </c>
       <c r="E3" s="1">
-        <v>1000</v>
+        <v>1</v>
       </c>
     </row>
     <row r="4" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
         <v>2</v>
       </c>
-      <c r="B4" t="s">
-        <v>212</v>
-      </c>
-      <c r="C4" t="s">
-        <v>213</v>
-      </c>
-      <c r="D4" t="s">
-        <v>214</v>
-      </c>
-      <c r="E4" t="s">
-        <v>215</v>
+      <c r="B4">
+        <v>0.90500000000000003</v>
+      </c>
+      <c r="C4">
+        <v>0.91400000000000003</v>
+      </c>
+      <c r="D4">
+        <v>0.92400000000000004</v>
+      </c>
+      <c r="E4">
+        <v>0.63600000000000001</v>
       </c>
     </row>
     <row r="5" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
         <v>3</v>
       </c>
-      <c r="B5" t="s">
-        <v>214</v>
-      </c>
-      <c r="C5" t="s">
-        <v>216</v>
-      </c>
-      <c r="D5" t="s">
-        <v>217</v>
-      </c>
-      <c r="E5" t="s">
-        <v>218</v>
+      <c r="B5">
+        <v>0.92400000000000004</v>
+      </c>
+      <c r="C5">
+        <v>0.94299999999999995</v>
+      </c>
+      <c r="D5">
+        <v>0.93600000000000005</v>
+      </c>
+      <c r="E5">
+        <v>0.61799999999999999</v>
       </c>
     </row>
     <row r="6" spans="1:5" x14ac:dyDescent="0.25">
@@ -2189,50 +1809,50 @@
         <v>4</v>
       </c>
       <c r="B6" s="1">
-        <v>1000</v>
+        <v>1</v>
       </c>
       <c r="C6" s="1">
-        <v>1000</v>
+        <v>1</v>
       </c>
       <c r="D6" s="1">
-        <v>1000</v>
+        <v>1</v>
       </c>
       <c r="E6" s="1">
-        <v>1000</v>
+        <v>1</v>
       </c>
     </row>
     <row r="7" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
         <v>5</v>
       </c>
-      <c r="B7" t="s">
-        <v>213</v>
-      </c>
-      <c r="C7" t="s">
-        <v>14</v>
-      </c>
-      <c r="D7" t="s">
-        <v>169</v>
-      </c>
-      <c r="E7" t="s">
-        <v>219</v>
+      <c r="B7">
+        <v>0.91400000000000003</v>
+      </c>
+      <c r="C7">
+        <v>0.91500000000000004</v>
+      </c>
+      <c r="D7">
+        <v>0.93</v>
+      </c>
+      <c r="E7">
+        <v>0.626</v>
       </c>
     </row>
     <row r="8" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
         <v>6</v>
       </c>
-      <c r="B8" t="s">
-        <v>176</v>
-      </c>
-      <c r="C8" t="s">
-        <v>220</v>
-      </c>
-      <c r="D8" t="s">
-        <v>173</v>
-      </c>
-      <c r="E8" t="s">
-        <v>221</v>
+      <c r="B8">
+        <v>0.84299999999999997</v>
+      </c>
+      <c r="C8">
+        <v>0.99199999999999999</v>
+      </c>
+      <c r="D8">
+        <v>0.88700000000000001</v>
+      </c>
+      <c r="E8">
+        <v>0.66400000000000003</v>
       </c>
     </row>
     <row r="9" spans="1:5" x14ac:dyDescent="0.25">
@@ -2240,16 +1860,16 @@
         <v>7</v>
       </c>
       <c r="B9" s="1">
-        <v>1000</v>
+        <v>1</v>
       </c>
       <c r="C9" s="1">
-        <v>1000</v>
+        <v>1</v>
       </c>
       <c r="D9" s="1">
-        <v>1000</v>
+        <v>1</v>
       </c>
       <c r="E9" s="1">
-        <v>1000</v>
+        <v>1</v>
       </c>
     </row>
   </sheetData>
@@ -2262,7 +1882,7 @@
   <dimension ref="A1:I39"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="I18" sqref="I18"/>
+      <selection activeCell="J8" sqref="J8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -2295,298 +1915,298 @@
     </row>
     <row r="2" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
-        <v>15</v>
-      </c>
-      <c r="C2" t="s">
-        <v>13</v>
+        <v>12</v>
+      </c>
+      <c r="C2" s="4">
+        <v>1</v>
       </c>
     </row>
     <row r="3" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
-        <v>16</v>
-      </c>
-      <c r="B3" t="s">
-        <v>222</v>
+        <v>13</v>
+      </c>
+      <c r="B3">
+        <v>0.20699999999999999</v>
       </c>
     </row>
     <row r="4" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
-        <v>17</v>
-      </c>
-      <c r="B4" t="s">
-        <v>223</v>
+        <v>14</v>
+      </c>
+      <c r="B4">
+        <v>0.188</v>
       </c>
     </row>
     <row r="5" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
-        <v>18</v>
-      </c>
-      <c r="B5" t="s">
-        <v>224</v>
+        <v>15</v>
+      </c>
+      <c r="B5">
+        <v>0.22900000000000001</v>
       </c>
     </row>
     <row r="6" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
-        <v>19</v>
-      </c>
-      <c r="B6" t="s">
-        <v>225</v>
+        <v>16</v>
+      </c>
+      <c r="B6">
+        <v>0.19400000000000001</v>
       </c>
     </row>
     <row r="7" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
-        <v>20</v>
-      </c>
-      <c r="B7" t="s">
-        <v>226</v>
+        <v>17</v>
+      </c>
+      <c r="B7">
+        <v>0.186</v>
       </c>
     </row>
     <row r="8" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
-        <v>21</v>
-      </c>
-      <c r="B8" t="s">
-        <v>227</v>
+        <v>18</v>
+      </c>
+      <c r="B8">
+        <v>0.21199999999999999</v>
       </c>
     </row>
     <row r="9" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
-        <v>22</v>
-      </c>
-      <c r="D9" t="s">
-        <v>228</v>
+        <v>19</v>
+      </c>
+      <c r="D9">
+        <v>0.17</v>
       </c>
     </row>
     <row r="10" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A10" t="s">
-        <v>23</v>
-      </c>
-      <c r="D10" t="s">
-        <v>229</v>
+        <v>20</v>
+      </c>
+      <c r="D10">
+        <v>0.193</v>
       </c>
     </row>
     <row r="11" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A11" t="s">
-        <v>24</v>
-      </c>
-      <c r="D11" t="s">
-        <v>230</v>
+        <v>21</v>
+      </c>
+      <c r="D11">
+        <v>0.13900000000000001</v>
       </c>
     </row>
     <row r="12" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A12" t="s">
-        <v>25</v>
-      </c>
-      <c r="D12" t="s">
-        <v>231</v>
+        <v>22</v>
+      </c>
+      <c r="D12">
+        <v>0.17100000000000001</v>
       </c>
     </row>
     <row r="13" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A13" t="s">
-        <v>26</v>
-      </c>
-      <c r="D13" t="s">
-        <v>232</v>
+        <v>23</v>
+      </c>
+      <c r="D13">
+        <v>0.216</v>
       </c>
     </row>
     <row r="14" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A14" t="s">
-        <v>27</v>
-      </c>
-      <c r="D14" t="s">
-        <v>233</v>
+        <v>24</v>
+      </c>
+      <c r="D14">
+        <v>0.15</v>
       </c>
     </row>
     <row r="15" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A15" t="s">
-        <v>28</v>
-      </c>
-      <c r="D15" t="s">
-        <v>234</v>
+        <v>25</v>
+      </c>
+      <c r="D15">
+        <v>0.21199999999999999</v>
       </c>
     </row>
     <row r="16" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A16" t="s">
-        <v>29</v>
-      </c>
-      <c r="F16" t="s">
-        <v>175</v>
+        <v>26</v>
+      </c>
+      <c r="F16">
+        <v>1</v>
       </c>
     </row>
     <row r="17" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A17" t="s">
-        <v>30</v>
-      </c>
-      <c r="E17" t="s">
-        <v>235</v>
+        <v>27</v>
+      </c>
+      <c r="E17">
+        <v>0.215</v>
       </c>
     </row>
     <row r="18" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A18" t="s">
-        <v>31</v>
-      </c>
-      <c r="E18" t="s">
-        <v>227</v>
+        <v>28</v>
+      </c>
+      <c r="E18">
+        <v>0.16500000000000001</v>
       </c>
     </row>
     <row r="19" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A19" t="s">
-        <v>32</v>
-      </c>
-      <c r="E19" t="s">
-        <v>236</v>
+        <v>29</v>
+      </c>
+      <c r="E19">
+        <v>8.7999999999999995E-2</v>
       </c>
     </row>
     <row r="20" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A20" t="s">
-        <v>33</v>
-      </c>
-      <c r="E20" t="s">
-        <v>168</v>
+        <v>30</v>
+      </c>
+      <c r="E20">
+        <v>0.122</v>
       </c>
     </row>
     <row r="21" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A21" t="s">
-        <v>34</v>
-      </c>
-      <c r="E21" t="s">
-        <v>174</v>
+        <v>31</v>
+      </c>
+      <c r="E21">
+        <v>0.16200000000000001</v>
       </c>
     </row>
     <row r="22" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A22" t="s">
-        <v>35</v>
-      </c>
-      <c r="E22" t="s">
-        <v>237</v>
+        <v>32</v>
+      </c>
+      <c r="E22">
+        <v>0.1</v>
       </c>
     </row>
     <row r="23" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A23" t="s">
-        <v>36</v>
-      </c>
-      <c r="E23" t="s">
-        <v>229</v>
+        <v>33</v>
+      </c>
+      <c r="E23">
+        <v>0.13100000000000001</v>
       </c>
     </row>
     <row r="24" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A24" t="s">
-        <v>37</v>
-      </c>
-      <c r="E24" t="s">
-        <v>181</v>
+        <v>34</v>
+      </c>
+      <c r="E24">
+        <v>0.151</v>
       </c>
     </row>
     <row r="25" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A25" t="s">
-        <v>38</v>
-      </c>
-      <c r="E25" t="s">
-        <v>238</v>
+        <v>35</v>
+      </c>
+      <c r="E25">
+        <v>0.13300000000000001</v>
       </c>
     </row>
     <row r="26" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A26" t="s">
-        <v>39</v>
-      </c>
-      <c r="G26" t="s">
-        <v>239</v>
+        <v>36</v>
+      </c>
+      <c r="G26">
+        <v>0.16500000000000001</v>
       </c>
     </row>
     <row r="27" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A27" t="s">
-        <v>40</v>
-      </c>
-      <c r="G27" t="s">
-        <v>238</v>
+        <v>37</v>
+      </c>
+      <c r="G27">
+        <v>0.17299999999999999</v>
       </c>
     </row>
     <row r="28" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A28" t="s">
-        <v>41</v>
-      </c>
-      <c r="G28" t="s">
-        <v>240</v>
+        <v>38</v>
+      </c>
+      <c r="G28">
+        <v>0.15</v>
       </c>
     </row>
     <row r="29" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A29" t="s">
-        <v>42</v>
-      </c>
-      <c r="G29" t="s">
-        <v>241</v>
+        <v>39</v>
+      </c>
+      <c r="G29">
+        <v>0.16500000000000001</v>
       </c>
     </row>
     <row r="30" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A30" t="s">
-        <v>43</v>
-      </c>
-      <c r="G30" t="s">
-        <v>223</v>
+        <v>40</v>
+      </c>
+      <c r="G30">
+        <v>0.156</v>
       </c>
     </row>
     <row r="31" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A31" t="s">
-        <v>44</v>
-      </c>
-      <c r="G31" t="s">
-        <v>242</v>
+        <v>41</v>
+      </c>
+      <c r="G31">
+        <v>0.152</v>
       </c>
     </row>
     <row r="32" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A32" t="s">
-        <v>45</v>
-      </c>
-      <c r="G32" t="s">
-        <v>243</v>
+        <v>42</v>
+      </c>
+      <c r="G32">
+        <v>0.14799999999999999</v>
       </c>
     </row>
     <row r="33" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A33" t="s">
-        <v>46</v>
-      </c>
-      <c r="G33" t="s">
-        <v>244</v>
+        <v>43</v>
+      </c>
+      <c r="G33">
+        <v>0.156</v>
       </c>
     </row>
     <row r="34" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A34" t="s">
-        <v>47</v>
-      </c>
-      <c r="I34" t="s">
-        <v>245</v>
+        <v>44</v>
+      </c>
+      <c r="I34">
+        <v>1</v>
       </c>
     </row>
     <row r="35" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A35" t="s">
-        <v>48</v>
-      </c>
-      <c r="H35" t="s">
-        <v>246</v>
+        <v>45</v>
+      </c>
+      <c r="H35">
+        <v>0.247</v>
       </c>
     </row>
     <row r="36" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A36" t="s">
-        <v>49</v>
-      </c>
-      <c r="H36" t="s">
-        <v>247</v>
+        <v>46</v>
+      </c>
+      <c r="H36">
+        <v>0.152</v>
       </c>
     </row>
     <row r="37" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A37" t="s">
-        <v>50</v>
-      </c>
-      <c r="H37" t="s">
-        <v>248</v>
+        <v>47</v>
+      </c>
+      <c r="H37">
+        <v>0.29699999999999999</v>
       </c>
     </row>
     <row r="38" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A38" t="s">
-        <v>51</v>
-      </c>
-      <c r="H38" t="s">
-        <v>249</v>
+        <v>48</v>
+      </c>
+      <c r="H38">
+        <v>0.503</v>
       </c>
     </row>
     <row r="39" spans="1:9" x14ac:dyDescent="0.25">
@@ -2601,8 +2221,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{61D632CE-895E-47EE-8302-B52F9BDA9B35}">
   <dimension ref="A1:F8"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A2" sqref="A2:A8"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="C6" sqref="C6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -2615,159 +2235,159 @@
   <sheetData>
     <row r="1" spans="1:6" x14ac:dyDescent="0.25">
       <c r="B1" t="s">
+        <v>49</v>
+      </c>
+      <c r="C1" t="s">
+        <v>50</v>
+      </c>
+      <c r="D1" t="s">
+        <v>51</v>
+      </c>
+      <c r="E1" t="s">
         <v>52</v>
       </c>
-      <c r="C1" t="s">
+      <c r="F1" t="s">
         <v>53</v>
-      </c>
-      <c r="D1" t="s">
-        <v>54</v>
-      </c>
-      <c r="E1" t="s">
-        <v>55</v>
-      </c>
-      <c r="F1" t="s">
-        <v>56</v>
       </c>
     </row>
     <row r="2" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
-        <v>57</v>
-      </c>
-      <c r="B2" t="s">
-        <v>182</v>
-      </c>
-      <c r="C2" t="s">
-        <v>196</v>
-      </c>
-      <c r="D2" t="s">
-        <v>179</v>
+        <v>54</v>
+      </c>
+      <c r="B2">
+        <v>0.57399999999999995</v>
+      </c>
+      <c r="C2">
+        <v>0.57699999999999996</v>
+      </c>
+      <c r="D2">
+        <v>0.04</v>
       </c>
       <c r="E2" s="1">
-        <v>14523</v>
-      </c>
-      <c r="F2" t="s">
-        <v>58</v>
+        <v>14.523</v>
+      </c>
+      <c r="F2">
+        <v>0</v>
       </c>
     </row>
     <row r="3" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
-        <v>59</v>
-      </c>
-      <c r="B3" t="s">
-        <v>183</v>
-      </c>
-      <c r="C3" t="s">
-        <v>183</v>
-      </c>
-      <c r="D3" t="s">
-        <v>8</v>
+        <v>55</v>
+      </c>
+      <c r="B3">
+        <v>-7.3999999999999996E-2</v>
+      </c>
+      <c r="C3">
+        <v>-7.3999999999999996E-2</v>
+      </c>
+      <c r="D3">
+        <v>4.3999999999999997E-2</v>
       </c>
       <c r="E3" s="1">
-        <v>1691</v>
-      </c>
-      <c r="F3" t="s">
-        <v>184</v>
+        <v>1.6910000000000001</v>
+      </c>
+      <c r="F3">
+        <v>4.5999999999999999E-2</v>
       </c>
     </row>
     <row r="4" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
-        <v>60</v>
-      </c>
-      <c r="B4" t="s">
-        <v>180</v>
-      </c>
-      <c r="C4" t="s">
-        <v>197</v>
-      </c>
-      <c r="D4" t="s">
-        <v>198</v>
+        <v>56</v>
+      </c>
+      <c r="B4">
+        <v>0.24399999999999999</v>
+      </c>
+      <c r="C4">
+        <v>0.249</v>
+      </c>
+      <c r="D4">
+        <v>4.2000000000000003E-2</v>
       </c>
       <c r="E4" s="1">
-        <v>5785</v>
-      </c>
-      <c r="F4" t="s">
-        <v>58</v>
+        <v>5.7850000000000001</v>
+      </c>
+      <c r="F4">
+        <v>0</v>
       </c>
     </row>
     <row r="5" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
-        <v>61</v>
-      </c>
-      <c r="B5" t="s">
-        <v>186</v>
-      </c>
-      <c r="C5" t="s">
-        <v>199</v>
-      </c>
-      <c r="D5" t="s">
-        <v>185</v>
+        <v>57</v>
+      </c>
+      <c r="B5">
+        <v>0.08</v>
+      </c>
+      <c r="C5">
+        <v>9.1999999999999998E-2</v>
+      </c>
+      <c r="D5">
+        <v>4.1000000000000002E-2</v>
       </c>
       <c r="E5" s="1">
-        <v>1967</v>
-      </c>
-      <c r="F5" t="s">
-        <v>200</v>
+        <v>1.9670000000000001</v>
+      </c>
+      <c r="F5">
+        <v>2.5000000000000001E-2</v>
       </c>
     </row>
     <row r="6" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
-        <v>62</v>
-      </c>
-      <c r="B6" t="s">
-        <v>187</v>
-      </c>
-      <c r="C6" t="s">
         <v>58</v>
       </c>
-      <c r="D6" t="s">
-        <v>201</v>
-      </c>
-      <c r="E6" s="1" t="s">
-        <v>202</v>
-      </c>
-      <c r="F6" t="s">
-        <v>203</v>
+      <c r="B6">
+        <v>-8.9999999999999993E-3</v>
+      </c>
+      <c r="C6">
+        <v>0</v>
+      </c>
+      <c r="D6">
+        <v>5.8999999999999997E-2</v>
+      </c>
+      <c r="E6" s="1">
+        <v>0.152</v>
+      </c>
+      <c r="F6">
+        <v>0.439</v>
       </c>
     </row>
     <row r="7" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
-        <v>63</v>
-      </c>
-      <c r="B7" t="s">
-        <v>189</v>
-      </c>
-      <c r="C7" t="s">
-        <v>204</v>
-      </c>
-      <c r="D7" t="s">
-        <v>205</v>
+        <v>59</v>
+      </c>
+      <c r="B7">
+        <v>9.6000000000000002E-2</v>
+      </c>
+      <c r="C7">
+        <v>0.10299999999999999</v>
+      </c>
+      <c r="D7">
+        <v>5.6000000000000001E-2</v>
       </c>
       <c r="E7" s="1">
-        <v>1718</v>
-      </c>
-      <c r="F7" t="s">
-        <v>206</v>
+        <v>1.718</v>
+      </c>
+      <c r="F7">
+        <v>4.2999999999999997E-2</v>
       </c>
     </row>
     <row r="8" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
-        <v>64</v>
-      </c>
-      <c r="B8" t="s">
-        <v>190</v>
-      </c>
-      <c r="C8" t="s">
-        <v>191</v>
-      </c>
-      <c r="D8" t="s">
-        <v>8</v>
-      </c>
-      <c r="E8" t="s">
-        <v>195</v>
-      </c>
-      <c r="F8" t="s">
-        <v>207</v>
+        <v>60</v>
+      </c>
+      <c r="B8">
+        <v>4.0000000000000001E-3</v>
+      </c>
+      <c r="C8">
+        <v>6.0000000000000001E-3</v>
+      </c>
+      <c r="D8">
+        <v>4.3999999999999997E-2</v>
+      </c>
+      <c r="E8">
+        <v>0.10100000000000001</v>
+      </c>
+      <c r="F8">
+        <v>0.46</v>
       </c>
     </row>
   </sheetData>
@@ -2780,28 +2400,32 @@
   <dimension ref="A1:C2"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="N18" sqref="N18"/>
+      <selection activeCell="C2" sqref="A1:C2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="2" max="2" width="8.7109375" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="17.42578125" bestFit="1" customWidth="1"/>
+  </cols>
   <sheetData>
     <row r="1" spans="1:3" x14ac:dyDescent="0.25">
       <c r="B1" t="s">
-        <v>65</v>
+        <v>61</v>
       </c>
       <c r="C1" t="s">
-        <v>66</v>
+        <v>62</v>
       </c>
     </row>
     <row r="2" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
         <v>5</v>
       </c>
-      <c r="B2" t="s">
-        <v>288</v>
-      </c>
-      <c r="C2" t="s">
-        <v>289</v>
+      <c r="B2">
+        <v>0.41399999999999998</v>
+      </c>
+      <c r="C2">
+        <v>0.4</v>
       </c>
     </row>
   </sheetData>
@@ -2814,20 +2438,20 @@
   <dimension ref="A1:D9"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection sqref="A1:D9"/>
+      <selection activeCell="B7" sqref="B7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <sheetData>
     <row r="1" spans="1:4" x14ac:dyDescent="0.25">
       <c r="B1" t="s">
-        <v>67</v>
+        <v>63</v>
       </c>
       <c r="C1" t="s">
-        <v>68</v>
+        <v>64</v>
       </c>
       <c r="D1" t="s">
-        <v>69</v>
+        <v>65</v>
       </c>
     </row>
     <row r="2" spans="1:4" x14ac:dyDescent="0.25">
@@ -2835,10 +2459,10 @@
         <v>0</v>
       </c>
       <c r="B2" s="1">
-        <v>1740000</v>
+        <v>1740</v>
       </c>
       <c r="C2" s="1">
-        <v>1740000</v>
+        <v>1740</v>
       </c>
     </row>
     <row r="3" spans="1:4" x14ac:dyDescent="0.25">
@@ -2846,10 +2470,10 @@
         <v>1</v>
       </c>
       <c r="B3" s="1">
-        <v>290000</v>
+        <v>290</v>
       </c>
       <c r="C3" s="1">
-        <v>290000</v>
+        <v>290</v>
       </c>
     </row>
     <row r="4" spans="1:4" x14ac:dyDescent="0.25">
@@ -2857,10 +2481,10 @@
         <v>2</v>
       </c>
       <c r="B4" s="1">
-        <v>2030000</v>
+        <v>2030</v>
       </c>
       <c r="C4" s="1">
-        <v>2030000</v>
+        <v>2030</v>
       </c>
     </row>
     <row r="5" spans="1:4" x14ac:dyDescent="0.25">
@@ -2868,10 +2492,10 @@
         <v>3</v>
       </c>
       <c r="B5" s="1">
-        <v>2610000</v>
+        <v>2610</v>
       </c>
       <c r="C5" s="1">
-        <v>2610000</v>
+        <v>2610</v>
       </c>
     </row>
     <row r="6" spans="1:4" x14ac:dyDescent="0.25">
@@ -2879,10 +2503,10 @@
         <v>4</v>
       </c>
       <c r="B6" s="1">
-        <v>290000</v>
+        <v>290</v>
       </c>
       <c r="C6" s="1">
-        <v>290000</v>
+        <v>290</v>
       </c>
     </row>
     <row r="7" spans="1:4" x14ac:dyDescent="0.25">
@@ -2890,13 +2514,13 @@
         <v>5</v>
       </c>
       <c r="B7" s="1">
-        <v>2320000</v>
-      </c>
-      <c r="C7" s="1">
-        <v>1736621</v>
-      </c>
-      <c r="D7" t="s">
-        <v>290</v>
+        <v>2320</v>
+      </c>
+      <c r="C7" s="3">
+        <v>1736.6210000000001</v>
+      </c>
+      <c r="D7" s="5">
+        <v>0.251</v>
       </c>
     </row>
     <row r="8" spans="1:4" x14ac:dyDescent="0.25">
@@ -2904,10 +2528,10 @@
         <v>6</v>
       </c>
       <c r="B8" s="1">
-        <v>1160000</v>
+        <v>1160</v>
       </c>
       <c r="C8" s="1">
-        <v>1160000</v>
+        <v>1160</v>
       </c>
     </row>
     <row r="9" spans="1:4" x14ac:dyDescent="0.25">
@@ -2915,10 +2539,10 @@
         <v>7</v>
       </c>
       <c r="B9" s="1">
-        <v>290000</v>
+        <v>290</v>
       </c>
       <c r="C9" s="1">
-        <v>290000</v>
+        <v>290</v>
       </c>
     </row>
   </sheetData>
@@ -2931,7 +2555,7 @@
   <dimension ref="A1:C6"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection sqref="A1:C6"/>
+      <selection activeCell="C2" sqref="C2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -2942,65 +2566,65 @@
   <sheetData>
     <row r="1" spans="1:3" x14ac:dyDescent="0.25">
       <c r="B1" t="s">
-        <v>70</v>
+        <v>66</v>
       </c>
       <c r="C1" t="s">
-        <v>71</v>
+        <v>67</v>
       </c>
     </row>
     <row r="2" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
-        <v>72</v>
-      </c>
-      <c r="B2" t="s">
-        <v>291</v>
-      </c>
-      <c r="C2" t="s">
-        <v>291</v>
+        <v>68</v>
+      </c>
+      <c r="B2" s="5">
+        <v>5.1999999999999998E-2</v>
+      </c>
+      <c r="C2" s="5">
+        <v>5.1999999999999998E-2</v>
       </c>
     </row>
     <row r="3" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
-        <v>73</v>
-      </c>
-      <c r="B3" s="1">
-        <v>1625</v>
-      </c>
-      <c r="C3" s="1">
-        <v>1629</v>
+        <v>69</v>
+      </c>
+      <c r="B3" s="5">
+        <v>1.625</v>
+      </c>
+      <c r="C3" s="5">
+        <v>1.629</v>
       </c>
     </row>
     <row r="4" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
-        <v>74</v>
-      </c>
-      <c r="B4" t="s">
-        <v>292</v>
-      </c>
-      <c r="C4" t="s">
-        <v>292</v>
+        <v>70</v>
+      </c>
+      <c r="B4" s="5">
+        <v>0.74099999999999999</v>
+      </c>
+      <c r="C4" s="5">
+        <v>0.74099999999999999</v>
       </c>
     </row>
     <row r="5" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
-        <v>75</v>
-      </c>
-      <c r="B5" s="1">
-        <v>1222848</v>
-      </c>
-      <c r="C5" s="1">
-        <v>1223680</v>
+        <v>71</v>
+      </c>
+      <c r="B5" s="5">
+        <v>1222.848</v>
+      </c>
+      <c r="C5" s="5">
+        <v>1223.68</v>
       </c>
     </row>
     <row r="6" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
-        <v>76</v>
-      </c>
-      <c r="B6" t="s">
-        <v>222</v>
-      </c>
-      <c r="C6" t="s">
-        <v>222</v>
+        <v>72</v>
+      </c>
+      <c r="B6" s="5">
+        <v>0.81100000000000005</v>
+      </c>
+      <c r="C6" s="5">
+        <v>0.81100000000000005</v>
       </c>
     </row>
   </sheetData>
@@ -3013,7 +2637,7 @@
   <dimension ref="A1:B45"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection sqref="A1:C39"/>
+      <selection activeCell="B2" sqref="A1:B38"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -3022,304 +2646,305 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="B1" t="s">
-        <v>77</v>
+      <c r="A1" s="3"/>
+      <c r="B1" s="3" t="s">
+        <v>73</v>
       </c>
     </row>
     <row r="2" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A2" t="s">
+      <c r="A2" s="3" t="s">
+        <v>12</v>
+      </c>
+      <c r="B2" s="3">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="3" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A3" s="3" t="s">
+        <v>13</v>
+      </c>
+      <c r="B3" s="3">
+        <v>2.1</v>
+      </c>
+    </row>
+    <row r="4" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A4" s="3" t="s">
+        <v>14</v>
+      </c>
+      <c r="B4" s="3">
+        <v>2.21</v>
+      </c>
+    </row>
+    <row r="5" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A5" s="3" t="s">
         <v>15</v>
       </c>
-      <c r="B2" s="1">
-        <v>1000</v>
-      </c>
-    </row>
-    <row r="3" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A3" t="s">
+      <c r="B5" s="3">
+        <v>2.6920000000000002</v>
+      </c>
+    </row>
+    <row r="6" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A6" s="3" t="s">
         <v>16</v>
       </c>
-      <c r="B3" s="1">
-        <v>2100</v>
-      </c>
-    </row>
-    <row r="4" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A4" t="s">
+      <c r="B6" s="3">
+        <v>2.5169999999999999</v>
+      </c>
+    </row>
+    <row r="7" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A7" s="3" t="s">
         <v>17</v>
       </c>
-      <c r="B4" s="1">
-        <v>2210</v>
-      </c>
-    </row>
-    <row r="5" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A5" t="s">
+      <c r="B7" s="3">
+        <v>1.9390000000000001</v>
+      </c>
+    </row>
+    <row r="8" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A8" s="3" t="s">
         <v>18</v>
       </c>
-      <c r="B5" s="1">
-        <v>2692</v>
-      </c>
-    </row>
-    <row r="6" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A6" t="s">
+      <c r="B8" s="3">
+        <v>2.2050000000000001</v>
+      </c>
+    </row>
+    <row r="9" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A9" s="3" t="s">
         <v>19</v>
       </c>
-      <c r="B6" s="1">
-        <v>2517</v>
-      </c>
-    </row>
-    <row r="7" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A7" t="s">
+      <c r="B9" s="3">
+        <v>2.077</v>
+      </c>
+    </row>
+    <row r="10" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A10" s="3" t="s">
         <v>20</v>
       </c>
-      <c r="B7" s="1">
-        <v>1939</v>
-      </c>
-    </row>
-    <row r="8" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A8" t="s">
+      <c r="B10" s="3">
+        <v>2.0819999999999999</v>
+      </c>
+    </row>
+    <row r="11" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A11" s="3" t="s">
         <v>21</v>
       </c>
-      <c r="B8" s="1">
-        <v>2205</v>
-      </c>
-    </row>
-    <row r="9" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A9" t="s">
+      <c r="B11" s="3">
+        <v>2.25</v>
+      </c>
+    </row>
+    <row r="12" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A12" s="3" t="s">
         <v>22</v>
       </c>
-      <c r="B9" s="1">
-        <v>2077</v>
-      </c>
-    </row>
-    <row r="10" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A10" t="s">
+      <c r="B12" s="3">
+        <v>1.9490000000000001</v>
+      </c>
+    </row>
+    <row r="13" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A13" s="3" t="s">
         <v>23</v>
       </c>
-      <c r="B10" s="1">
-        <v>2082</v>
-      </c>
-    </row>
-    <row r="11" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A11" t="s">
+      <c r="B13" s="3">
+        <v>2.14</v>
+      </c>
+    </row>
+    <row r="14" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A14" s="3" t="s">
         <v>24</v>
       </c>
-      <c r="B11" s="1">
-        <v>2250</v>
-      </c>
-    </row>
-    <row r="12" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A12" t="s">
+      <c r="B14" s="3">
+        <v>2.0049999999999999</v>
+      </c>
+    </row>
+    <row r="15" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A15" s="3" t="s">
         <v>25</v>
       </c>
-      <c r="B12" s="1">
-        <v>1949</v>
-      </c>
-    </row>
-    <row r="13" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A13" t="s">
+      <c r="B15" s="3">
+        <v>2.3109999999999999</v>
+      </c>
+    </row>
+    <row r="16" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A16" s="3" t="s">
         <v>26</v>
       </c>
-      <c r="B13" s="1">
-        <v>2140</v>
-      </c>
-    </row>
-    <row r="14" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A14" t="s">
+      <c r="B16" s="3">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="17" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A17" s="3" t="s">
         <v>27</v>
       </c>
-      <c r="B14" s="1">
-        <v>2005</v>
-      </c>
-    </row>
-    <row r="15" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A15" t="s">
+      <c r="B17" s="3">
+        <v>2.1379999999999999</v>
+      </c>
+    </row>
+    <row r="18" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A18" s="3" t="s">
         <v>28</v>
       </c>
-      <c r="B15" s="1">
-        <v>2311</v>
-      </c>
-    </row>
-    <row r="16" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A16" t="s">
+      <c r="B18" s="3">
+        <v>2.4860000000000002</v>
+      </c>
+    </row>
+    <row r="19" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A19" s="3" t="s">
         <v>29</v>
       </c>
-      <c r="B16" s="1">
-        <v>1000</v>
-      </c>
-    </row>
-    <row r="17" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A17" t="s">
+      <c r="B19" s="3">
+        <v>2.4969999999999999</v>
+      </c>
+    </row>
+    <row r="20" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A20" s="3" t="s">
         <v>30</v>
       </c>
-      <c r="B17" s="1">
-        <v>2138</v>
-      </c>
-    </row>
-    <row r="18" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A18" t="s">
+      <c r="B20" s="3">
+        <v>1.843</v>
+      </c>
+    </row>
+    <row r="21" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A21" s="3" t="s">
         <v>31</v>
       </c>
-      <c r="B18" s="1">
-        <v>2486</v>
-      </c>
-    </row>
-    <row r="19" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A19" t="s">
+      <c r="B21" s="3">
+        <v>2.2509999999999999</v>
+      </c>
+    </row>
+    <row r="22" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A22" s="3" t="s">
         <v>32</v>
       </c>
-      <c r="B19" s="1">
-        <v>2497</v>
-      </c>
-    </row>
-    <row r="20" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A20" t="s">
+      <c r="B22" s="3">
+        <v>2.3769999999999998</v>
+      </c>
+    </row>
+    <row r="23" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A23" s="3" t="s">
         <v>33</v>
       </c>
-      <c r="B20" s="1">
-        <v>1843</v>
-      </c>
-    </row>
-    <row r="21" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A21" t="s">
+      <c r="B23" s="3">
+        <v>2.4580000000000002</v>
+      </c>
+    </row>
+    <row r="24" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A24" s="3" t="s">
         <v>34</v>
       </c>
-      <c r="B21" s="1">
-        <v>2251</v>
-      </c>
-    </row>
-    <row r="22" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A22" t="s">
+      <c r="B24" s="3">
+        <v>1.9630000000000001</v>
+      </c>
+    </row>
+    <row r="25" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A25" s="3" t="s">
         <v>35</v>
       </c>
-      <c r="B22" s="1">
-        <v>2377</v>
-      </c>
-    </row>
-    <row r="23" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A23" t="s">
+      <c r="B25" s="3">
+        <v>2.56</v>
+      </c>
+    </row>
+    <row r="26" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A26" s="3" t="s">
         <v>36</v>
       </c>
-      <c r="B23" s="1">
-        <v>2458</v>
-      </c>
-    </row>
-    <row r="24" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A24" t="s">
+      <c r="B26" s="3">
+        <v>2.2440000000000002</v>
+      </c>
+    </row>
+    <row r="27" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A27" s="3" t="s">
         <v>37</v>
       </c>
-      <c r="B24" s="1">
-        <v>1963</v>
-      </c>
-    </row>
-    <row r="25" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A25" t="s">
+      <c r="B27" s="3">
+        <v>2.4369999999999998</v>
+      </c>
+    </row>
+    <row r="28" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A28" s="3" t="s">
         <v>38</v>
       </c>
-      <c r="B25" s="1">
-        <v>2560</v>
-      </c>
-    </row>
-    <row r="26" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A26" t="s">
+      <c r="B28" s="3">
+        <v>2.5470000000000002</v>
+      </c>
+    </row>
+    <row r="29" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A29" s="3" t="s">
         <v>39</v>
       </c>
-      <c r="B26" s="1">
-        <v>2244</v>
-      </c>
-    </row>
-    <row r="27" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A27" t="s">
+      <c r="B29" s="3">
+        <v>2.0259999999999998</v>
+      </c>
+    </row>
+    <row r="30" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A30" s="3" t="s">
         <v>40</v>
       </c>
-      <c r="B27" s="1">
-        <v>2437</v>
-      </c>
-    </row>
-    <row r="28" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A28" t="s">
+      <c r="B30" s="3">
+        <v>2.766</v>
+      </c>
+    </row>
+    <row r="31" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A31" s="3" t="s">
         <v>41</v>
       </c>
-      <c r="B28" s="1">
-        <v>2547</v>
-      </c>
-    </row>
-    <row r="29" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A29" t="s">
+      <c r="B31" s="3">
+        <v>2.0009999999999999</v>
+      </c>
+    </row>
+    <row r="32" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A32" s="3" t="s">
         <v>42</v>
       </c>
-      <c r="B29" s="1">
-        <v>2026</v>
-      </c>
-    </row>
-    <row r="30" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A30" t="s">
+      <c r="B32" s="3">
+        <v>2.4220000000000002</v>
+      </c>
+    </row>
+    <row r="33" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A33" s="3" t="s">
         <v>43</v>
       </c>
-      <c r="B30" s="1">
-        <v>2766</v>
-      </c>
-    </row>
-    <row r="31" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A31" t="s">
+      <c r="B33" s="3">
+        <v>2.105</v>
+      </c>
+    </row>
+    <row r="34" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A34" s="3" t="s">
         <v>44</v>
       </c>
-      <c r="B31" s="1">
-        <v>2001</v>
-      </c>
-    </row>
-    <row r="32" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A32" t="s">
+      <c r="B34" s="3">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="35" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A35" s="3" t="s">
         <v>45</v>
       </c>
-      <c r="B32" s="1">
-        <v>2422</v>
-      </c>
-    </row>
-    <row r="33" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A33" t="s">
+      <c r="B35" s="3">
+        <v>1.96</v>
+      </c>
+    </row>
+    <row r="36" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A36" s="3" t="s">
         <v>46</v>
       </c>
-      <c r="B33" s="1">
-        <v>2105</v>
-      </c>
-    </row>
-    <row r="34" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A34" t="s">
+      <c r="B36" s="3">
+        <v>1.885</v>
+      </c>
+    </row>
+    <row r="37" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A37" s="3" t="s">
         <v>47</v>
       </c>
-      <c r="B34" s="1">
-        <v>1000</v>
-      </c>
-    </row>
-    <row r="35" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A35" t="s">
+      <c r="B37" s="3">
+        <v>1.7529999999999999</v>
+      </c>
+    </row>
+    <row r="38" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A38" s="3" t="s">
         <v>48</v>
       </c>
-      <c r="B35" s="1">
-        <v>1960</v>
-      </c>
-    </row>
-    <row r="36" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A36" t="s">
-        <v>49</v>
-      </c>
-      <c r="B36" s="1">
-        <v>1885</v>
-      </c>
-    </row>
-    <row r="37" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A37" t="s">
-        <v>50</v>
-      </c>
-      <c r="B37" s="1">
-        <v>1753</v>
-      </c>
-    </row>
-    <row r="38" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A38" t="s">
-        <v>51</v>
-      </c>
-      <c r="B38" s="1">
-        <v>1834</v>
+      <c r="B38" s="3">
+        <v>1.8340000000000001</v>
       </c>
     </row>
     <row r="39" spans="1:2" x14ac:dyDescent="0.25">
